--- a/Predicciones.xlsx
+++ b/Predicciones.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Predicciones</t>
+          <t>Interes Predicho</t>
         </is>
       </c>
     </row>
@@ -450,7 +450,7 @@
         <v>10001</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2164032749512103</v>
+        <v>15.21640327495121</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         <v>10002</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1797953117889973</v>
+        <v>15.179795311789</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         <v>10003</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1468758810826293</v>
+        <v>15.14687588108263</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +474,7 @@
         <v>10004</v>
       </c>
       <c r="B5" t="n">
-        <v>0.1988785175311131</v>
+        <v>15.19887851753111</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +482,7 @@
         <v>10005</v>
       </c>
       <c r="B6" t="n">
-        <v>0.07319258715711194</v>
+        <v>15.07319258715711</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         <v>10006</v>
       </c>
       <c r="B7" t="n">
-        <v>0.2056168656557462</v>
+        <v>15.20561686565575</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         <v>10007</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1823425824549596</v>
+        <v>15.18234258245496</v>
       </c>
     </row>
     <row r="9">
@@ -506,7 +506,7 @@
         <v>10008</v>
       </c>
       <c r="B9" t="n">
-        <v>0.09082260030839573</v>
+        <v>15.0908226003084</v>
       </c>
     </row>
     <row r="10">
@@ -514,7 +514,7 @@
         <v>10009</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1723593621616183</v>
+        <v>15.17235936216162</v>
       </c>
     </row>
     <row r="11">
@@ -522,7 +522,7 @@
         <v>10010</v>
       </c>
       <c r="B11" t="n">
-        <v>0.1558056615830215</v>
+        <v>15.15580566158302</v>
       </c>
     </row>
     <row r="12">
@@ -530,7 +530,7 @@
         <v>10011</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1466727301423549</v>
+        <v>15.14667273014235</v>
       </c>
     </row>
     <row r="13">
@@ -538,7 +538,7 @@
         <v>10012</v>
       </c>
       <c r="B13" t="n">
-        <v>0.2089122692843601</v>
+        <v>15.20891226928436</v>
       </c>
     </row>
     <row r="14">
@@ -546,7 +546,7 @@
         <v>10013</v>
       </c>
       <c r="B14" t="n">
-        <v>0.1100711478728125</v>
+        <v>15.11007114787281</v>
       </c>
     </row>
     <row r="15">
@@ -554,7 +554,7 @@
         <v>10014</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1131312647561496</v>
+        <v>15.11313126475615</v>
       </c>
     </row>
     <row r="16">
@@ -562,7 +562,7 @@
         <v>10015</v>
       </c>
       <c r="B16" t="n">
-        <v>0.2041074037214905</v>
+        <v>15.20410740372149</v>
       </c>
     </row>
     <row r="17">
@@ -570,7 +570,7 @@
         <v>10016</v>
       </c>
       <c r="B17" t="n">
-        <v>0.1933725423971575</v>
+        <v>15.19337254239716</v>
       </c>
     </row>
     <row r="18">
@@ -578,7 +578,7 @@
         <v>10017</v>
       </c>
       <c r="B18" t="n">
-        <v>0.1822237214611492</v>
+        <v>15.18222372146115</v>
       </c>
     </row>
     <row r="19">
@@ -586,7 +586,7 @@
         <v>10018</v>
       </c>
       <c r="B19" t="n">
-        <v>0.1043415077972953</v>
+        <v>15.1043415077973</v>
       </c>
     </row>
     <row r="20">
@@ -594,7 +594,7 @@
         <v>10019</v>
       </c>
       <c r="B20" t="n">
-        <v>0.1956517309911291</v>
+        <v>15.19565173099113</v>
       </c>
     </row>
     <row r="21">
@@ -602,7 +602,7 @@
         <v>10020</v>
       </c>
       <c r="B21" t="n">
-        <v>0.08310625824740253</v>
+        <v>15.0831062582474</v>
       </c>
     </row>
     <row r="22">
@@ -610,7 +610,7 @@
         <v>10021</v>
       </c>
       <c r="B22" t="n">
-        <v>0.2019683901400666</v>
+        <v>15.20196839014007</v>
       </c>
     </row>
     <row r="23">
@@ -618,7 +618,7 @@
         <v>10022</v>
       </c>
       <c r="B23" t="n">
-        <v>0.1184717929455581</v>
+        <v>15.11847179294556</v>
       </c>
     </row>
     <row r="24">
@@ -626,7 +626,7 @@
         <v>10023</v>
       </c>
       <c r="B24" t="n">
-        <v>0.1966288436953949</v>
+        <v>15.19662884369539</v>
       </c>
     </row>
     <row r="25">
@@ -634,7 +634,7 @@
         <v>10024</v>
       </c>
       <c r="B25" t="n">
-        <v>0.1275104955082278</v>
+        <v>15.12751049550823</v>
       </c>
     </row>
     <row r="26">
@@ -642,7 +642,7 @@
         <v>10025</v>
       </c>
       <c r="B26" t="n">
-        <v>0.1538111603637472</v>
+        <v>15.15381116036375</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +650,7 @@
         <v>10026</v>
       </c>
       <c r="B27" t="n">
-        <v>0.1708104643695017</v>
+        <v>15.1708104643695</v>
       </c>
     </row>
     <row r="28">
@@ -658,7 +658,7 @@
         <v>10027</v>
       </c>
       <c r="B28" t="n">
-        <v>0.1658576591668902</v>
+        <v>15.16585765916689</v>
       </c>
     </row>
     <row r="29">
@@ -666,7 +666,7 @@
         <v>10028</v>
       </c>
       <c r="B29" t="n">
-        <v>0.1986973273334013</v>
+        <v>15.1986973273334</v>
       </c>
     </row>
     <row r="30">
@@ -674,7 +674,7 @@
         <v>10029</v>
       </c>
       <c r="B30" t="n">
-        <v>0.1797575122599873</v>
+        <v>15.17975751225999</v>
       </c>
     </row>
     <row r="31">
@@ -682,7 +682,7 @@
         <v>10030</v>
       </c>
       <c r="B31" t="n">
-        <v>0.1313721975570686</v>
+        <v>15.13137219755707</v>
       </c>
     </row>
     <row r="32">
@@ -690,7 +690,7 @@
         <v>10031</v>
       </c>
       <c r="B32" t="n">
-        <v>0.1944119030500728</v>
+        <v>15.19441190305007</v>
       </c>
     </row>
     <row r="33">
@@ -698,7 +698,7 @@
         <v>10032</v>
       </c>
       <c r="B33" t="n">
-        <v>0.1802391008739371</v>
+        <v>15.18023910087394</v>
       </c>
     </row>
     <row r="34">
@@ -706,7 +706,7 @@
         <v>10033</v>
       </c>
       <c r="B34" t="n">
-        <v>0.1880209038553532</v>
+        <v>15.18802090385535</v>
       </c>
     </row>
     <row r="35">
@@ -714,7 +714,7 @@
         <v>10034</v>
       </c>
       <c r="B35" t="n">
-        <v>0.1987241793857918</v>
+        <v>15.19872417938579</v>
       </c>
     </row>
     <row r="36">
@@ -722,7 +722,7 @@
         <v>10035</v>
       </c>
       <c r="B36" t="n">
-        <v>0.196513444550332</v>
+        <v>15.19651344455033</v>
       </c>
     </row>
     <row r="37">
@@ -730,7 +730,7 @@
         <v>10036</v>
       </c>
       <c r="B37" t="n">
-        <v>0.1741172008223495</v>
+        <v>15.17411720082235</v>
       </c>
     </row>
     <row r="38">
@@ -738,7 +738,7 @@
         <v>10037</v>
       </c>
       <c r="B38" t="n">
-        <v>0.1679604659344466</v>
+        <v>15.16796046593445</v>
       </c>
     </row>
     <row r="39">
@@ -746,7 +746,7 @@
         <v>10038</v>
       </c>
       <c r="B39" t="n">
-        <v>0.1967678602445722</v>
+        <v>15.19676786024457</v>
       </c>
     </row>
     <row r="40">
@@ -754,7 +754,7 @@
         <v>10039</v>
       </c>
       <c r="B40" t="n">
-        <v>0.1630345754359468</v>
+        <v>15.16303457543595</v>
       </c>
     </row>
     <row r="41">
@@ -762,7 +762,7 @@
         <v>10040</v>
       </c>
       <c r="B41" t="n">
-        <v>0.1488289397393726</v>
+        <v>15.14882893973937</v>
       </c>
     </row>
     <row r="42">
@@ -770,7 +770,7 @@
         <v>10041</v>
       </c>
       <c r="B42" t="n">
-        <v>0.1142019546770228</v>
+        <v>15.11420195467702</v>
       </c>
     </row>
     <row r="43">
@@ -778,7 +778,7 @@
         <v>10042</v>
       </c>
       <c r="B43" t="n">
-        <v>0.1610151779639401</v>
+        <v>15.16101517796394</v>
       </c>
     </row>
     <row r="44">
@@ -786,7 +786,7 @@
         <v>10043</v>
       </c>
       <c r="B44" t="n">
-        <v>0.1259712336805391</v>
+        <v>15.12597123368054</v>
       </c>
     </row>
     <row r="45">
@@ -794,7 +794,7 @@
         <v>10044</v>
       </c>
       <c r="B45" t="n">
-        <v>0.1034519135473821</v>
+        <v>15.10345191354738</v>
       </c>
     </row>
     <row r="46">
@@ -802,7 +802,7 @@
         <v>10045</v>
       </c>
       <c r="B46" t="n">
-        <v>0.22004206714112</v>
+        <v>15.22004206714112</v>
       </c>
     </row>
     <row r="47">
@@ -810,7 +810,7 @@
         <v>10046</v>
       </c>
       <c r="B47" t="n">
-        <v>0.1414861553642222</v>
+        <v>15.14148615536422</v>
       </c>
     </row>
     <row r="48">
@@ -818,7 +818,7 @@
         <v>10047</v>
       </c>
       <c r="B48" t="n">
-        <v>0.1822095066245792</v>
+        <v>15.18220950662458</v>
       </c>
     </row>
     <row r="49">
@@ -826,7 +826,7 @@
         <v>10048</v>
       </c>
       <c r="B49" t="n">
-        <v>0.1589867652632684</v>
+        <v>15.15898676526327</v>
       </c>
     </row>
     <row r="50">
@@ -834,7 +834,7 @@
         <v>10049</v>
       </c>
       <c r="B50" t="n">
-        <v>0.2111303961124122</v>
+        <v>15.21113039611241</v>
       </c>
     </row>
     <row r="51">
@@ -842,7 +842,7 @@
         <v>10050</v>
       </c>
       <c r="B51" t="n">
-        <v>0.1152999411686058</v>
+        <v>15.11529994116861</v>
       </c>
     </row>
     <row r="52">
@@ -850,7 +850,7 @@
         <v>10051</v>
       </c>
       <c r="B52" t="n">
-        <v>0.1444579395888876</v>
+        <v>15.14445793958889</v>
       </c>
     </row>
     <row r="53">
@@ -858,7 +858,7 @@
         <v>10052</v>
       </c>
       <c r="B53" t="n">
-        <v>0.1599159971450989</v>
+        <v>15.1599159971451</v>
       </c>
     </row>
     <row r="54">
@@ -866,7 +866,7 @@
         <v>10053</v>
       </c>
       <c r="B54" t="n">
-        <v>0.1909876701273849</v>
+        <v>15.19098767012738</v>
       </c>
     </row>
     <row r="55">
@@ -874,7 +874,7 @@
         <v>10054</v>
       </c>
       <c r="B55" t="n">
-        <v>0.1779888970945735</v>
+        <v>15.17798889709457</v>
       </c>
     </row>
     <row r="56">
@@ -882,7 +882,7 @@
         <v>10055</v>
       </c>
       <c r="B56" t="n">
-        <v>0.1520276464553741</v>
+        <v>15.15202764645537</v>
       </c>
     </row>
     <row r="57">
@@ -890,7 +890,7 @@
         <v>10056</v>
       </c>
       <c r="B57" t="n">
-        <v>0.1827678354684836</v>
+        <v>15.18276783546848</v>
       </c>
     </row>
     <row r="58">
@@ -898,7 +898,7 @@
         <v>10057</v>
       </c>
       <c r="B58" t="n">
-        <v>0.1104868116769174</v>
+        <v>15.11048681167692</v>
       </c>
     </row>
     <row r="59">
@@ -906,7 +906,7 @@
         <v>10058</v>
       </c>
       <c r="B59" t="n">
-        <v>0.2004335619812523</v>
+        <v>15.20043356198125</v>
       </c>
     </row>
     <row r="60">
@@ -914,7 +914,7 @@
         <v>10059</v>
       </c>
       <c r="B60" t="n">
-        <v>0.1400515539041738</v>
+        <v>15.14005155390417</v>
       </c>
     </row>
     <row r="61">
@@ -922,7 +922,7 @@
         <v>10060</v>
       </c>
       <c r="B61" t="n">
-        <v>0.1621256471747758</v>
+        <v>15.16212564717478</v>
       </c>
     </row>
     <row r="62">
@@ -930,7 +930,7 @@
         <v>10061</v>
       </c>
       <c r="B62" t="n">
-        <v>0.1714459122889498</v>
+        <v>15.17144591228895</v>
       </c>
     </row>
     <row r="63">
@@ -938,7 +938,7 @@
         <v>10062</v>
       </c>
       <c r="B63" t="n">
-        <v>0.1821419718217146</v>
+        <v>15.18214197182171</v>
       </c>
     </row>
     <row r="64">
@@ -946,7 +946,7 @@
         <v>10063</v>
       </c>
       <c r="B64" t="n">
-        <v>0.130623312633854</v>
+        <v>15.13062331263385</v>
       </c>
     </row>
     <row r="65">
@@ -954,7 +954,7 @@
         <v>10064</v>
       </c>
       <c r="B65" t="n">
-        <v>0.134508235832982</v>
+        <v>15.13450823583298</v>
       </c>
     </row>
     <row r="66">
@@ -962,7 +962,7 @@
         <v>10065</v>
       </c>
       <c r="B66" t="n">
-        <v>0.182968777060521</v>
+        <v>15.18296877706052</v>
       </c>
     </row>
     <row r="67">
@@ -970,7 +970,7 @@
         <v>10066</v>
       </c>
       <c r="B67" t="n">
-        <v>0.2299975588305443</v>
+        <v>15.22999755883054</v>
       </c>
     </row>
     <row r="68">
@@ -978,7 +978,7 @@
         <v>10067</v>
       </c>
       <c r="B68" t="n">
-        <v>0.1671773520331359</v>
+        <v>15.16717735203314</v>
       </c>
     </row>
     <row r="69">
@@ -986,7 +986,7 @@
         <v>10068</v>
       </c>
       <c r="B69" t="n">
-        <v>0.1862027391524283</v>
+        <v>15.18620273915243</v>
       </c>
     </row>
     <row r="70">
@@ -994,7 +994,7 @@
         <v>10069</v>
       </c>
       <c r="B70" t="n">
-        <v>0.1812369376966802</v>
+        <v>15.18123693769668</v>
       </c>
     </row>
     <row r="71">
@@ -1002,7 +1002,7 @@
         <v>10070</v>
       </c>
       <c r="B71" t="n">
-        <v>0.1278832285876997</v>
+        <v>15.1278832285877</v>
       </c>
     </row>
     <row r="72">
@@ -1010,7 +1010,7 @@
         <v>10071</v>
       </c>
       <c r="B72" t="n">
-        <v>0.1850963301796859</v>
+        <v>15.18509633017969</v>
       </c>
     </row>
     <row r="73">
@@ -1018,7 +1018,7 @@
         <v>10072</v>
       </c>
       <c r="B73" t="n">
-        <v>0.1428849162211054</v>
+        <v>15.1428849162211</v>
       </c>
     </row>
     <row r="74">
@@ -1026,7 +1026,7 @@
         <v>10073</v>
       </c>
       <c r="B74" t="n">
-        <v>0.1950884027403335</v>
+        <v>15.19508840274033</v>
       </c>
     </row>
     <row r="75">
@@ -1034,7 +1034,7 @@
         <v>10074</v>
       </c>
       <c r="B75" t="n">
-        <v>0.1574537809390818</v>
+        <v>15.15745378093908</v>
       </c>
     </row>
     <row r="76">
@@ -1042,7 +1042,7 @@
         <v>10075</v>
       </c>
       <c r="B76" t="n">
-        <v>0.157511067528763</v>
+        <v>15.15751106752876</v>
       </c>
     </row>
     <row r="77">
@@ -1050,7 +1050,7 @@
         <v>10076</v>
       </c>
       <c r="B77" t="n">
-        <v>0.2034712149702964</v>
+        <v>15.2034712149703</v>
       </c>
     </row>
     <row r="78">
@@ -1058,7 +1058,7 @@
         <v>10077</v>
       </c>
       <c r="B78" t="n">
-        <v>0.178228211152945</v>
+        <v>15.17822821115294</v>
       </c>
     </row>
     <row r="79">
@@ -1066,7 +1066,7 @@
         <v>10078</v>
       </c>
       <c r="B79" t="n">
-        <v>0.1541529614009507</v>
+        <v>15.15415296140095</v>
       </c>
     </row>
     <row r="80">
@@ -1074,7 +1074,7 @@
         <v>10079</v>
       </c>
       <c r="B80" t="n">
-        <v>0.191250387506199</v>
+        <v>15.1912503875062</v>
       </c>
     </row>
     <row r="81">
@@ -1082,7 +1082,7 @@
         <v>10080</v>
       </c>
       <c r="B81" t="n">
-        <v>0.14962072131116</v>
+        <v>15.14962072131116</v>
       </c>
     </row>
     <row r="82">
@@ -1090,7 +1090,7 @@
         <v>10081</v>
       </c>
       <c r="B82" t="n">
-        <v>0.1910353661993559</v>
+        <v>15.19103536619936</v>
       </c>
     </row>
     <row r="83">
@@ -1098,7 +1098,7 @@
         <v>10082</v>
       </c>
       <c r="B83" t="n">
-        <v>0.1784884244042033</v>
+        <v>15.1784884244042</v>
       </c>
     </row>
     <row r="84">
@@ -1106,7 +1106,7 @@
         <v>10083</v>
       </c>
       <c r="B84" t="n">
-        <v>0.1734356518989247</v>
+        <v>15.17343565189893</v>
       </c>
     </row>
     <row r="85">
@@ -1114,7 +1114,7 @@
         <v>10084</v>
       </c>
       <c r="B85" t="n">
-        <v>0.2036334819145156</v>
+        <v>15.20363348191452</v>
       </c>
     </row>
     <row r="86">
@@ -1122,7 +1122,7 @@
         <v>10085</v>
       </c>
       <c r="B86" t="n">
-        <v>0.1264723997946146</v>
+        <v>15.12647239979461</v>
       </c>
     </row>
     <row r="87">
@@ -1130,7 +1130,7 @@
         <v>10086</v>
       </c>
       <c r="B87" t="n">
-        <v>0.2187178227652868</v>
+        <v>15.21871782276529</v>
       </c>
     </row>
     <row r="88">
@@ -1138,7 +1138,7 @@
         <v>10087</v>
       </c>
       <c r="B88" t="n">
-        <v>0.224741674849</v>
+        <v>15.224741674849</v>
       </c>
     </row>
     <row r="89">
@@ -1146,7 +1146,7 @@
         <v>10088</v>
       </c>
       <c r="B89" t="n">
-        <v>0.1358381125350566</v>
+        <v>15.13583811253506</v>
       </c>
     </row>
     <row r="90">
@@ -1154,7 +1154,7 @@
         <v>10089</v>
       </c>
       <c r="B90" t="n">
-        <v>0.1234705580529445</v>
+        <v>15.12347055805295</v>
       </c>
     </row>
     <row r="91">
@@ -1162,7 +1162,7 @@
         <v>10090</v>
       </c>
       <c r="B91" t="n">
-        <v>0.1821199087768864</v>
+        <v>15.18211990877689</v>
       </c>
     </row>
     <row r="92">
@@ -1170,7 +1170,7 @@
         <v>10091</v>
       </c>
       <c r="B92" t="n">
-        <v>0.1399652186743008</v>
+        <v>15.1399652186743</v>
       </c>
     </row>
     <row r="93">
@@ -1178,7 +1178,7 @@
         <v>10092</v>
       </c>
       <c r="B93" t="n">
-        <v>0.0845483297069098</v>
+        <v>15.08454832970691</v>
       </c>
     </row>
     <row r="94">
@@ -1186,7 +1186,7 @@
         <v>10093</v>
       </c>
       <c r="B94" t="n">
-        <v>0.1943508887896102</v>
+        <v>15.19435088878961</v>
       </c>
     </row>
     <row r="95">
@@ -1194,7 +1194,7 @@
         <v>10094</v>
       </c>
       <c r="B95" t="n">
-        <v>0.1222997891650593</v>
+        <v>15.12229978916506</v>
       </c>
     </row>
     <row r="96">
@@ -1202,7 +1202,7 @@
         <v>10095</v>
       </c>
       <c r="B96" t="n">
-        <v>0.07218638961387165</v>
+        <v>15.07218638961387</v>
       </c>
     </row>
     <row r="97">
@@ -1210,7 +1210,7 @@
         <v>10096</v>
       </c>
       <c r="B97" t="n">
-        <v>0.2142576601640586</v>
+        <v>15.21425766016406</v>
       </c>
     </row>
     <row r="98">
@@ -1218,7 +1218,7 @@
         <v>10097</v>
       </c>
       <c r="B98" t="n">
-        <v>0.14056746456313</v>
+        <v>15.14056746456313</v>
       </c>
     </row>
     <row r="99">
@@ -1226,7 +1226,7 @@
         <v>10098</v>
       </c>
       <c r="B99" t="n">
-        <v>0.1082017019077749</v>
+        <v>15.10820170190778</v>
       </c>
     </row>
     <row r="100">
@@ -1234,7 +1234,7 @@
         <v>10099</v>
       </c>
       <c r="B100" t="n">
-        <v>0.1454835943773424</v>
+        <v>15.14548359437734</v>
       </c>
     </row>
     <row r="101">
@@ -1242,7 +1242,7 @@
         <v>10100</v>
       </c>
       <c r="B101" t="n">
-        <v>0.2136366058358075</v>
+        <v>15.21363660583581</v>
       </c>
     </row>
     <row r="102">
@@ -1250,7 +1250,7 @@
         <v>10101</v>
       </c>
       <c r="B102" t="n">
-        <v>0.1386275088252215</v>
+        <v>15.13862750882522</v>
       </c>
     </row>
     <row r="103">
@@ -1258,7 +1258,7 @@
         <v>10102</v>
       </c>
       <c r="B103" t="n">
-        <v>0.1888145257548887</v>
+        <v>15.18881452575489</v>
       </c>
     </row>
     <row r="104">
@@ -1266,7 +1266,7 @@
         <v>10103</v>
       </c>
       <c r="B104" t="n">
-        <v>0.09913798423959432</v>
+        <v>15.09913798423959</v>
       </c>
     </row>
     <row r="105">
@@ -1274,7 +1274,7 @@
         <v>10104</v>
       </c>
       <c r="B105" t="n">
-        <v>0.09146245307807412</v>
+        <v>15.09146245307807</v>
       </c>
     </row>
     <row r="106">
@@ -1282,7 +1282,7 @@
         <v>10105</v>
       </c>
       <c r="B106" t="n">
-        <v>0.1091650268873716</v>
+        <v>15.10916502688737</v>
       </c>
     </row>
     <row r="107">
@@ -1290,7 +1290,7 @@
         <v>10106</v>
       </c>
       <c r="B107" t="n">
-        <v>0.1233361360788507</v>
+        <v>15.12333613607885</v>
       </c>
     </row>
     <row r="108">
@@ -1298,7 +1298,7 @@
         <v>10107</v>
       </c>
       <c r="B108" t="n">
-        <v>0.1581793549481186</v>
+        <v>15.15817935494812</v>
       </c>
     </row>
     <row r="109">
@@ -1306,7 +1306,7 @@
         <v>10108</v>
       </c>
       <c r="B109" t="n">
-        <v>0.09486635784379095</v>
+        <v>15.09486635784379</v>
       </c>
     </row>
     <row r="110">
@@ -1314,7 +1314,7 @@
         <v>10109</v>
       </c>
       <c r="B110" t="n">
-        <v>0.09935860180293841</v>
+        <v>15.09935860180294</v>
       </c>
     </row>
     <row r="111">
@@ -1322,7 +1322,7 @@
         <v>10110</v>
       </c>
       <c r="B111" t="n">
-        <v>0.1958875182715821</v>
+        <v>15.19588751827158</v>
       </c>
     </row>
     <row r="112">
@@ -1330,7 +1330,7 @@
         <v>10111</v>
       </c>
       <c r="B112" t="n">
-        <v>0.1867454753802283</v>
+        <v>15.18674547538023</v>
       </c>
     </row>
     <row r="113">
@@ -1338,7 +1338,7 @@
         <v>10112</v>
       </c>
       <c r="B113" t="n">
-        <v>0.1912889339194158</v>
+        <v>15.19128893391942</v>
       </c>
     </row>
     <row r="114">
@@ -1346,7 +1346,7 @@
         <v>10113</v>
       </c>
       <c r="B114" t="n">
-        <v>0.2208601394186507</v>
+        <v>15.22086013941865</v>
       </c>
     </row>
     <row r="115">
@@ -1354,7 +1354,7 @@
         <v>10114</v>
       </c>
       <c r="B115" t="n">
-        <v>0.1570144410527187</v>
+        <v>15.15701444105272</v>
       </c>
     </row>
     <row r="116">
@@ -1362,7 +1362,7 @@
         <v>10115</v>
       </c>
       <c r="B116" t="n">
-        <v>0.1749850667913915</v>
+        <v>15.17498506679139</v>
       </c>
     </row>
     <row r="117">
@@ -1370,7 +1370,7 @@
         <v>10116</v>
       </c>
       <c r="B117" t="n">
-        <v>0.1178308203463761</v>
+        <v>15.11783082034638</v>
       </c>
     </row>
     <row r="118">
@@ -1378,7 +1378,7 @@
         <v>10117</v>
       </c>
       <c r="B118" t="n">
-        <v>0.0873264645966601</v>
+        <v>15.08732646459666</v>
       </c>
     </row>
     <row r="119">
@@ -1386,7 +1386,7 @@
         <v>10118</v>
       </c>
       <c r="B119" t="n">
-        <v>0.1992515724326268</v>
+        <v>15.19925157243263</v>
       </c>
     </row>
     <row r="120">
@@ -1394,7 +1394,7 @@
         <v>10119</v>
       </c>
       <c r="B120" t="n">
-        <v>0.1522169639283985</v>
+        <v>15.1522169639284</v>
       </c>
     </row>
     <row r="121">
@@ -1402,7 +1402,7 @@
         <v>10120</v>
       </c>
       <c r="B121" t="n">
-        <v>0.1995749736311744</v>
+        <v>15.19957497363117</v>
       </c>
     </row>
     <row r="122">
@@ -1410,7 +1410,7 @@
         <v>10121</v>
       </c>
       <c r="B122" t="n">
-        <v>0.1730011531426305</v>
+        <v>15.17300115314263</v>
       </c>
     </row>
     <row r="123">
@@ -1418,7 +1418,7 @@
         <v>10122</v>
       </c>
       <c r="B123" t="n">
-        <v>0.1820672937559845</v>
+        <v>15.18206729375598</v>
       </c>
     </row>
     <row r="124">
@@ -1426,7 +1426,7 @@
         <v>10123</v>
       </c>
       <c r="B124" t="n">
-        <v>0.1988366006943173</v>
+        <v>15.19883660069432</v>
       </c>
     </row>
     <row r="125">
@@ -1434,7 +1434,7 @@
         <v>10124</v>
       </c>
       <c r="B125" t="n">
-        <v>0.1291927372635154</v>
+        <v>15.12919273726352</v>
       </c>
     </row>
     <row r="126">
@@ -1442,7 +1442,7 @@
         <v>10125</v>
       </c>
       <c r="B126" t="n">
-        <v>0.1143098494221056</v>
+        <v>15.11430984942211</v>
       </c>
     </row>
     <row r="127">
@@ -1450,7 +1450,7 @@
         <v>10126</v>
       </c>
       <c r="B127" t="n">
-        <v>0.1850827454300379</v>
+        <v>15.18508274543004</v>
       </c>
     </row>
     <row r="128">
@@ -1458,7 +1458,7 @@
         <v>10127</v>
       </c>
       <c r="B128" t="n">
-        <v>0.1493745475985539</v>
+        <v>15.14937454759855</v>
       </c>
     </row>
     <row r="129">
@@ -1466,7 +1466,7 @@
         <v>10128</v>
       </c>
       <c r="B129" t="n">
-        <v>0.1942656273473949</v>
+        <v>15.1942656273474</v>
       </c>
     </row>
     <row r="130">
@@ -1474,7 +1474,7 @@
         <v>10129</v>
       </c>
       <c r="B130" t="n">
-        <v>0.1947740597466193</v>
+        <v>15.19477405974662</v>
       </c>
     </row>
     <row r="131">
@@ -1482,7 +1482,7 @@
         <v>10130</v>
       </c>
       <c r="B131" t="n">
-        <v>0.1470199529410464</v>
+        <v>15.14701995294105</v>
       </c>
     </row>
     <row r="132">
@@ -1490,7 +1490,7 @@
         <v>10131</v>
       </c>
       <c r="B132" t="n">
-        <v>0.1974758331816704</v>
+        <v>15.19747583318167</v>
       </c>
     </row>
     <row r="133">
@@ -1498,7 +1498,7 @@
         <v>10132</v>
       </c>
       <c r="B133" t="n">
-        <v>0.137977119371688</v>
+        <v>15.13797711937169</v>
       </c>
     </row>
     <row r="134">
@@ -1506,7 +1506,7 @@
         <v>10133</v>
       </c>
       <c r="B134" t="n">
-        <v>0.1211834620184137</v>
+        <v>15.12118346201841</v>
       </c>
     </row>
     <row r="135">
@@ -1514,7 +1514,7 @@
         <v>10134</v>
       </c>
       <c r="B135" t="n">
-        <v>0.1462862209602089</v>
+        <v>15.14628622096021</v>
       </c>
     </row>
     <row r="136">
@@ -1522,7 +1522,7 @@
         <v>10135</v>
       </c>
       <c r="B136" t="n">
-        <v>0.1314812016894459</v>
+        <v>15.13148120168945</v>
       </c>
     </row>
     <row r="137">
@@ -1530,7 +1530,7 @@
         <v>10136</v>
       </c>
       <c r="B137" t="n">
-        <v>0.1145710111499844</v>
+        <v>15.11457101114998</v>
       </c>
     </row>
     <row r="138">
@@ -1538,7 +1538,7 @@
         <v>10137</v>
       </c>
       <c r="B138" t="n">
-        <v>0.1063877988474088</v>
+        <v>15.10638779884741</v>
       </c>
     </row>
     <row r="139">
@@ -1546,7 +1546,7 @@
         <v>10138</v>
       </c>
       <c r="B139" t="n">
-        <v>0.1803755931130606</v>
+        <v>15.18037559311306</v>
       </c>
     </row>
     <row r="140">
@@ -1554,7 +1554,7 @@
         <v>10139</v>
       </c>
       <c r="B140" t="n">
-        <v>0.1061373423986086</v>
+        <v>15.10613734239861</v>
       </c>
     </row>
     <row r="141">
@@ -1562,7 +1562,7 @@
         <v>10140</v>
       </c>
       <c r="B141" t="n">
-        <v>0.1201418569006742</v>
+        <v>15.12014185690067</v>
       </c>
     </row>
     <row r="142">
@@ -1570,7 +1570,7 @@
         <v>10141</v>
       </c>
       <c r="B142" t="n">
-        <v>0.2021840325057283</v>
+        <v>15.20218403250573</v>
       </c>
     </row>
     <row r="143">
@@ -1578,7 +1578,7 @@
         <v>10142</v>
       </c>
       <c r="B143" t="n">
-        <v>0.1740499365806274</v>
+        <v>15.17404993658063</v>
       </c>
     </row>
     <row r="144">
@@ -1586,7 +1586,7 @@
         <v>10143</v>
       </c>
       <c r="B144" t="n">
-        <v>0.1099070618703922</v>
+        <v>15.10990706187039</v>
       </c>
     </row>
     <row r="145">
@@ -1594,7 +1594,7 @@
         <v>10144</v>
       </c>
       <c r="B145" t="n">
-        <v>0.2025364129086161</v>
+        <v>15.20253641290862</v>
       </c>
     </row>
     <row r="146">
@@ -1602,7 +1602,7 @@
         <v>10145</v>
       </c>
       <c r="B146" t="n">
-        <v>0.1729600892709039</v>
+        <v>15.1729600892709</v>
       </c>
     </row>
     <row r="147">
@@ -1610,7 +1610,7 @@
         <v>10146</v>
       </c>
       <c r="B147" t="n">
-        <v>0.1712442876366403</v>
+        <v>15.17124428763664</v>
       </c>
     </row>
     <row r="148">
@@ -1618,7 +1618,7 @@
         <v>10147</v>
       </c>
       <c r="B148" t="n">
-        <v>0.2153733144959631</v>
+        <v>15.21537331449596</v>
       </c>
     </row>
     <row r="149">
@@ -1626,7 +1626,7 @@
         <v>10148</v>
       </c>
       <c r="B149" t="n">
-        <v>0.190189305819965</v>
+        <v>15.19018930581997</v>
       </c>
     </row>
     <row r="150">
@@ -1634,7 +1634,7 @@
         <v>10149</v>
       </c>
       <c r="B150" t="n">
-        <v>0.1354857454673818</v>
+        <v>15.13548574546738</v>
       </c>
     </row>
     <row r="151">
@@ -1642,7 +1642,7 @@
         <v>10150</v>
       </c>
       <c r="B151" t="n">
-        <v>0.2026152657487991</v>
+        <v>15.2026152657488</v>
       </c>
     </row>
     <row r="152">
@@ -1650,7 +1650,7 @@
         <v>10151</v>
       </c>
       <c r="B152" t="n">
-        <v>0.2048243399842136</v>
+        <v>15.20482433998421</v>
       </c>
     </row>
     <row r="153">
@@ -1658,7 +1658,7 @@
         <v>10152</v>
       </c>
       <c r="B153" t="n">
-        <v>0.1276329141329361</v>
+        <v>15.12763291413294</v>
       </c>
     </row>
     <row r="154">
@@ -1666,7 +1666,7 @@
         <v>10153</v>
       </c>
       <c r="B154" t="n">
-        <v>0.1906876727309066</v>
+        <v>15.19068767273091</v>
       </c>
     </row>
     <row r="155">
@@ -1674,7 +1674,7 @@
         <v>10154</v>
       </c>
       <c r="B155" t="n">
-        <v>0.2177002143178622</v>
+        <v>15.21770021431786</v>
       </c>
     </row>
     <row r="156">
@@ -1682,7 +1682,7 @@
         <v>10155</v>
       </c>
       <c r="B156" t="n">
-        <v>0.1989954845667771</v>
+        <v>15.19899548456678</v>
       </c>
     </row>
     <row r="157">
@@ -1690,7 +1690,7 @@
         <v>10156</v>
       </c>
       <c r="B157" t="n">
-        <v>0.09814106770341352</v>
+        <v>15.09814106770341</v>
       </c>
     </row>
     <row r="158">
@@ -1698,7 +1698,7 @@
         <v>10157</v>
       </c>
       <c r="B158" t="n">
-        <v>0.1973116227432038</v>
+        <v>15.1973116227432</v>
       </c>
     </row>
     <row r="159">
@@ -1706,7 +1706,7 @@
         <v>10158</v>
       </c>
       <c r="B159" t="n">
-        <v>0.1456095569088331</v>
+        <v>15.14560955690883</v>
       </c>
     </row>
     <row r="160">
@@ -1714,7 +1714,7 @@
         <v>10159</v>
       </c>
       <c r="B160" t="n">
-        <v>0.2202508549756693</v>
+        <v>15.22025085497567</v>
       </c>
     </row>
     <row r="161">
@@ -1722,7 +1722,7 @@
         <v>10160</v>
       </c>
       <c r="B161" t="n">
-        <v>0.220944761193418</v>
+        <v>15.22094476119342</v>
       </c>
     </row>
     <row r="162">
@@ -1730,7 +1730,7 @@
         <v>10161</v>
       </c>
       <c r="B162" t="n">
-        <v>0.1684072750250016</v>
+        <v>15.168407275025</v>
       </c>
     </row>
     <row r="163">
@@ -1738,7 +1738,7 @@
         <v>10162</v>
       </c>
       <c r="B163" t="n">
-        <v>0.1583390206234283</v>
+        <v>15.15833902062343</v>
       </c>
     </row>
     <row r="164">
@@ -1746,7 +1746,7 @@
         <v>10163</v>
       </c>
       <c r="B164" t="n">
-        <v>0.1485362157350486</v>
+        <v>15.14853621573505</v>
       </c>
     </row>
     <row r="165">
@@ -1754,7 +1754,7 @@
         <v>10164</v>
       </c>
       <c r="B165" t="n">
-        <v>0.09943479930812212</v>
+        <v>15.09943479930812</v>
       </c>
     </row>
     <row r="166">
@@ -1762,7 +1762,7 @@
         <v>10165</v>
       </c>
       <c r="B166" t="n">
-        <v>0.1601096869489179</v>
+        <v>15.16010968694892</v>
       </c>
     </row>
     <row r="167">
@@ -1770,7 +1770,7 @@
         <v>10166</v>
       </c>
       <c r="B167" t="n">
-        <v>0.1493240744554022</v>
+        <v>15.1493240744554</v>
       </c>
     </row>
     <row r="168">
@@ -1778,7 +1778,7 @@
         <v>10167</v>
       </c>
       <c r="B168" t="n">
-        <v>0.1914397060638836</v>
+        <v>15.19143970606388</v>
       </c>
     </row>
     <row r="169">
@@ -1786,7 +1786,7 @@
         <v>10168</v>
       </c>
       <c r="B169" t="n">
-        <v>0.1784787261252538</v>
+        <v>15.17847872612525</v>
       </c>
     </row>
     <row r="170">
@@ -1794,7 +1794,7 @@
         <v>10169</v>
       </c>
       <c r="B170" t="n">
-        <v>0.1568643746330357</v>
+        <v>15.15686437463304</v>
       </c>
     </row>
     <row r="171">
@@ -1802,7 +1802,7 @@
         <v>10170</v>
       </c>
       <c r="B171" t="n">
-        <v>0.1373740223715019</v>
+        <v>15.1373740223715</v>
       </c>
     </row>
     <row r="172">
@@ -1810,7 +1810,7 @@
         <v>10171</v>
       </c>
       <c r="B172" t="n">
-        <v>0.2209430181446056</v>
+        <v>15.22094301814461</v>
       </c>
     </row>
     <row r="173">
@@ -1818,7 +1818,7 @@
         <v>10172</v>
       </c>
       <c r="B173" t="n">
-        <v>0.1531947137262949</v>
+        <v>15.1531947137263</v>
       </c>
     </row>
     <row r="174">
@@ -1826,7 +1826,7 @@
         <v>10173</v>
       </c>
       <c r="B174" t="n">
-        <v>0.1982333556094334</v>
+        <v>15.19823335560943</v>
       </c>
     </row>
     <row r="175">
@@ -1834,7 +1834,7 @@
         <v>10174</v>
       </c>
       <c r="B175" t="n">
-        <v>0.1935827151146957</v>
+        <v>15.1935827151147</v>
       </c>
     </row>
     <row r="176">
@@ -1842,7 +1842,7 @@
         <v>10175</v>
       </c>
       <c r="B176" t="n">
-        <v>0.22005792258403</v>
+        <v>15.22005792258403</v>
       </c>
     </row>
     <row r="177">
@@ -1850,7 +1850,7 @@
         <v>10176</v>
       </c>
       <c r="B177" t="n">
-        <v>0.1997131473747537</v>
+        <v>15.19971314737475</v>
       </c>
     </row>
     <row r="178">
@@ -1858,7 +1858,7 @@
         <v>10177</v>
       </c>
       <c r="B178" t="n">
-        <v>0.1630067687543902</v>
+        <v>15.16300676875439</v>
       </c>
     </row>
     <row r="179">
@@ -1866,7 +1866,7 @@
         <v>10178</v>
       </c>
       <c r="B179" t="n">
-        <v>0.15227869622139</v>
+        <v>15.15227869622139</v>
       </c>
     </row>
     <row r="180">
@@ -1874,7 +1874,7 @@
         <v>10179</v>
       </c>
       <c r="B180" t="n">
-        <v>0.1366230817966871</v>
+        <v>15.13662308179669</v>
       </c>
     </row>
     <row r="181">
@@ -1882,7 +1882,7 @@
         <v>10180</v>
       </c>
       <c r="B181" t="n">
-        <v>0.1548018712254317</v>
+        <v>15.15480187122543</v>
       </c>
     </row>
     <row r="182">
@@ -1890,7 +1890,7 @@
         <v>10181</v>
       </c>
       <c r="B182" t="n">
-        <v>0.1870197566204052</v>
+        <v>15.1870197566204</v>
       </c>
     </row>
     <row r="183">
@@ -1898,7 +1898,7 @@
         <v>10182</v>
       </c>
       <c r="B183" t="n">
-        <v>0.1997103300498253</v>
+        <v>15.19971033004983</v>
       </c>
     </row>
     <row r="184">
@@ -1906,7 +1906,7 @@
         <v>10183</v>
       </c>
       <c r="B184" t="n">
-        <v>0.179459420478925</v>
+        <v>15.17945942047892</v>
       </c>
     </row>
     <row r="185">
@@ -1914,7 +1914,7 @@
         <v>10184</v>
       </c>
       <c r="B185" t="n">
-        <v>0.1530121613811376</v>
+        <v>15.15301216138114</v>
       </c>
     </row>
     <row r="186">
@@ -1922,7 +1922,7 @@
         <v>10185</v>
       </c>
       <c r="B186" t="n">
-        <v>0.1597485781489696</v>
+        <v>15.15974857814897</v>
       </c>
     </row>
     <row r="187">
@@ -1930,7 +1930,7 @@
         <v>10186</v>
       </c>
       <c r="B187" t="n">
-        <v>0.2153208094269149</v>
+        <v>15.21532080942692</v>
       </c>
     </row>
     <row r="188">
@@ -1938,7 +1938,7 @@
         <v>10187</v>
       </c>
       <c r="B188" t="n">
-        <v>0.1767863419995372</v>
+        <v>15.17678634199954</v>
       </c>
     </row>
     <row r="189">
@@ -1946,7 +1946,7 @@
         <v>10188</v>
       </c>
       <c r="B189" t="n">
-        <v>0.1086164176125544</v>
+        <v>15.10861641761255</v>
       </c>
     </row>
     <row r="190">
@@ -1954,7 +1954,7 @@
         <v>10189</v>
       </c>
       <c r="B190" t="n">
-        <v>0.1863725145674343</v>
+        <v>15.18637251456743</v>
       </c>
     </row>
     <row r="191">
@@ -1962,7 +1962,7 @@
         <v>10190</v>
       </c>
       <c r="B191" t="n">
-        <v>0.2278918364428543</v>
+        <v>15.22789183644285</v>
       </c>
     </row>
     <row r="192">
@@ -1970,7 +1970,7 @@
         <v>10191</v>
       </c>
       <c r="B192" t="n">
-        <v>0.2246569852094474</v>
+        <v>15.22465698520945</v>
       </c>
     </row>
     <row r="193">
@@ -1978,7 +1978,7 @@
         <v>10192</v>
       </c>
       <c r="B193" t="n">
-        <v>0.1642747824041378</v>
+        <v>15.16427478240414</v>
       </c>
     </row>
     <row r="194">
@@ -1986,7 +1986,7 @@
         <v>10193</v>
       </c>
       <c r="B194" t="n">
-        <v>0.2018554787750561</v>
+        <v>15.20185547877506</v>
       </c>
     </row>
     <row r="195">
@@ -1994,7 +1994,7 @@
         <v>10194</v>
       </c>
       <c r="B195" t="n">
-        <v>0.1872384838507449</v>
+        <v>15.18723848385075</v>
       </c>
     </row>
     <row r="196">
@@ -2002,7 +2002,7 @@
         <v>10195</v>
       </c>
       <c r="B196" t="n">
-        <v>0.1664389345114404</v>
+        <v>15.16643893451144</v>
       </c>
     </row>
     <row r="197">
@@ -2010,7 +2010,7 @@
         <v>10196</v>
       </c>
       <c r="B197" t="n">
-        <v>0.1675244922803061</v>
+        <v>15.16752449228031</v>
       </c>
     </row>
     <row r="198">
@@ -2018,7 +2018,7 @@
         <v>10197</v>
       </c>
       <c r="B198" t="n">
-        <v>0.1845141976118303</v>
+        <v>15.18451419761183</v>
       </c>
     </row>
     <row r="199">
@@ -2026,7 +2026,7 @@
         <v>10198</v>
       </c>
       <c r="B199" t="n">
-        <v>0.1583902433051653</v>
+        <v>15.15839024330517</v>
       </c>
     </row>
     <row r="200">
@@ -2034,7 +2034,7 @@
         <v>10199</v>
       </c>
       <c r="B200" t="n">
-        <v>0.2017309965449608</v>
+        <v>15.20173099654496</v>
       </c>
     </row>
     <row r="201">
@@ -2042,7 +2042,7 @@
         <v>10200</v>
       </c>
       <c r="B201" t="n">
-        <v>0.1196702336402932</v>
+        <v>15.11967023364029</v>
       </c>
     </row>
     <row r="202">
@@ -2050,7 +2050,7 @@
         <v>10201</v>
       </c>
       <c r="B202" t="n">
-        <v>0.1543516370302662</v>
+        <v>15.15435163703027</v>
       </c>
     </row>
     <row r="203">
@@ -2058,7 +2058,7 @@
         <v>10202</v>
       </c>
       <c r="B203" t="n">
-        <v>0.1240425041313536</v>
+        <v>15.12404250413135</v>
       </c>
     </row>
     <row r="204">
@@ -2066,7 +2066,7 @@
         <v>10203</v>
       </c>
       <c r="B204" t="n">
-        <v>0.09886291630003444</v>
+        <v>15.09886291630003</v>
       </c>
     </row>
     <row r="205">
@@ -2074,7 +2074,7 @@
         <v>10204</v>
       </c>
       <c r="B205" t="n">
-        <v>0.1542731513232692</v>
+        <v>15.15427315132327</v>
       </c>
     </row>
     <row r="206">
@@ -2082,7 +2082,7 @@
         <v>10205</v>
       </c>
       <c r="B206" t="n">
-        <v>0.1447914067261438</v>
+        <v>15.14479140672614</v>
       </c>
     </row>
     <row r="207">
@@ -2090,7 +2090,7 @@
         <v>10206</v>
       </c>
       <c r="B207" t="n">
-        <v>0.1323308509944662</v>
+        <v>15.13233085099447</v>
       </c>
     </row>
     <row r="208">
@@ -2098,7 +2098,7 @@
         <v>10207</v>
       </c>
       <c r="B208" t="n">
-        <v>0.09239804019067138</v>
+        <v>15.09239804019067</v>
       </c>
     </row>
     <row r="209">
@@ -2106,7 +2106,7 @@
         <v>10208</v>
       </c>
       <c r="B209" t="n">
-        <v>0.1307452742881569</v>
+        <v>15.13074527428816</v>
       </c>
     </row>
     <row r="210">
@@ -2114,7 +2114,7 @@
         <v>10209</v>
       </c>
       <c r="B210" t="n">
-        <v>0.1409099685152681</v>
+        <v>15.14090996851527</v>
       </c>
     </row>
     <row r="211">
@@ -2122,7 +2122,7 @@
         <v>10210</v>
       </c>
       <c r="B211" t="n">
-        <v>0.1347649576404504</v>
+        <v>15.13476495764045</v>
       </c>
     </row>
     <row r="212">
@@ -2130,7 +2130,7 @@
         <v>10211</v>
       </c>
       <c r="B212" t="n">
-        <v>0.1801954377434981</v>
+        <v>15.1801954377435</v>
       </c>
     </row>
     <row r="213">
@@ -2138,7 +2138,7 @@
         <v>10212</v>
       </c>
       <c r="B213" t="n">
-        <v>0.1595485768470455</v>
+        <v>15.15954857684705</v>
       </c>
     </row>
     <row r="214">
@@ -2146,7 +2146,7 @@
         <v>10213</v>
       </c>
       <c r="B214" t="n">
-        <v>0.1274905733531349</v>
+        <v>15.12749057335314</v>
       </c>
     </row>
     <row r="215">
@@ -2154,7 +2154,7 @@
         <v>10214</v>
       </c>
       <c r="B215" t="n">
-        <v>0.1523379562346906</v>
+        <v>15.15233795623469</v>
       </c>
     </row>
     <row r="216">
@@ -2162,7 +2162,7 @@
         <v>10215</v>
       </c>
       <c r="B216" t="n">
-        <v>0.1883377348886807</v>
+        <v>15.18833773488868</v>
       </c>
     </row>
     <row r="217">
@@ -2170,7 +2170,7 @@
         <v>10216</v>
       </c>
       <c r="B217" t="n">
-        <v>0.1812542699491068</v>
+        <v>15.18125426994911</v>
       </c>
     </row>
     <row r="218">
@@ -2178,7 +2178,7 @@
         <v>10217</v>
       </c>
       <c r="B218" t="n">
-        <v>0.1678007194818201</v>
+        <v>15.16780071948182</v>
       </c>
     </row>
     <row r="219">
@@ -2186,7 +2186,7 @@
         <v>10218</v>
       </c>
       <c r="B219" t="n">
-        <v>0.1499324550522623</v>
+        <v>15.14993245505226</v>
       </c>
     </row>
     <row r="220">
@@ -2194,7 +2194,7 @@
         <v>10219</v>
       </c>
       <c r="B220" t="n">
-        <v>0.2179258410542547</v>
+        <v>15.21792584105425</v>
       </c>
     </row>
     <row r="221">
@@ -2202,7 +2202,7 @@
         <v>10220</v>
       </c>
       <c r="B221" t="n">
-        <v>0.214740084775504</v>
+        <v>15.2147400847755</v>
       </c>
     </row>
     <row r="222">
@@ -2210,7 +2210,7 @@
         <v>10221</v>
       </c>
       <c r="B222" t="n">
-        <v>0.1443434606498602</v>
+        <v>15.14434346064986</v>
       </c>
     </row>
     <row r="223">
@@ -2218,7 +2218,7 @@
         <v>10222</v>
       </c>
       <c r="B223" t="n">
-        <v>0.1870014739047413</v>
+        <v>15.18700147390474</v>
       </c>
     </row>
     <row r="224">
@@ -2226,7 +2226,7 @@
         <v>10223</v>
       </c>
       <c r="B224" t="n">
-        <v>0.2223555372121633</v>
+        <v>15.22235553721216</v>
       </c>
     </row>
     <row r="225">
@@ -2234,7 +2234,7 @@
         <v>10224</v>
       </c>
       <c r="B225" t="n">
-        <v>0.2195495043775078</v>
+        <v>15.21954950437751</v>
       </c>
     </row>
     <row r="226">
@@ -2242,7 +2242,7 @@
         <v>10225</v>
       </c>
       <c r="B226" t="n">
-        <v>0.07487573121043181</v>
+        <v>15.07487573121043</v>
       </c>
     </row>
     <row r="227">
@@ -2250,7 +2250,7 @@
         <v>10226</v>
       </c>
       <c r="B227" t="n">
-        <v>0.1698931072779017</v>
+        <v>15.1698931072779</v>
       </c>
     </row>
     <row r="228">
@@ -2258,7 +2258,7 @@
         <v>10227</v>
       </c>
       <c r="B228" t="n">
-        <v>0.1907058964111078</v>
+        <v>15.19070589641111</v>
       </c>
     </row>
     <row r="229">
@@ -2266,7 +2266,7 @@
         <v>10228</v>
       </c>
       <c r="B229" t="n">
-        <v>0.1499859221904269</v>
+        <v>15.14998592219043</v>
       </c>
     </row>
     <row r="230">
@@ -2274,7 +2274,7 @@
         <v>10229</v>
       </c>
       <c r="B230" t="n">
-        <v>0.1383417657852279</v>
+        <v>15.13834176578523</v>
       </c>
     </row>
     <row r="231">
@@ -2282,7 +2282,7 @@
         <v>10230</v>
       </c>
       <c r="B231" t="n">
-        <v>0.1274359452094935</v>
+        <v>15.12743594520949</v>
       </c>
     </row>
     <row r="232">
@@ -2290,7 +2290,7 @@
         <v>10231</v>
       </c>
       <c r="B232" t="n">
-        <v>0.1411901513212533</v>
+        <v>15.14119015132125</v>
       </c>
     </row>
     <row r="233">
@@ -2298,7 +2298,7 @@
         <v>10232</v>
       </c>
       <c r="B233" t="n">
-        <v>0.1803294794347665</v>
+        <v>15.18032947943477</v>
       </c>
     </row>
     <row r="234">
@@ -2306,7 +2306,7 @@
         <v>10233</v>
       </c>
       <c r="B234" t="n">
-        <v>0.08721134504335977</v>
+        <v>15.08721134504336</v>
       </c>
     </row>
     <row r="235">
@@ -2314,7 +2314,7 @@
         <v>10234</v>
       </c>
       <c r="B235" t="n">
-        <v>0.2112317166653213</v>
+        <v>15.21123171666532</v>
       </c>
     </row>
     <row r="236">
@@ -2322,7 +2322,7 @@
         <v>10235</v>
       </c>
       <c r="B236" t="n">
-        <v>0.1766521165723594</v>
+        <v>15.17665211657236</v>
       </c>
     </row>
     <row r="237">
@@ -2330,7 +2330,7 @@
         <v>10236</v>
       </c>
       <c r="B237" t="n">
-        <v>0.1155852249923918</v>
+        <v>15.11558522499239</v>
       </c>
     </row>
     <row r="238">
@@ -2338,7 +2338,7 @@
         <v>10237</v>
       </c>
       <c r="B238" t="n">
-        <v>0.08698371744626615</v>
+        <v>15.08698371744627</v>
       </c>
     </row>
     <row r="239">
@@ -2346,7 +2346,7 @@
         <v>10238</v>
       </c>
       <c r="B239" t="n">
-        <v>0.1164287622079068</v>
+        <v>15.11642876220791</v>
       </c>
     </row>
     <row r="240">
@@ -2354,7 +2354,7 @@
         <v>10239</v>
       </c>
       <c r="B240" t="n">
-        <v>0.1968607317978704</v>
+        <v>15.19686073179787</v>
       </c>
     </row>
     <row r="241">
@@ -2362,7 +2362,7 @@
         <v>10240</v>
       </c>
       <c r="B241" t="n">
-        <v>0.1662301633710224</v>
+        <v>15.16623016337102</v>
       </c>
     </row>
     <row r="242">
@@ -2370,7 +2370,7 @@
         <v>10241</v>
       </c>
       <c r="B242" t="n">
-        <v>0.1763430836953337</v>
+        <v>15.17634308369533</v>
       </c>
     </row>
     <row r="243">
@@ -2378,7 +2378,7 @@
         <v>10242</v>
       </c>
       <c r="B243" t="n">
-        <v>0.2020398139749581</v>
+        <v>15.20203981397496</v>
       </c>
     </row>
     <row r="244">
@@ -2386,7 +2386,7 @@
         <v>10243</v>
       </c>
       <c r="B244" t="n">
-        <v>0.2314603590784944</v>
+        <v>15.2314603590785</v>
       </c>
     </row>
     <row r="245">
@@ -2394,7 +2394,7 @@
         <v>10244</v>
       </c>
       <c r="B245" t="n">
-        <v>0.1048652018979201</v>
+        <v>15.10486520189792</v>
       </c>
     </row>
     <row r="246">
@@ -2402,7 +2402,7 @@
         <v>10245</v>
       </c>
       <c r="B246" t="n">
-        <v>0.09282775352279873</v>
+        <v>15.0928277535228</v>
       </c>
     </row>
     <row r="247">
@@ -2410,7 +2410,7 @@
         <v>10246</v>
       </c>
       <c r="B247" t="n">
-        <v>0.187993197004969</v>
+        <v>15.18799319700497</v>
       </c>
     </row>
     <row r="248">
@@ -2418,7 +2418,7 @@
         <v>10247</v>
       </c>
       <c r="B248" t="n">
-        <v>0.1308687919321555</v>
+        <v>15.13086879193215</v>
       </c>
     </row>
     <row r="249">
@@ -2426,7 +2426,7 @@
         <v>10248</v>
       </c>
       <c r="B249" t="n">
-        <v>0.1633616022317642</v>
+        <v>15.16336160223176</v>
       </c>
     </row>
     <row r="250">
@@ -2434,7 +2434,7 @@
         <v>10249</v>
       </c>
       <c r="B250" t="n">
-        <v>0.1750990300168551</v>
+        <v>15.17509903001686</v>
       </c>
     </row>
     <row r="251">
@@ -2442,7 +2442,7 @@
         <v>10250</v>
       </c>
       <c r="B251" t="n">
-        <v>0.09417014321722539</v>
+        <v>15.09417014321722</v>
       </c>
     </row>
     <row r="252">
@@ -2450,7 +2450,7 @@
         <v>10251</v>
       </c>
       <c r="B252" t="n">
-        <v>0.1041109988289543</v>
+        <v>15.10411099882895</v>
       </c>
     </row>
     <row r="253">
@@ -2458,7 +2458,7 @@
         <v>10252</v>
       </c>
       <c r="B253" t="n">
-        <v>0.08128840527387798</v>
+        <v>15.08128840527388</v>
       </c>
     </row>
     <row r="254">
@@ -2466,7 +2466,7 @@
         <v>10253</v>
       </c>
       <c r="B254" t="n">
-        <v>0.1988307942722951</v>
+        <v>15.1988307942723</v>
       </c>
     </row>
     <row r="255">
@@ -2474,7 +2474,7 @@
         <v>10254</v>
       </c>
       <c r="B255" t="n">
-        <v>0.1862514732459216</v>
+        <v>15.18625147324592</v>
       </c>
     </row>
     <row r="256">
@@ -2482,7 +2482,7 @@
         <v>10255</v>
       </c>
       <c r="B256" t="n">
-        <v>0.1187975573108147</v>
+        <v>15.11879755731082</v>
       </c>
     </row>
     <row r="257">
@@ -2490,7 +2490,7 @@
         <v>10256</v>
       </c>
       <c r="B257" t="n">
-        <v>0.09757603599674688</v>
+        <v>15.09757603599675</v>
       </c>
     </row>
     <row r="258">
@@ -2498,7 +2498,7 @@
         <v>10257</v>
       </c>
       <c r="B258" t="n">
-        <v>0.1454480592459988</v>
+        <v>15.145448059246</v>
       </c>
     </row>
     <row r="259">
@@ -2506,7 +2506,7 @@
         <v>10258</v>
       </c>
       <c r="B259" t="n">
-        <v>0.1888875758965015</v>
+        <v>15.1888875758965</v>
       </c>
     </row>
     <row r="260">
@@ -2514,7 +2514,7 @@
         <v>10259</v>
       </c>
       <c r="B260" t="n">
-        <v>0.2137845773160288</v>
+        <v>15.21378457731603</v>
       </c>
     </row>
     <row r="261">
@@ -2522,7 +2522,7 @@
         <v>10260</v>
       </c>
       <c r="B261" t="n">
-        <v>0.1592603891551486</v>
+        <v>15.15926038915515</v>
       </c>
     </row>
     <row r="262">
@@ -2530,7 +2530,7 @@
         <v>10261</v>
       </c>
       <c r="B262" t="n">
-        <v>0.1787955220677404</v>
+        <v>15.17879552206774</v>
       </c>
     </row>
     <row r="263">
@@ -2538,7 +2538,7 @@
         <v>10262</v>
       </c>
       <c r="B263" t="n">
-        <v>0.2011776139466024</v>
+        <v>15.2011776139466</v>
       </c>
     </row>
     <row r="264">
@@ -2546,7 +2546,7 @@
         <v>10263</v>
       </c>
       <c r="B264" t="n">
-        <v>0.2251986754295118</v>
+        <v>15.22519867542951</v>
       </c>
     </row>
     <row r="265">
@@ -2554,7 +2554,7 @@
         <v>10264</v>
       </c>
       <c r="B265" t="n">
-        <v>0.185149779325704</v>
+        <v>15.1851497793257</v>
       </c>
     </row>
     <row r="266">
@@ -2562,7 +2562,7 @@
         <v>10265</v>
       </c>
       <c r="B266" t="n">
-        <v>0.1644342256853542</v>
+        <v>15.16443422568535</v>
       </c>
     </row>
     <row r="267">
@@ -2570,7 +2570,7 @@
         <v>10266</v>
       </c>
       <c r="B267" t="n">
-        <v>0.143298819748465</v>
+        <v>15.14329881974846</v>
       </c>
     </row>
     <row r="268">
@@ -2578,7 +2578,7 @@
         <v>10267</v>
       </c>
       <c r="B268" t="n">
-        <v>0.1867347927673507</v>
+        <v>15.18673479276735</v>
       </c>
     </row>
     <row r="269">
@@ -2586,7 +2586,7 @@
         <v>10268</v>
       </c>
       <c r="B269" t="n">
-        <v>0.1379814960138422</v>
+        <v>15.13798149601384</v>
       </c>
     </row>
     <row r="270">
@@ -2594,7 +2594,7 @@
         <v>10269</v>
       </c>
       <c r="B270" t="n">
-        <v>0.1839044181103659</v>
+        <v>15.18390441811037</v>
       </c>
     </row>
     <row r="271">
@@ -2602,7 +2602,7 @@
         <v>10270</v>
       </c>
       <c r="B271" t="n">
-        <v>0.2125999234275693</v>
+        <v>15.21259992342757</v>
       </c>
     </row>
     <row r="272">
@@ -2610,7 +2610,7 @@
         <v>10271</v>
       </c>
       <c r="B272" t="n">
-        <v>0.15106229889136</v>
+        <v>15.15106229889136</v>
       </c>
     </row>
     <row r="273">
@@ -2618,7 +2618,7 @@
         <v>10272</v>
       </c>
       <c r="B273" t="n">
-        <v>0.1446783560398656</v>
+        <v>15.14467835603987</v>
       </c>
     </row>
     <row r="274">
@@ -2626,7 +2626,7 @@
         <v>10273</v>
       </c>
       <c r="B274" t="n">
-        <v>0.1724718936974649</v>
+        <v>15.17247189369746</v>
       </c>
     </row>
     <row r="275">
@@ -2634,7 +2634,7 @@
         <v>10274</v>
       </c>
       <c r="B275" t="n">
-        <v>0.1879639725751217</v>
+        <v>15.18796397257512</v>
       </c>
     </row>
     <row r="276">
@@ -2642,7 +2642,7 @@
         <v>10275</v>
       </c>
       <c r="B276" t="n">
-        <v>0.1916709090312842</v>
+        <v>15.19167090903128</v>
       </c>
     </row>
     <row r="277">
@@ -2650,7 +2650,7 @@
         <v>10276</v>
       </c>
       <c r="B277" t="n">
-        <v>0.1460622362555919</v>
+        <v>15.14606223625559</v>
       </c>
     </row>
     <row r="278">
@@ -2658,7 +2658,7 @@
         <v>10277</v>
       </c>
       <c r="B278" t="n">
-        <v>0.1914389386660061</v>
+        <v>15.19143893866601</v>
       </c>
     </row>
     <row r="279">
@@ -2666,7 +2666,7 @@
         <v>10278</v>
       </c>
       <c r="B279" t="n">
-        <v>0.1512584748161039</v>
+        <v>15.1512584748161</v>
       </c>
     </row>
     <row r="280">
@@ -2674,7 +2674,7 @@
         <v>10279</v>
       </c>
       <c r="B280" t="n">
-        <v>0.2325324918307725</v>
+        <v>15.23253249183077</v>
       </c>
     </row>
     <row r="281">
@@ -2682,7 +2682,7 @@
         <v>10280</v>
       </c>
       <c r="B281" t="n">
-        <v>0.2170805825241041</v>
+        <v>15.2170805825241</v>
       </c>
     </row>
     <row r="282">
@@ -2690,7 +2690,7 @@
         <v>10281</v>
       </c>
       <c r="B282" t="n">
-        <v>0.2200281101136519</v>
+        <v>15.22002811011365</v>
       </c>
     </row>
     <row r="283">
@@ -2698,7 +2698,7 @@
         <v>10282</v>
       </c>
       <c r="B283" t="n">
-        <v>0.1256239382803136</v>
+        <v>15.12562393828031</v>
       </c>
     </row>
     <row r="284">
@@ -2706,7 +2706,7 @@
         <v>10283</v>
       </c>
       <c r="B284" t="n">
-        <v>0.1761476098480318</v>
+        <v>15.17614760984803</v>
       </c>
     </row>
     <row r="285">
@@ -2714,7 +2714,7 @@
         <v>10284</v>
       </c>
       <c r="B285" t="n">
-        <v>0.230409187098537</v>
+        <v>15.23040918709854</v>
       </c>
     </row>
     <row r="286">
@@ -2722,7 +2722,7 @@
         <v>10285</v>
       </c>
       <c r="B286" t="n">
-        <v>0.1259519264718023</v>
+        <v>15.1259519264718</v>
       </c>
     </row>
     <row r="287">
@@ -2730,7 +2730,7 @@
         <v>10286</v>
       </c>
       <c r="B287" t="n">
-        <v>0.1216037497009249</v>
+        <v>15.12160374970093</v>
       </c>
     </row>
     <row r="288">
@@ -2738,7 +2738,7 @@
         <v>10287</v>
       </c>
       <c r="B288" t="n">
-        <v>0.2103890025364691</v>
+        <v>15.21038900253647</v>
       </c>
     </row>
     <row r="289">
@@ -2746,7 +2746,7 @@
         <v>10288</v>
       </c>
       <c r="B289" t="n">
-        <v>0.1230718230437327</v>
+        <v>15.12307182304373</v>
       </c>
     </row>
     <row r="290">
@@ -2754,7 +2754,7 @@
         <v>10289</v>
       </c>
       <c r="B290" t="n">
-        <v>0.2374893022588746</v>
+        <v>15.23748930225887</v>
       </c>
     </row>
     <row r="291">
@@ -2762,7 +2762,7 @@
         <v>10290</v>
       </c>
       <c r="B291" t="n">
-        <v>0.2037424368057145</v>
+        <v>15.20374243680572</v>
       </c>
     </row>
     <row r="292">
@@ -2770,7 +2770,7 @@
         <v>10291</v>
       </c>
       <c r="B292" t="n">
-        <v>0.2163158703557848</v>
+        <v>15.21631587035579</v>
       </c>
     </row>
     <row r="293">
@@ -2778,7 +2778,7 @@
         <v>10292</v>
       </c>
       <c r="B293" t="n">
-        <v>0.1305346804448209</v>
+        <v>15.13053468044482</v>
       </c>
     </row>
     <row r="294">
@@ -2786,7 +2786,7 @@
         <v>10293</v>
       </c>
       <c r="B294" t="n">
-        <v>0.1165247425966254</v>
+        <v>15.11652474259663</v>
       </c>
     </row>
     <row r="295">
@@ -2794,7 +2794,7 @@
         <v>10294</v>
       </c>
       <c r="B295" t="n">
-        <v>0.1963595870004973</v>
+        <v>15.1963595870005</v>
       </c>
     </row>
     <row r="296">
@@ -2802,7 +2802,7 @@
         <v>10295</v>
       </c>
       <c r="B296" t="n">
-        <v>0.1871940130615849</v>
+        <v>15.18719401306159</v>
       </c>
     </row>
     <row r="297">
@@ -2810,7 +2810,7 @@
         <v>10296</v>
       </c>
       <c r="B297" t="n">
-        <v>0.1591992905950266</v>
+        <v>15.15919929059503</v>
       </c>
     </row>
     <row r="298">
@@ -2818,7 +2818,7 @@
         <v>10297</v>
       </c>
       <c r="B298" t="n">
-        <v>0.1939637856645197</v>
+        <v>15.19396378566452</v>
       </c>
     </row>
     <row r="299">
@@ -2826,7 +2826,7 @@
         <v>10298</v>
       </c>
       <c r="B299" t="n">
-        <v>0.2102520233486619</v>
+        <v>15.21025202334866</v>
       </c>
     </row>
     <row r="300">
@@ -2834,7 +2834,7 @@
         <v>10299</v>
       </c>
       <c r="B300" t="n">
-        <v>0.1979258472652672</v>
+        <v>15.19792584726527</v>
       </c>
     </row>
     <row r="301">
@@ -2842,7 +2842,7 @@
         <v>10300</v>
       </c>
       <c r="B301" t="n">
-        <v>0.1798691103951717</v>
+        <v>15.17986911039517</v>
       </c>
     </row>
     <row r="302">
@@ -2850,7 +2850,7 @@
         <v>10301</v>
       </c>
       <c r="B302" t="n">
-        <v>0.07860974803328308</v>
+        <v>15.07860974803328</v>
       </c>
     </row>
     <row r="303">
@@ -2858,7 +2858,7 @@
         <v>10302</v>
       </c>
       <c r="B303" t="n">
-        <v>0.1259492043681016</v>
+        <v>15.1259492043681</v>
       </c>
     </row>
     <row r="304">
@@ -2866,7 +2866,7 @@
         <v>10303</v>
       </c>
       <c r="B304" t="n">
-        <v>0.1129188315179198</v>
+        <v>15.11291883151792</v>
       </c>
     </row>
     <row r="305">
@@ -2874,7 +2874,7 @@
         <v>10304</v>
       </c>
       <c r="B305" t="n">
-        <v>0.196924349353421</v>
+        <v>15.19692434935342</v>
       </c>
     </row>
     <row r="306">
@@ -2882,7 +2882,7 @@
         <v>10305</v>
       </c>
       <c r="B306" t="n">
-        <v>0.1214030665008718</v>
+        <v>15.12140306650087</v>
       </c>
     </row>
     <row r="307">
@@ -2890,7 +2890,7 @@
         <v>10306</v>
       </c>
       <c r="B307" t="n">
-        <v>0.1834921538565986</v>
+        <v>15.1834921538566</v>
       </c>
     </row>
     <row r="308">
@@ -2898,7 +2898,7 @@
         <v>10307</v>
       </c>
       <c r="B308" t="n">
-        <v>0.1183319482800201</v>
+        <v>15.11833194828002</v>
       </c>
     </row>
     <row r="309">
@@ -2906,7 +2906,7 @@
         <v>10308</v>
       </c>
       <c r="B309" t="n">
-        <v>0.1916606753545931</v>
+        <v>15.19166067535459</v>
       </c>
     </row>
     <row r="310">
@@ -2914,7 +2914,7 @@
         <v>10309</v>
       </c>
       <c r="B310" t="n">
-        <v>0.2169283888017992</v>
+        <v>15.2169283888018</v>
       </c>
     </row>
     <row r="311">
@@ -2922,7 +2922,7 @@
         <v>10310</v>
       </c>
       <c r="B311" t="n">
-        <v>0.1240918756388652</v>
+        <v>15.12409187563886</v>
       </c>
     </row>
     <row r="312">
@@ -2930,7 +2930,7 @@
         <v>10311</v>
       </c>
       <c r="B312" t="n">
-        <v>0.2227431290585866</v>
+        <v>15.22274312905859</v>
       </c>
     </row>
     <row r="313">
@@ -2938,7 +2938,7 @@
         <v>10312</v>
       </c>
       <c r="B313" t="n">
-        <v>0.2222038811192427</v>
+        <v>15.22220388111924</v>
       </c>
     </row>
     <row r="314">
@@ -2946,7 +2946,7 @@
         <v>10313</v>
       </c>
       <c r="B314" t="n">
-        <v>0.2288099667202566</v>
+        <v>15.22880996672026</v>
       </c>
     </row>
     <row r="315">
@@ -2954,7 +2954,7 @@
         <v>10314</v>
       </c>
       <c r="B315" t="n">
-        <v>0.1900185595248461</v>
+        <v>15.19001855952485</v>
       </c>
     </row>
     <row r="316">
@@ -2962,7 +2962,7 @@
         <v>10315</v>
       </c>
       <c r="B316" t="n">
-        <v>0.1684842388041225</v>
+        <v>15.16848423880412</v>
       </c>
     </row>
     <row r="317">
@@ -2970,7 +2970,7 @@
         <v>10316</v>
       </c>
       <c r="B317" t="n">
-        <v>0.0609430567912143</v>
+        <v>15.06094305679121</v>
       </c>
     </row>
     <row r="318">
@@ -2978,7 +2978,7 @@
         <v>10317</v>
       </c>
       <c r="B318" t="n">
-        <v>0.1252872430164233</v>
+        <v>15.12528724301642</v>
       </c>
     </row>
     <row r="319">
@@ -2986,7 +2986,7 @@
         <v>10318</v>
       </c>
       <c r="B319" t="n">
-        <v>0.1423670797028291</v>
+        <v>15.14236707970283</v>
       </c>
     </row>
     <row r="320">
@@ -2994,7 +2994,7 @@
         <v>10319</v>
       </c>
       <c r="B320" t="n">
-        <v>0.1506745899015337</v>
+        <v>15.15067458990153</v>
       </c>
     </row>
     <row r="321">
@@ -3002,7 +3002,7 @@
         <v>10320</v>
       </c>
       <c r="B321" t="n">
-        <v>0.2207765563982115</v>
+        <v>15.22077655639821</v>
       </c>
     </row>
     <row r="322">
@@ -3010,7 +3010,7 @@
         <v>10321</v>
       </c>
       <c r="B322" t="n">
-        <v>0.1333917684010871</v>
+        <v>15.13339176840109</v>
       </c>
     </row>
     <row r="323">
@@ -3018,7 +3018,7 @@
         <v>10322</v>
       </c>
       <c r="B323" t="n">
-        <v>0.13169086830698</v>
+        <v>15.13169086830698</v>
       </c>
     </row>
     <row r="324">
@@ -3026,7 +3026,7 @@
         <v>10323</v>
       </c>
       <c r="B324" t="n">
-        <v>0.1898118377127384</v>
+        <v>15.18981183771274</v>
       </c>
     </row>
     <row r="325">
@@ -3034,7 +3034,7 @@
         <v>10324</v>
       </c>
       <c r="B325" t="n">
-        <v>0.1472921806900348</v>
+        <v>15.14729218069004</v>
       </c>
     </row>
     <row r="326">
@@ -3042,7 +3042,7 @@
         <v>10325</v>
       </c>
       <c r="B326" t="n">
-        <v>0.1065751692064442</v>
+        <v>15.10657516920644</v>
       </c>
     </row>
     <row r="327">
@@ -3050,7 +3050,7 @@
         <v>10326</v>
       </c>
       <c r="B327" t="n">
-        <v>0.1293513823679089</v>
+        <v>15.12935138236791</v>
       </c>
     </row>
     <row r="328">
@@ -3058,7 +3058,7 @@
         <v>10327</v>
       </c>
       <c r="B328" t="n">
-        <v>0.1895690770481621</v>
+        <v>15.18956907704816</v>
       </c>
     </row>
     <row r="329">
@@ -3066,7 +3066,7 @@
         <v>10328</v>
       </c>
       <c r="B329" t="n">
-        <v>0.1543816359118284</v>
+        <v>15.15438163591183</v>
       </c>
     </row>
     <row r="330">
@@ -3074,7 +3074,7 @@
         <v>10329</v>
       </c>
       <c r="B330" t="n">
-        <v>0.1792932158748993</v>
+        <v>15.1792932158749</v>
       </c>
     </row>
     <row r="331">
@@ -3082,7 +3082,7 @@
         <v>10330</v>
       </c>
       <c r="B331" t="n">
-        <v>0.2082206196228854</v>
+        <v>15.20822061962289</v>
       </c>
     </row>
     <row r="332">
@@ -3090,7 +3090,7 @@
         <v>10331</v>
       </c>
       <c r="B332" t="n">
-        <v>0.2196301250795215</v>
+        <v>15.21963012507952</v>
       </c>
     </row>
     <row r="333">
@@ -3098,7 +3098,7 @@
         <v>10332</v>
       </c>
       <c r="B333" t="n">
-        <v>0.10525828104756</v>
+        <v>15.10525828104756</v>
       </c>
     </row>
     <row r="334">
@@ -3106,7 +3106,7 @@
         <v>10333</v>
       </c>
       <c r="B334" t="n">
-        <v>0.09335296329898686</v>
+        <v>15.09335296329899</v>
       </c>
     </row>
     <row r="335">
@@ -3114,7 +3114,7 @@
         <v>10334</v>
       </c>
       <c r="B335" t="n">
-        <v>0.1899632689546884</v>
+        <v>15.18996326895469</v>
       </c>
     </row>
     <row r="336">
@@ -3122,7 +3122,7 @@
         <v>10335</v>
       </c>
       <c r="B336" t="n">
-        <v>0.1155775383470503</v>
+        <v>15.11557753834705</v>
       </c>
     </row>
     <row r="337">
@@ -3130,7 +3130,7 @@
         <v>10336</v>
       </c>
       <c r="B337" t="n">
-        <v>0.1995939449023294</v>
+        <v>15.19959394490233</v>
       </c>
     </row>
     <row r="338">
@@ -3138,7 +3138,7 @@
         <v>10337</v>
       </c>
       <c r="B338" t="n">
-        <v>0.2280699744542563</v>
+        <v>15.22806997445426</v>
       </c>
     </row>
     <row r="339">
@@ -3146,7 +3146,7 @@
         <v>10338</v>
       </c>
       <c r="B339" t="n">
-        <v>0.1510571078399098</v>
+        <v>15.15105710783991</v>
       </c>
     </row>
     <row r="340">
@@ -3154,7 +3154,7 @@
         <v>10339</v>
       </c>
       <c r="B340" t="n">
-        <v>0.2266920822909383</v>
+        <v>15.22669208229094</v>
       </c>
     </row>
     <row r="341">
@@ -3162,7 +3162,7 @@
         <v>10340</v>
       </c>
       <c r="B341" t="n">
-        <v>0.140685898296679</v>
+        <v>15.14068589829668</v>
       </c>
     </row>
     <row r="342">
@@ -3170,7 +3170,7 @@
         <v>10341</v>
       </c>
       <c r="B342" t="n">
-        <v>0.170192281462286</v>
+        <v>15.17019228146229</v>
       </c>
     </row>
     <row r="343">
@@ -3178,7 +3178,7 @@
         <v>10342</v>
       </c>
       <c r="B343" t="n">
-        <v>0.1505325825742838</v>
+        <v>15.15053258257428</v>
       </c>
     </row>
     <row r="344">
@@ -3186,7 +3186,7 @@
         <v>10343</v>
       </c>
       <c r="B344" t="n">
-        <v>0.2122671659119603</v>
+        <v>15.21226716591196</v>
       </c>
     </row>
     <row r="345">
@@ -3194,7 +3194,7 @@
         <v>10344</v>
       </c>
       <c r="B345" t="n">
-        <v>0.2199114139715293</v>
+        <v>15.21991141397153</v>
       </c>
     </row>
     <row r="346">
@@ -3202,7 +3202,7 @@
         <v>10345</v>
       </c>
       <c r="B346" t="n">
-        <v>0.1781069644923655</v>
+        <v>15.17810696449236</v>
       </c>
     </row>
     <row r="347">
@@ -3210,7 +3210,7 @@
         <v>10346</v>
       </c>
       <c r="B347" t="n">
-        <v>0.1844780728072627</v>
+        <v>15.18447807280726</v>
       </c>
     </row>
     <row r="348">
@@ -3218,7 +3218,7 @@
         <v>10347</v>
       </c>
       <c r="B348" t="n">
-        <v>0.1568502700141863</v>
+        <v>15.15685027001419</v>
       </c>
     </row>
     <row r="349">
@@ -3226,7 +3226,7 @@
         <v>10348</v>
       </c>
       <c r="B349" t="n">
-        <v>0.1299734613295902</v>
+        <v>15.12997346132959</v>
       </c>
     </row>
     <row r="350">
@@ -3234,7 +3234,7 @@
         <v>10349</v>
       </c>
       <c r="B350" t="n">
-        <v>0.1855553509373571</v>
+        <v>15.18555535093736</v>
       </c>
     </row>
     <row r="351">
@@ -3242,7 +3242,7 @@
         <v>10350</v>
       </c>
       <c r="B351" t="n">
-        <v>0.1306783671607796</v>
+        <v>15.13067836716078</v>
       </c>
     </row>
     <row r="352">
@@ -3250,7 +3250,7 @@
         <v>10351</v>
       </c>
       <c r="B352" t="n">
-        <v>0.1529800698011372</v>
+        <v>15.15298006980114</v>
       </c>
     </row>
     <row r="353">
@@ -3258,7 +3258,7 @@
         <v>10352</v>
       </c>
       <c r="B353" t="n">
-        <v>0.1912067259005749</v>
+        <v>15.19120672590057</v>
       </c>
     </row>
     <row r="354">
@@ -3266,7 +3266,7 @@
         <v>10353</v>
       </c>
       <c r="B354" t="n">
-        <v>0.1780347890597878</v>
+        <v>15.17803478905979</v>
       </c>
     </row>
     <row r="355">
@@ -3274,7 +3274,7 @@
         <v>10354</v>
       </c>
       <c r="B355" t="n">
-        <v>0.117879557803703</v>
+        <v>15.1178795578037</v>
       </c>
     </row>
     <row r="356">
@@ -3282,7 +3282,7 @@
         <v>10355</v>
       </c>
       <c r="B356" t="n">
-        <v>0.162904901094604</v>
+        <v>15.1629049010946</v>
       </c>
     </row>
     <row r="357">
@@ -3290,7 +3290,7 @@
         <v>10356</v>
       </c>
       <c r="B357" t="n">
-        <v>0.125119128881666</v>
+        <v>15.12511912888167</v>
       </c>
     </row>
     <row r="358">
@@ -3298,7 +3298,7 @@
         <v>10357</v>
       </c>
       <c r="B358" t="n">
-        <v>0.2055592969272988</v>
+        <v>15.2055592969273</v>
       </c>
     </row>
     <row r="359">
@@ -3306,7 +3306,7 @@
         <v>10358</v>
       </c>
       <c r="B359" t="n">
-        <v>0.2197350212047268</v>
+        <v>15.21973502120473</v>
       </c>
     </row>
     <row r="360">
@@ -3314,7 +3314,7 @@
         <v>10359</v>
       </c>
       <c r="B360" t="n">
-        <v>0.1632721985032526</v>
+        <v>15.16327219850325</v>
       </c>
     </row>
     <row r="361">
@@ -3322,7 +3322,7 @@
         <v>10360</v>
       </c>
       <c r="B361" t="n">
-        <v>0.211999038479366</v>
+        <v>15.21199903847937</v>
       </c>
     </row>
     <row r="362">
@@ -3330,7 +3330,7 @@
         <v>10361</v>
       </c>
       <c r="B362" t="n">
-        <v>0.1793115125919821</v>
+        <v>15.17931151259198</v>
       </c>
     </row>
     <row r="363">
@@ -3338,7 +3338,7 @@
         <v>10362</v>
       </c>
       <c r="B363" t="n">
-        <v>0.1973679504897618</v>
+        <v>15.19736795048976</v>
       </c>
     </row>
     <row r="364">
@@ -3346,7 +3346,7 @@
         <v>10363</v>
       </c>
       <c r="B364" t="n">
-        <v>0.1845645849448341</v>
+        <v>15.18456458494483</v>
       </c>
     </row>
     <row r="365">
@@ -3354,7 +3354,7 @@
         <v>10364</v>
       </c>
       <c r="B365" t="n">
-        <v>0.2054097562101443</v>
+        <v>15.20540975621014</v>
       </c>
     </row>
     <row r="366">
@@ -3362,7 +3362,7 @@
         <v>10365</v>
       </c>
       <c r="B366" t="n">
-        <v>0.1566148099565132</v>
+        <v>15.15661480995651</v>
       </c>
     </row>
     <row r="367">
@@ -3370,7 +3370,7 @@
         <v>10366</v>
       </c>
       <c r="B367" t="n">
-        <v>0.1480746628815801</v>
+        <v>15.14807466288158</v>
       </c>
     </row>
     <row r="368">
@@ -3378,7 +3378,7 @@
         <v>10367</v>
       </c>
       <c r="B368" t="n">
-        <v>0.2169914065116125</v>
+        <v>15.21699140651161</v>
       </c>
     </row>
     <row r="369">
@@ -3386,7 +3386,7 @@
         <v>10368</v>
       </c>
       <c r="B369" t="n">
-        <v>0.200947142982147</v>
+        <v>15.20094714298215</v>
       </c>
     </row>
     <row r="370">
@@ -3394,7 +3394,7 @@
         <v>10369</v>
       </c>
       <c r="B370" t="n">
-        <v>0.1045640359369714</v>
+        <v>15.10456403593697</v>
       </c>
     </row>
     <row r="371">
@@ -3402,7 +3402,7 @@
         <v>10370</v>
       </c>
       <c r="B371" t="n">
-        <v>0.1016384259358195</v>
+        <v>15.10163842593582</v>
       </c>
     </row>
     <row r="372">
@@ -3410,7 +3410,7 @@
         <v>10371</v>
       </c>
       <c r="B372" t="n">
-        <v>0.1542093301176616</v>
+        <v>15.15420933011766</v>
       </c>
     </row>
     <row r="373">
@@ -3418,7 +3418,7 @@
         <v>10372</v>
       </c>
       <c r="B373" t="n">
-        <v>0.1108841866312882</v>
+        <v>15.11088418663129</v>
       </c>
     </row>
     <row r="374">
@@ -3426,7 +3426,7 @@
         <v>10373</v>
       </c>
       <c r="B374" t="n">
-        <v>0.2228982461251991</v>
+        <v>15.2228982461252</v>
       </c>
     </row>
     <row r="375">
@@ -3434,7 +3434,7 @@
         <v>10374</v>
       </c>
       <c r="B375" t="n">
-        <v>0.1306052061030906</v>
+        <v>15.13060520610309</v>
       </c>
     </row>
     <row r="376">
@@ -3442,7 +3442,7 @@
         <v>10375</v>
       </c>
       <c r="B376" t="n">
-        <v>0.1390922675253364</v>
+        <v>15.13909226752534</v>
       </c>
     </row>
     <row r="377">
@@ -3450,7 +3450,7 @@
         <v>10376</v>
       </c>
       <c r="B377" t="n">
-        <v>0.1181070896100977</v>
+        <v>15.1181070896101</v>
       </c>
     </row>
     <row r="378">
@@ -3458,7 +3458,7 @@
         <v>10377</v>
       </c>
       <c r="B378" t="n">
-        <v>0.1178605147481185</v>
+        <v>15.11786051474812</v>
       </c>
     </row>
     <row r="379">
@@ -3466,7 +3466,7 @@
         <v>10378</v>
       </c>
       <c r="B379" t="n">
-        <v>0.2121177182250371</v>
+        <v>15.21211771822504</v>
       </c>
     </row>
     <row r="380">
@@ -3474,7 +3474,7 @@
         <v>10379</v>
       </c>
       <c r="B380" t="n">
-        <v>0.2237296528552645</v>
+        <v>15.22372965285526</v>
       </c>
     </row>
     <row r="381">
@@ -3482,7 +3482,7 @@
         <v>10380</v>
       </c>
       <c r="B381" t="n">
-        <v>0.1885042828456669</v>
+        <v>15.18850428284567</v>
       </c>
     </row>
     <row r="382">
@@ -3490,7 +3490,7 @@
         <v>10381</v>
       </c>
       <c r="B382" t="n">
-        <v>0.1752602267206705</v>
+        <v>15.17526022672067</v>
       </c>
     </row>
     <row r="383">
@@ -3498,7 +3498,7 @@
         <v>10382</v>
       </c>
       <c r="B383" t="n">
-        <v>0.1862165224723145</v>
+        <v>15.18621652247231</v>
       </c>
     </row>
     <row r="384">
@@ -3506,7 +3506,7 @@
         <v>10383</v>
       </c>
       <c r="B384" t="n">
-        <v>0.1305640715477219</v>
+        <v>15.13056407154772</v>
       </c>
     </row>
     <row r="385">
@@ -3514,7 +3514,7 @@
         <v>10384</v>
       </c>
       <c r="B385" t="n">
-        <v>0.2170583307261157</v>
+        <v>15.21705833072612</v>
       </c>
     </row>
     <row r="386">
@@ -3522,7 +3522,7 @@
         <v>10385</v>
       </c>
       <c r="B386" t="n">
-        <v>0.198444134209521</v>
+        <v>15.19844413420952</v>
       </c>
     </row>
     <row r="387">
@@ -3530,7 +3530,7 @@
         <v>10386</v>
       </c>
       <c r="B387" t="n">
-        <v>0.182884211715258</v>
+        <v>15.18288421171526</v>
       </c>
     </row>
     <row r="388">
@@ -3538,7 +3538,7 @@
         <v>10387</v>
       </c>
       <c r="B388" t="n">
-        <v>0.1471985598985803</v>
+        <v>15.14719855989858</v>
       </c>
     </row>
     <row r="389">
@@ -3546,7 +3546,7 @@
         <v>10388</v>
       </c>
       <c r="B389" t="n">
-        <v>0.1703676105168976</v>
+        <v>15.1703676105169</v>
       </c>
     </row>
     <row r="390">
@@ -3554,7 +3554,7 @@
         <v>10389</v>
       </c>
       <c r="B390" t="n">
-        <v>0.2073092335025918</v>
+        <v>15.20730923350259</v>
       </c>
     </row>
     <row r="391">
@@ -3562,7 +3562,7 @@
         <v>10390</v>
       </c>
       <c r="B391" t="n">
-        <v>0.1130754761372118</v>
+        <v>15.11307547613721</v>
       </c>
     </row>
     <row r="392">
@@ -3570,7 +3570,7 @@
         <v>10391</v>
       </c>
       <c r="B392" t="n">
-        <v>0.1522339869156782</v>
+        <v>15.15223398691568</v>
       </c>
     </row>
     <row r="393">
@@ -3578,7 +3578,7 @@
         <v>10392</v>
       </c>
       <c r="B393" t="n">
-        <v>0.1856639607218793</v>
+        <v>15.18566396072188</v>
       </c>
     </row>
     <row r="394">
@@ -3586,7 +3586,7 @@
         <v>10393</v>
       </c>
       <c r="B394" t="n">
-        <v>0.1354170063355803</v>
+        <v>15.13541700633558</v>
       </c>
     </row>
     <row r="395">
@@ -3594,7 +3594,7 @@
         <v>10394</v>
       </c>
       <c r="B395" t="n">
-        <v>0.1822806315526114</v>
+        <v>15.18228063155261</v>
       </c>
     </row>
     <row r="396">
@@ -3602,7 +3602,7 @@
         <v>10395</v>
       </c>
       <c r="B396" t="n">
-        <v>0.1922307899593362</v>
+        <v>15.19223078995934</v>
       </c>
     </row>
     <row r="397">
@@ -3610,7 +3610,7 @@
         <v>10396</v>
       </c>
       <c r="B397" t="n">
-        <v>0.1670825719440025</v>
+        <v>15.167082571944</v>
       </c>
     </row>
     <row r="398">
@@ -3618,7 +3618,7 @@
         <v>10397</v>
       </c>
       <c r="B398" t="n">
-        <v>0.1447601612002165</v>
+        <v>15.14476016120022</v>
       </c>
     </row>
     <row r="399">
@@ -3626,7 +3626,7 @@
         <v>10398</v>
       </c>
       <c r="B399" t="n">
-        <v>0.1905242653895661</v>
+        <v>15.19052426538957</v>
       </c>
     </row>
     <row r="400">
@@ -3634,7 +3634,7 @@
         <v>10399</v>
       </c>
       <c r="B400" t="n">
-        <v>0.1358543648424041</v>
+        <v>15.1358543648424</v>
       </c>
     </row>
     <row r="401">
@@ -3642,7 +3642,7 @@
         <v>10400</v>
       </c>
       <c r="B401" t="n">
-        <v>0.1280277180711099</v>
+        <v>15.12802771807111</v>
       </c>
     </row>
     <row r="402">
@@ -3650,7 +3650,7 @@
         <v>10401</v>
       </c>
       <c r="B402" t="n">
-        <v>0.09565926603470837</v>
+        <v>15.09565926603471</v>
       </c>
     </row>
     <row r="403">
@@ -3658,7 +3658,7 @@
         <v>10402</v>
       </c>
       <c r="B403" t="n">
-        <v>0.1820983666196821</v>
+        <v>15.18209836661968</v>
       </c>
     </row>
     <row r="404">
@@ -3666,7 +3666,7 @@
         <v>10403</v>
       </c>
       <c r="B404" t="n">
-        <v>0.1910335701969726</v>
+        <v>15.19103357019697</v>
       </c>
     </row>
     <row r="405">
@@ -3674,7 +3674,7 @@
         <v>10404</v>
       </c>
       <c r="B405" t="n">
-        <v>0.1302406718621298</v>
+        <v>15.13024067186213</v>
       </c>
     </row>
     <row r="406">
@@ -3682,7 +3682,7 @@
         <v>10405</v>
       </c>
       <c r="B406" t="n">
-        <v>0.2162198020810673</v>
+        <v>15.21621980208107</v>
       </c>
     </row>
     <row r="407">
@@ -3690,7 +3690,7 @@
         <v>10406</v>
       </c>
       <c r="B407" t="n">
-        <v>0.151058508320034</v>
+        <v>15.15105850832003</v>
       </c>
     </row>
     <row r="408">
@@ -3698,7 +3698,7 @@
         <v>10407</v>
       </c>
       <c r="B408" t="n">
-        <v>0.14539892020588</v>
+        <v>15.14539892020588</v>
       </c>
     </row>
     <row r="409">
@@ -3706,7 +3706,7 @@
         <v>10408</v>
       </c>
       <c r="B409" t="n">
-        <v>0.1201110870799532</v>
+        <v>15.12011108707995</v>
       </c>
     </row>
     <row r="410">
@@ -3714,7 +3714,7 @@
         <v>10409</v>
       </c>
       <c r="B410" t="n">
-        <v>0.1905981706271832</v>
+        <v>15.19059817062718</v>
       </c>
     </row>
     <row r="411">
@@ -3722,7 +3722,7 @@
         <v>10410</v>
       </c>
       <c r="B411" t="n">
-        <v>0.2019342238109778</v>
+        <v>15.20193422381098</v>
       </c>
     </row>
     <row r="412">
@@ -3730,7 +3730,7 @@
         <v>10411</v>
       </c>
       <c r="B412" t="n">
-        <v>0.2188458133460405</v>
+        <v>15.21884581334604</v>
       </c>
     </row>
     <row r="413">
@@ -3738,7 +3738,7 @@
         <v>10412</v>
       </c>
       <c r="B413" t="n">
-        <v>0.1471160878320977</v>
+        <v>15.1471160878321</v>
       </c>
     </row>
     <row r="414">
@@ -3746,7 +3746,7 @@
         <v>10413</v>
       </c>
       <c r="B414" t="n">
-        <v>0.1880189256678113</v>
+        <v>15.18801892566781</v>
       </c>
     </row>
     <row r="415">
@@ -3754,7 +3754,7 @@
         <v>10414</v>
       </c>
       <c r="B415" t="n">
-        <v>0.1888621698180978</v>
+        <v>15.1888621698181</v>
       </c>
     </row>
     <row r="416">
@@ -3762,7 +3762,7 @@
         <v>10415</v>
       </c>
       <c r="B416" t="n">
-        <v>0.1566889055216465</v>
+        <v>15.15668890552165</v>
       </c>
     </row>
     <row r="417">
@@ -3770,7 +3770,7 @@
         <v>10416</v>
       </c>
       <c r="B417" t="n">
-        <v>0.1111055367910551</v>
+        <v>15.11110553679105</v>
       </c>
     </row>
     <row r="418">
@@ -3778,7 +3778,7 @@
         <v>10417</v>
       </c>
       <c r="B418" t="n">
-        <v>0.1384740401516265</v>
+        <v>15.13847404015163</v>
       </c>
     </row>
     <row r="419">
@@ -3786,7 +3786,7 @@
         <v>10418</v>
       </c>
       <c r="B419" t="n">
-        <v>0.1582647820395247</v>
+        <v>15.15826478203953</v>
       </c>
     </row>
     <row r="420">
@@ -3794,7 +3794,7 @@
         <v>10419</v>
       </c>
       <c r="B420" t="n">
-        <v>0.2130571577431959</v>
+        <v>15.2130571577432</v>
       </c>
     </row>
     <row r="421">
@@ -3802,7 +3802,7 @@
         <v>10420</v>
       </c>
       <c r="B421" t="n">
-        <v>0.1899819794917531</v>
+        <v>15.18998197949175</v>
       </c>
     </row>
     <row r="422">
@@ -3810,7 +3810,7 @@
         <v>10421</v>
       </c>
       <c r="B422" t="n">
-        <v>0.1863634375761737</v>
+        <v>15.18636343757617</v>
       </c>
     </row>
     <row r="423">
@@ -3818,7 +3818,7 @@
         <v>10422</v>
       </c>
       <c r="B423" t="n">
-        <v>0.1769182025140938</v>
+        <v>15.17691820251409</v>
       </c>
     </row>
     <row r="424">
@@ -3826,7 +3826,7 @@
         <v>10423</v>
       </c>
       <c r="B424" t="n">
-        <v>0.1980282449335671</v>
+        <v>15.19802824493357</v>
       </c>
     </row>
     <row r="425">
@@ -3834,7 +3834,7 @@
         <v>10424</v>
       </c>
       <c r="B425" t="n">
-        <v>0.1244494659243971</v>
+        <v>15.1244494659244</v>
       </c>
     </row>
     <row r="426">
@@ -3842,7 +3842,7 @@
         <v>10425</v>
       </c>
       <c r="B426" t="n">
-        <v>0.1223646012758771</v>
+        <v>15.12236460127588</v>
       </c>
     </row>
     <row r="427">
@@ -3850,7 +3850,7 @@
         <v>10426</v>
       </c>
       <c r="B427" t="n">
-        <v>0.2098999198753145</v>
+        <v>15.20989991987531</v>
       </c>
     </row>
     <row r="428">
@@ -3858,7 +3858,7 @@
         <v>10427</v>
       </c>
       <c r="B428" t="n">
-        <v>0.1730662199625971</v>
+        <v>15.1730662199626</v>
       </c>
     </row>
     <row r="429">
@@ -3866,7 +3866,7 @@
         <v>10428</v>
       </c>
       <c r="B429" t="n">
-        <v>0.1585987937228866</v>
+        <v>15.15859879372289</v>
       </c>
     </row>
     <row r="430">
@@ -3874,7 +3874,7 @@
         <v>10429</v>
       </c>
       <c r="B430" t="n">
-        <v>0.1295656845687556</v>
+        <v>15.12956568456875</v>
       </c>
     </row>
     <row r="431">
@@ -3882,7 +3882,7 @@
         <v>10430</v>
       </c>
       <c r="B431" t="n">
-        <v>0.1901192296700632</v>
+        <v>15.19011922967006</v>
       </c>
     </row>
     <row r="432">
@@ -3890,7 +3890,7 @@
         <v>10431</v>
       </c>
       <c r="B432" t="n">
-        <v>0.206874716974777</v>
+        <v>15.20687471697478</v>
       </c>
     </row>
     <row r="433">
@@ -3898,7 +3898,7 @@
         <v>10432</v>
       </c>
       <c r="B433" t="n">
-        <v>0.1899090389032662</v>
+        <v>15.18990903890327</v>
       </c>
     </row>
     <row r="434">
@@ -3906,7 +3906,7 @@
         <v>10433</v>
       </c>
       <c r="B434" t="n">
-        <v>0.1252891033051876</v>
+        <v>15.12528910330519</v>
       </c>
     </row>
     <row r="435">
@@ -3914,7 +3914,7 @@
         <v>10434</v>
       </c>
       <c r="B435" t="n">
-        <v>0.1274441801862657</v>
+        <v>15.12744418018627</v>
       </c>
     </row>
     <row r="436">
@@ -3922,7 +3922,7 @@
         <v>10435</v>
       </c>
       <c r="B436" t="n">
-        <v>0.1124964254885757</v>
+        <v>15.11249642548858</v>
       </c>
     </row>
     <row r="437">
@@ -3930,7 +3930,7 @@
         <v>10436</v>
       </c>
       <c r="B437" t="n">
-        <v>0.1882053662249627</v>
+        <v>15.18820536622496</v>
       </c>
     </row>
     <row r="438">
@@ -3938,7 +3938,7 @@
         <v>10437</v>
       </c>
       <c r="B438" t="n">
-        <v>0.1330681889335932</v>
+        <v>15.13306818893359</v>
       </c>
     </row>
     <row r="439">
@@ -3946,7 +3946,7 @@
         <v>10438</v>
       </c>
       <c r="B439" t="n">
-        <v>0.2002464856117485</v>
+        <v>15.20024648561175</v>
       </c>
     </row>
     <row r="440">
@@ -3954,7 +3954,7 @@
         <v>10439</v>
       </c>
       <c r="B440" t="n">
-        <v>0.1057796450554917</v>
+        <v>15.10577964505549</v>
       </c>
     </row>
     <row r="441">
@@ -3962,7 +3962,7 @@
         <v>10440</v>
       </c>
       <c r="B441" t="n">
-        <v>0.2120587989132817</v>
+        <v>15.21205879891328</v>
       </c>
     </row>
     <row r="442">
@@ -3970,7 +3970,7 @@
         <v>10441</v>
       </c>
       <c r="B442" t="n">
-        <v>0.1500602267938483</v>
+        <v>15.15006022679385</v>
       </c>
     </row>
     <row r="443">
@@ -3978,7 +3978,7 @@
         <v>10442</v>
       </c>
       <c r="B443" t="n">
-        <v>0.1273771247244152</v>
+        <v>15.12737712472441</v>
       </c>
     </row>
     <row r="444">
@@ -3986,7 +3986,7 @@
         <v>10443</v>
       </c>
       <c r="B444" t="n">
-        <v>0.2020399205098569</v>
+        <v>15.20203992050986</v>
       </c>
     </row>
     <row r="445">
@@ -3994,7 +3994,7 @@
         <v>10444</v>
       </c>
       <c r="B445" t="n">
-        <v>0.1124174367187108</v>
+        <v>15.11241743671871</v>
       </c>
     </row>
     <row r="446">
@@ -4002,7 +4002,7 @@
         <v>10445</v>
       </c>
       <c r="B446" t="n">
-        <v>0.2099200939059466</v>
+        <v>15.20992009390595</v>
       </c>
     </row>
     <row r="447">
@@ -4010,7 +4010,7 @@
         <v>10446</v>
       </c>
       <c r="B447" t="n">
-        <v>0.215054450261955</v>
+        <v>15.21505445026195</v>
       </c>
     </row>
     <row r="448">
@@ -4018,7 +4018,7 @@
         <v>10447</v>
       </c>
       <c r="B448" t="n">
-        <v>0.1226996516727993</v>
+        <v>15.1226996516728</v>
       </c>
     </row>
     <row r="449">
@@ -4026,7 +4026,7 @@
         <v>10448</v>
       </c>
       <c r="B449" t="n">
-        <v>0.2056226116530612</v>
+        <v>15.20562261165306</v>
       </c>
     </row>
     <row r="450">
@@ -4034,7 +4034,7 @@
         <v>10449</v>
       </c>
       <c r="B450" t="n">
-        <v>0.1438810800041341</v>
+        <v>15.14388108000413</v>
       </c>
     </row>
     <row r="451">
@@ -4042,7 +4042,7 @@
         <v>10450</v>
       </c>
       <c r="B451" t="n">
-        <v>0.1398389641872479</v>
+        <v>15.13983896418725</v>
       </c>
     </row>
     <row r="452">
@@ -4050,7 +4050,7 @@
         <v>10451</v>
       </c>
       <c r="B452" t="n">
-        <v>0.1862529880673516</v>
+        <v>15.18625298806735</v>
       </c>
     </row>
     <row r="453">
@@ -4058,7 +4058,7 @@
         <v>10452</v>
       </c>
       <c r="B453" t="n">
-        <v>0.1419822213005873</v>
+        <v>15.14198222130059</v>
       </c>
     </row>
     <row r="454">
@@ -4066,7 +4066,7 @@
         <v>10453</v>
       </c>
       <c r="B454" t="n">
-        <v>0.113189641884471</v>
+        <v>15.11318964188447</v>
       </c>
     </row>
     <row r="455">
@@ -4074,7 +4074,7 @@
         <v>10454</v>
       </c>
       <c r="B455" t="n">
-        <v>0.1859479056301072</v>
+        <v>15.18594790563011</v>
       </c>
     </row>
     <row r="456">
@@ -4082,7 +4082,7 @@
         <v>10455</v>
       </c>
       <c r="B456" t="n">
-        <v>0.187550315844738</v>
+        <v>15.18755031584474</v>
       </c>
     </row>
     <row r="457">
@@ -4090,7 +4090,7 @@
         <v>10456</v>
       </c>
       <c r="B457" t="n">
-        <v>0.1805210098823732</v>
+        <v>15.18052100988237</v>
       </c>
     </row>
     <row r="458">
@@ -4098,7 +4098,7 @@
         <v>10457</v>
       </c>
       <c r="B458" t="n">
-        <v>0.1467398448389734</v>
+        <v>15.14673984483897</v>
       </c>
     </row>
     <row r="459">
@@ -4106,7 +4106,7 @@
         <v>10458</v>
       </c>
       <c r="B459" t="n">
-        <v>0.1815535900291563</v>
+        <v>15.18155359002916</v>
       </c>
     </row>
     <row r="460">
@@ -4114,7 +4114,7 @@
         <v>10459</v>
       </c>
       <c r="B460" t="n">
-        <v>0.1425921956091696</v>
+        <v>15.14259219560917</v>
       </c>
     </row>
     <row r="461">
@@ -4122,7 +4122,7 @@
         <v>10460</v>
       </c>
       <c r="B461" t="n">
-        <v>0.1057310966198025</v>
+        <v>15.1057310966198</v>
       </c>
     </row>
     <row r="462">
@@ -4130,7 +4130,7 @@
         <v>10461</v>
       </c>
       <c r="B462" t="n">
-        <v>0.08087238936476443</v>
+        <v>15.08087238936476</v>
       </c>
     </row>
     <row r="463">
@@ -4138,7 +4138,7 @@
         <v>10462</v>
       </c>
       <c r="B463" t="n">
-        <v>0.1715442744607163</v>
+        <v>15.17154427446072</v>
       </c>
     </row>
     <row r="464">
@@ -4146,7 +4146,7 @@
         <v>10463</v>
       </c>
       <c r="B464" t="n">
-        <v>0.2008055228143692</v>
+        <v>15.20080552281437</v>
       </c>
     </row>
     <row r="465">
@@ -4154,7 +4154,7 @@
         <v>10464</v>
       </c>
       <c r="B465" t="n">
-        <v>0.189883430026125</v>
+        <v>15.18988343002612</v>
       </c>
     </row>
     <row r="466">
@@ -4162,7 +4162,7 @@
         <v>10465</v>
       </c>
       <c r="B466" t="n">
-        <v>0.205890319058569</v>
+        <v>15.20589031905857</v>
       </c>
     </row>
     <row r="467">
@@ -4170,7 +4170,7 @@
         <v>10466</v>
       </c>
       <c r="B467" t="n">
-        <v>0.1557923505910564</v>
+        <v>15.15579235059106</v>
       </c>
     </row>
     <row r="468">
@@ -4178,7 +4178,7 @@
         <v>10467</v>
       </c>
       <c r="B468" t="n">
-        <v>0.1180321301565246</v>
+        <v>15.11803213015653</v>
       </c>
     </row>
     <row r="469">
@@ -4186,7 +4186,7 @@
         <v>10468</v>
       </c>
       <c r="B469" t="n">
-        <v>0.2100895632564636</v>
+        <v>15.21008956325646</v>
       </c>
     </row>
     <row r="470">
@@ -4194,7 +4194,7 @@
         <v>10469</v>
       </c>
       <c r="B470" t="n">
-        <v>0.09231595800914764</v>
+        <v>15.09231595800915</v>
       </c>
     </row>
     <row r="471">
@@ -4202,7 +4202,7 @@
         <v>10470</v>
       </c>
       <c r="B471" t="n">
-        <v>0.1922406020477386</v>
+        <v>15.19224060204774</v>
       </c>
     </row>
     <row r="472">
@@ -4210,7 +4210,7 @@
         <v>10471</v>
       </c>
       <c r="B472" t="n">
-        <v>0.07105750843678228</v>
+        <v>15.07105750843678</v>
       </c>
     </row>
     <row r="473">
@@ -4218,7 +4218,7 @@
         <v>10472</v>
       </c>
       <c r="B473" t="n">
-        <v>0.08463113208855452</v>
+        <v>15.08463113208856</v>
       </c>
     </row>
     <row r="474">
@@ -4226,7 +4226,7 @@
         <v>10473</v>
       </c>
       <c r="B474" t="n">
-        <v>0.1841886941908062</v>
+        <v>15.18418869419081</v>
       </c>
     </row>
     <row r="475">
@@ -4234,7 +4234,7 @@
         <v>10474</v>
       </c>
       <c r="B475" t="n">
-        <v>0.1556520351365906</v>
+        <v>15.15565203513659</v>
       </c>
     </row>
     <row r="476">
@@ -4242,7 +4242,7 @@
         <v>10475</v>
       </c>
       <c r="B476" t="n">
-        <v>0.1733570718921685</v>
+        <v>15.17335707189217</v>
       </c>
     </row>
     <row r="477">
@@ -4250,7 +4250,7 @@
         <v>10476</v>
       </c>
       <c r="B477" t="n">
-        <v>0.2123179536684703</v>
+        <v>15.21231795366847</v>
       </c>
     </row>
     <row r="478">
@@ -4258,7 +4258,7 @@
         <v>10477</v>
       </c>
       <c r="B478" t="n">
-        <v>0.2033419149595256</v>
+        <v>15.20334191495953</v>
       </c>
     </row>
     <row r="479">
@@ -4266,7 +4266,7 @@
         <v>10478</v>
       </c>
       <c r="B479" t="n">
-        <v>0.1229973224093456</v>
+        <v>15.12299732240935</v>
       </c>
     </row>
     <row r="480">
@@ -4274,7 +4274,7 @@
         <v>10479</v>
       </c>
       <c r="B480" t="n">
-        <v>0.1823874134183757</v>
+        <v>15.18238741341838</v>
       </c>
     </row>
     <row r="481">
@@ -4282,7 +4282,7 @@
         <v>10480</v>
       </c>
       <c r="B481" t="n">
-        <v>0.1045675574787906</v>
+        <v>15.10456755747879</v>
       </c>
     </row>
     <row r="482">
@@ -4290,7 +4290,7 @@
         <v>10481</v>
       </c>
       <c r="B482" t="n">
-        <v>0.1222128671337761</v>
+        <v>15.12221286713378</v>
       </c>
     </row>
     <row r="483">
@@ -4298,7 +4298,7 @@
         <v>10482</v>
       </c>
       <c r="B483" t="n">
-        <v>0.1996568736622333</v>
+        <v>15.19965687366223</v>
       </c>
     </row>
     <row r="484">
@@ -4306,7 +4306,7 @@
         <v>10483</v>
       </c>
       <c r="B484" t="n">
-        <v>0.1112183588669869</v>
+        <v>15.11121835886699</v>
       </c>
     </row>
     <row r="485">
@@ -4314,7 +4314,7 @@
         <v>10484</v>
       </c>
       <c r="B485" t="n">
-        <v>0.2121513380457754</v>
+        <v>15.21215133804577</v>
       </c>
     </row>
     <row r="486">
@@ -4322,7 +4322,7 @@
         <v>10485</v>
       </c>
       <c r="B486" t="n">
-        <v>0.1284722545019008</v>
+        <v>15.1284722545019</v>
       </c>
     </row>
     <row r="487">
@@ -4330,7 +4330,7 @@
         <v>10486</v>
       </c>
       <c r="B487" t="n">
-        <v>0.1410168541366691</v>
+        <v>15.14101685413667</v>
       </c>
     </row>
     <row r="488">
@@ -4338,7 +4338,7 @@
         <v>10487</v>
       </c>
       <c r="B488" t="n">
-        <v>0.1151219205801947</v>
+        <v>15.1151219205802</v>
       </c>
     </row>
     <row r="489">
@@ -4346,7 +4346,7 @@
         <v>10488</v>
       </c>
       <c r="B489" t="n">
-        <v>0.1625178356479846</v>
+        <v>15.16251783564798</v>
       </c>
     </row>
     <row r="490">
@@ -4354,7 +4354,7 @@
         <v>10489</v>
       </c>
       <c r="B490" t="n">
-        <v>0.1800290247594478</v>
+        <v>15.18002902475945</v>
       </c>
     </row>
     <row r="491">
@@ -4362,7 +4362,7 @@
         <v>10490</v>
       </c>
       <c r="B491" t="n">
-        <v>0.1232695446566466</v>
+        <v>15.12326954465665</v>
       </c>
     </row>
     <row r="492">
@@ -4370,7 +4370,7 @@
         <v>10491</v>
       </c>
       <c r="B492" t="n">
-        <v>0.2006738858561658</v>
+        <v>15.20067388585617</v>
       </c>
     </row>
     <row r="493">
@@ -4378,7 +4378,7 @@
         <v>10492</v>
       </c>
       <c r="B493" t="n">
-        <v>0.206266690134495</v>
+        <v>15.20626669013449</v>
       </c>
     </row>
     <row r="494">
@@ -4386,7 +4386,7 @@
         <v>10493</v>
       </c>
       <c r="B494" t="n">
-        <v>0.2031232259617711</v>
+        <v>15.20312322596177</v>
       </c>
     </row>
     <row r="495">
@@ -4394,7 +4394,7 @@
         <v>10494</v>
       </c>
       <c r="B495" t="n">
-        <v>0.2048825832768532</v>
+        <v>15.20488258327685</v>
       </c>
     </row>
     <row r="496">
@@ -4402,7 +4402,7 @@
         <v>10495</v>
       </c>
       <c r="B496" t="n">
-        <v>0.1205692221003864</v>
+        <v>15.12056922210039</v>
       </c>
     </row>
     <row r="497">
@@ -4410,7 +4410,7 @@
         <v>10496</v>
       </c>
       <c r="B497" t="n">
-        <v>0.2209925175858379</v>
+        <v>15.22099251758584</v>
       </c>
     </row>
     <row r="498">
@@ -4418,7 +4418,7 @@
         <v>10497</v>
       </c>
       <c r="B498" t="n">
-        <v>0.1915205736529557</v>
+        <v>15.19152057365296</v>
       </c>
     </row>
     <row r="499">
@@ -4426,7 +4426,7 @@
         <v>10498</v>
       </c>
       <c r="B499" t="n">
-        <v>0.2211050687102019</v>
+        <v>15.2211050687102</v>
       </c>
     </row>
     <row r="500">
@@ -4434,7 +4434,7 @@
         <v>10499</v>
       </c>
       <c r="B500" t="n">
-        <v>0.1396678285979326</v>
+        <v>15.13966782859793</v>
       </c>
     </row>
     <row r="501">
@@ -4442,7 +4442,7 @@
         <v>10500</v>
       </c>
       <c r="B501" t="n">
-        <v>0.1776414494405165</v>
+        <v>15.17764144944052</v>
       </c>
     </row>
     <row r="502">
@@ -4450,7 +4450,7 @@
         <v>10501</v>
       </c>
       <c r="B502" t="n">
-        <v>0.1202402768418774</v>
+        <v>15.12024027684188</v>
       </c>
     </row>
     <row r="503">
@@ -4458,7 +4458,7 @@
         <v>10502</v>
       </c>
       <c r="B503" t="n">
-        <v>0.1538576654197283</v>
+        <v>15.15385766541973</v>
       </c>
     </row>
     <row r="504">
@@ -4466,7 +4466,7 @@
         <v>10503</v>
       </c>
       <c r="B504" t="n">
-        <v>0.1978237929567088</v>
+        <v>15.19782379295671</v>
       </c>
     </row>
     <row r="505">
@@ -4474,7 +4474,7 @@
         <v>10504</v>
       </c>
       <c r="B505" t="n">
-        <v>0.1101446582151082</v>
+        <v>15.11014465821511</v>
       </c>
     </row>
     <row r="506">
@@ -4482,7 +4482,7 @@
         <v>10505</v>
       </c>
       <c r="B506" t="n">
-        <v>0.1684853569486015</v>
+        <v>15.1684853569486</v>
       </c>
     </row>
     <row r="507">
@@ -4490,7 +4490,7 @@
         <v>10506</v>
       </c>
       <c r="B507" t="n">
-        <v>0.2145726925524073</v>
+        <v>15.21457269255241</v>
       </c>
     </row>
     <row r="508">
@@ -4498,7 +4498,7 @@
         <v>10507</v>
       </c>
       <c r="B508" t="n">
-        <v>0.08478022901885637</v>
+        <v>15.08478022901886</v>
       </c>
     </row>
     <row r="509">
@@ -4506,7 +4506,7 @@
         <v>10508</v>
       </c>
       <c r="B509" t="n">
-        <v>0.1835297780863484</v>
+        <v>15.18352977808635</v>
       </c>
     </row>
     <row r="510">
@@ -4514,7 +4514,7 @@
         <v>10509</v>
       </c>
       <c r="B510" t="n">
-        <v>0.08249882935192529</v>
+        <v>15.08249882935193</v>
       </c>
     </row>
     <row r="511">
@@ -4522,7 +4522,7 @@
         <v>10510</v>
       </c>
       <c r="B511" t="n">
-        <v>0.1913491834598051</v>
+        <v>15.1913491834598</v>
       </c>
     </row>
     <row r="512">
@@ -4530,7 +4530,7 @@
         <v>10511</v>
       </c>
       <c r="B512" t="n">
-        <v>0.1819749941664926</v>
+        <v>15.18197499416649</v>
       </c>
     </row>
     <row r="513">
@@ -4538,7 +4538,7 @@
         <v>10512</v>
       </c>
       <c r="B513" t="n">
-        <v>0.1023315820080051</v>
+        <v>15.10233158200801</v>
       </c>
     </row>
     <row r="514">
@@ -4546,7 +4546,7 @@
         <v>10513</v>
       </c>
       <c r="B514" t="n">
-        <v>0.1677996955249217</v>
+        <v>15.16779969552492</v>
       </c>
     </row>
     <row r="515">
@@ -4554,7 +4554,7 @@
         <v>10514</v>
       </c>
       <c r="B515" t="n">
-        <v>0.1321819267102406</v>
+        <v>15.13218192671024</v>
       </c>
     </row>
     <row r="516">
@@ -4562,7 +4562,7 @@
         <v>10515</v>
       </c>
       <c r="B516" t="n">
-        <v>0.1545630859899814</v>
+        <v>15.15456308598998</v>
       </c>
     </row>
     <row r="517">
@@ -4570,7 +4570,7 @@
         <v>10516</v>
       </c>
       <c r="B517" t="n">
-        <v>0.2176200876939995</v>
+        <v>15.217620087694</v>
       </c>
     </row>
     <row r="518">
@@ -4578,7 +4578,7 @@
         <v>10517</v>
       </c>
       <c r="B518" t="n">
-        <v>0.1602662546174327</v>
+        <v>15.16026625461743</v>
       </c>
     </row>
     <row r="519">
@@ -4586,7 +4586,7 @@
         <v>10518</v>
       </c>
       <c r="B519" t="n">
-        <v>0.1670168745566199</v>
+        <v>15.16701687455662</v>
       </c>
     </row>
     <row r="520">
@@ -4594,7 +4594,7 @@
         <v>10519</v>
       </c>
       <c r="B520" t="n">
-        <v>0.2037080850601177</v>
+        <v>15.20370808506012</v>
       </c>
     </row>
     <row r="521">
@@ -4602,7 +4602,7 @@
         <v>10520</v>
       </c>
       <c r="B521" t="n">
-        <v>0.1856407635982268</v>
+        <v>15.18564076359823</v>
       </c>
     </row>
     <row r="522">
@@ -4610,7 +4610,7 @@
         <v>10521</v>
       </c>
       <c r="B522" t="n">
-        <v>0.1252527932355665</v>
+        <v>15.12525279323557</v>
       </c>
     </row>
     <row r="523">
@@ -4618,7 +4618,7 @@
         <v>10522</v>
       </c>
       <c r="B523" t="n">
-        <v>0.1560116302922082</v>
+        <v>15.15601163029221</v>
       </c>
     </row>
     <row r="524">
@@ -4626,7 +4626,7 @@
         <v>10523</v>
       </c>
       <c r="B524" t="n">
-        <v>0.1789117579679509</v>
+        <v>15.17891175796795</v>
       </c>
     </row>
     <row r="525">
@@ -4634,7 +4634,7 @@
         <v>10524</v>
       </c>
       <c r="B525" t="n">
-        <v>0.1673765111919248</v>
+        <v>15.16737651119193</v>
       </c>
     </row>
     <row r="526">
@@ -4642,7 +4642,7 @@
         <v>10525</v>
       </c>
       <c r="B526" t="n">
-        <v>0.1427076018806821</v>
+        <v>15.14270760188068</v>
       </c>
     </row>
     <row r="527">
@@ -4650,7 +4650,7 @@
         <v>10526</v>
       </c>
       <c r="B527" t="n">
-        <v>0.2137806233345334</v>
+        <v>15.21378062333453</v>
       </c>
     </row>
     <row r="528">
@@ -4658,7 +4658,7 @@
         <v>10527</v>
       </c>
       <c r="B528" t="n">
-        <v>0.09945062242107472</v>
+        <v>15.09945062242107</v>
       </c>
     </row>
     <row r="529">
@@ -4666,7 +4666,7 @@
         <v>10528</v>
       </c>
       <c r="B529" t="n">
-        <v>0.1834062673972524</v>
+        <v>15.18340626739725</v>
       </c>
     </row>
     <row r="530">
@@ -4674,7 +4674,7 @@
         <v>10529</v>
       </c>
       <c r="B530" t="n">
-        <v>0.1381152768160821</v>
+        <v>15.13811527681608</v>
       </c>
     </row>
     <row r="531">
@@ -4682,7 +4682,7 @@
         <v>10530</v>
       </c>
       <c r="B531" t="n">
-        <v>0.1595776765005175</v>
+        <v>15.15957767650052</v>
       </c>
     </row>
     <row r="532">
@@ -4690,7 +4690,7 @@
         <v>10531</v>
       </c>
       <c r="B532" t="n">
-        <v>0.1863731021611648</v>
+        <v>15.18637310216116</v>
       </c>
     </row>
     <row r="533">
@@ -4698,7 +4698,7 @@
         <v>10532</v>
       </c>
       <c r="B533" t="n">
-        <v>0.1815789161364688</v>
+        <v>15.18157891613647</v>
       </c>
     </row>
     <row r="534">
@@ -4706,7 +4706,7 @@
         <v>10533</v>
       </c>
       <c r="B534" t="n">
-        <v>0.1957583006988564</v>
+        <v>15.19575830069886</v>
       </c>
     </row>
     <row r="535">
@@ -4714,7 +4714,7 @@
         <v>10534</v>
       </c>
       <c r="B535" t="n">
-        <v>0.188542823608773</v>
+        <v>15.18854282360877</v>
       </c>
     </row>
     <row r="536">
@@ -4722,7 +4722,7 @@
         <v>10535</v>
       </c>
       <c r="B536" t="n">
-        <v>0.1020736146241706</v>
+        <v>15.10207361462417</v>
       </c>
     </row>
     <row r="537">
@@ -4730,7 +4730,7 @@
         <v>10536</v>
       </c>
       <c r="B537" t="n">
-        <v>0.08454474848275684</v>
+        <v>15.08454474848276</v>
       </c>
     </row>
     <row r="538">
@@ -4738,7 +4738,7 @@
         <v>10537</v>
       </c>
       <c r="B538" t="n">
-        <v>0.1057433859178166</v>
+        <v>15.10574338591782</v>
       </c>
     </row>
     <row r="539">
@@ -4746,7 +4746,7 @@
         <v>10538</v>
       </c>
       <c r="B539" t="n">
-        <v>0.2051422352355923</v>
+        <v>15.20514223523559</v>
       </c>
     </row>
     <row r="540">
@@ -4754,7 +4754,7 @@
         <v>10539</v>
       </c>
       <c r="B540" t="n">
-        <v>0.2136078459575403</v>
+        <v>15.21360784595754</v>
       </c>
     </row>
     <row r="541">
@@ -4762,7 +4762,7 @@
         <v>10540</v>
       </c>
       <c r="B541" t="n">
-        <v>0.1941450798311194</v>
+        <v>15.19414507983112</v>
       </c>
     </row>
     <row r="542">
@@ -4770,7 +4770,7 @@
         <v>10541</v>
       </c>
       <c r="B542" t="n">
-        <v>0.1043417502567087</v>
+        <v>15.10434175025671</v>
       </c>
     </row>
     <row r="543">
@@ -4778,7 +4778,7 @@
         <v>10542</v>
       </c>
       <c r="B543" t="n">
-        <v>0.1903892512834681</v>
+        <v>15.19038925128347</v>
       </c>
     </row>
     <row r="544">
@@ -4786,7 +4786,7 @@
         <v>10543</v>
       </c>
       <c r="B544" t="n">
-        <v>0.07931692600929419</v>
+        <v>15.07931692600929</v>
       </c>
     </row>
     <row r="545">
@@ -4794,7 +4794,7 @@
         <v>10544</v>
       </c>
       <c r="B545" t="n">
-        <v>0.1339203371959959</v>
+        <v>15.133920337196</v>
       </c>
     </row>
     <row r="546">
@@ -4802,7 +4802,7 @@
         <v>10545</v>
       </c>
       <c r="B546" t="n">
-        <v>0.187051740651236</v>
+        <v>15.18705174065124</v>
       </c>
     </row>
     <row r="547">
@@ -4810,7 +4810,7 @@
         <v>10546</v>
       </c>
       <c r="B547" t="n">
-        <v>0.1466372215585489</v>
+        <v>15.14663722155855</v>
       </c>
     </row>
     <row r="548">
@@ -4818,7 +4818,7 @@
         <v>10547</v>
       </c>
       <c r="B548" t="n">
-        <v>0.1929227755501901</v>
+        <v>15.19292277555019</v>
       </c>
     </row>
     <row r="549">
@@ -4826,7 +4826,7 @@
         <v>10548</v>
       </c>
       <c r="B549" t="n">
-        <v>0.2138656070656415</v>
+        <v>15.21386560706564</v>
       </c>
     </row>
     <row r="550">
@@ -4834,7 +4834,7 @@
         <v>10549</v>
       </c>
       <c r="B550" t="n">
-        <v>0.09169804427925443</v>
+        <v>15.09169804427925</v>
       </c>
     </row>
     <row r="551">
@@ -4842,7 +4842,7 @@
         <v>10550</v>
       </c>
       <c r="B551" t="n">
-        <v>0.1729499495094842</v>
+        <v>15.17294994950948</v>
       </c>
     </row>
     <row r="552">
@@ -4850,7 +4850,7 @@
         <v>10551</v>
       </c>
       <c r="B552" t="n">
-        <v>0.2242846718985587</v>
+        <v>15.22428467189856</v>
       </c>
     </row>
     <row r="553">
@@ -4858,7 +4858,7 @@
         <v>10552</v>
       </c>
       <c r="B553" t="n">
-        <v>0.1679402109447786</v>
+        <v>15.16794021094478</v>
       </c>
     </row>
     <row r="554">
@@ -4866,7 +4866,7 @@
         <v>10553</v>
       </c>
       <c r="B554" t="n">
-        <v>0.1317581453424074</v>
+        <v>15.13175814534241</v>
       </c>
     </row>
     <row r="555">
@@ -4874,7 +4874,7 @@
         <v>10554</v>
       </c>
       <c r="B555" t="n">
-        <v>0.1929014782769208</v>
+        <v>15.19290147827692</v>
       </c>
     </row>
     <row r="556">
@@ -4882,7 +4882,7 @@
         <v>10555</v>
       </c>
       <c r="B556" t="n">
-        <v>0.1685945938663648</v>
+        <v>15.16859459386636</v>
       </c>
     </row>
     <row r="557">
@@ -4890,7 +4890,7 @@
         <v>10556</v>
       </c>
       <c r="B557" t="n">
-        <v>0.1282491988441349</v>
+        <v>15.12824919884413</v>
       </c>
     </row>
     <row r="558">
@@ -4898,7 +4898,7 @@
         <v>10557</v>
       </c>
       <c r="B558" t="n">
-        <v>0.1848995832033329</v>
+        <v>15.18489958320333</v>
       </c>
     </row>
     <row r="559">
@@ -4906,7 +4906,7 @@
         <v>10558</v>
       </c>
       <c r="B559" t="n">
-        <v>0.1784840100445988</v>
+        <v>15.1784840100446</v>
       </c>
     </row>
     <row r="560">
@@ -4914,7 +4914,7 @@
         <v>10559</v>
       </c>
       <c r="B560" t="n">
-        <v>0.1748932445849445</v>
+        <v>15.17489324458495</v>
       </c>
     </row>
     <row r="561">
@@ -4922,7 +4922,7 @@
         <v>10560</v>
       </c>
       <c r="B561" t="n">
-        <v>0.2171631333106224</v>
+        <v>15.21716313331062</v>
       </c>
     </row>
     <row r="562">
@@ -4930,7 +4930,7 @@
         <v>10561</v>
       </c>
       <c r="B562" t="n">
-        <v>0.1233360142152359</v>
+        <v>15.12333601421524</v>
       </c>
     </row>
     <row r="563">
@@ -4938,7 +4938,7 @@
         <v>10562</v>
       </c>
       <c r="B563" t="n">
-        <v>0.199937249495316</v>
+        <v>15.19993724949532</v>
       </c>
     </row>
     <row r="564">
@@ -4946,7 +4946,7 @@
         <v>10563</v>
       </c>
       <c r="B564" t="n">
-        <v>0.1732697746877824</v>
+        <v>15.17326977468778</v>
       </c>
     </row>
     <row r="565">
@@ -4954,7 +4954,7 @@
         <v>10564</v>
       </c>
       <c r="B565" t="n">
-        <v>0.1251287704003964</v>
+        <v>15.1251287704004</v>
       </c>
     </row>
     <row r="566">
@@ -4962,7 +4962,7 @@
         <v>10565</v>
       </c>
       <c r="B566" t="n">
-        <v>0.2054007706272721</v>
+        <v>15.20540077062727</v>
       </c>
     </row>
     <row r="567">
@@ -4970,7 +4970,7 @@
         <v>10566</v>
       </c>
       <c r="B567" t="n">
-        <v>0.1967999150592636</v>
+        <v>15.19679991505926</v>
       </c>
     </row>
     <row r="568">
@@ -4978,7 +4978,7 @@
         <v>10567</v>
       </c>
       <c r="B568" t="n">
-        <v>0.1573769372717408</v>
+        <v>15.15737693727174</v>
       </c>
     </row>
     <row r="569">
@@ -4986,7 +4986,7 @@
         <v>10568</v>
       </c>
       <c r="B569" t="n">
-        <v>0.1819383761815064</v>
+        <v>15.18193837618151</v>
       </c>
     </row>
     <row r="570">
@@ -4994,7 +4994,7 @@
         <v>10569</v>
       </c>
       <c r="B570" t="n">
-        <v>0.1363046024676123</v>
+        <v>15.13630460246761</v>
       </c>
     </row>
     <row r="571">
@@ -5002,7 +5002,7 @@
         <v>10570</v>
       </c>
       <c r="B571" t="n">
-        <v>0.2143303664013484</v>
+        <v>15.21433036640135</v>
       </c>
     </row>
     <row r="572">
@@ -5010,7 +5010,7 @@
         <v>10571</v>
       </c>
       <c r="B572" t="n">
-        <v>0.1979936880093586</v>
+        <v>15.19799368800936</v>
       </c>
     </row>
     <row r="573">
@@ -5018,7 +5018,7 @@
         <v>10572</v>
       </c>
       <c r="B573" t="n">
-        <v>0.2175517953090493</v>
+        <v>15.21755179530905</v>
       </c>
     </row>
     <row r="574">
@@ -5026,7 +5026,7 @@
         <v>10573</v>
       </c>
       <c r="B574" t="n">
-        <v>0.165767676311544</v>
+        <v>15.16576767631154</v>
       </c>
     </row>
     <row r="575">
@@ -5034,7 +5034,7 @@
         <v>10574</v>
       </c>
       <c r="B575" t="n">
-        <v>0.1769453982730693</v>
+        <v>15.17694539827307</v>
       </c>
     </row>
     <row r="576">
@@ -5042,7 +5042,7 @@
         <v>10575</v>
       </c>
       <c r="B576" t="n">
-        <v>0.08752432738003671</v>
+        <v>15.08752432738004</v>
       </c>
     </row>
     <row r="577">
@@ -5050,7 +5050,7 @@
         <v>10576</v>
       </c>
       <c r="B577" t="n">
-        <v>0.1430856627680832</v>
+        <v>15.14308566276808</v>
       </c>
     </row>
     <row r="578">
@@ -5058,7 +5058,7 @@
         <v>10577</v>
       </c>
       <c r="B578" t="n">
-        <v>0.1971981109873816</v>
+        <v>15.19719811098738</v>
       </c>
     </row>
     <row r="579">
@@ -5066,7 +5066,7 @@
         <v>10578</v>
       </c>
       <c r="B579" t="n">
-        <v>0.1476796865137708</v>
+        <v>15.14767968651377</v>
       </c>
     </row>
     <row r="580">
@@ -5074,7 +5074,7 @@
         <v>10579</v>
       </c>
       <c r="B580" t="n">
-        <v>0.1692130943565433</v>
+        <v>15.16921309435654</v>
       </c>
     </row>
     <row r="581">
@@ -5082,7 +5082,7 @@
         <v>10580</v>
       </c>
       <c r="B581" t="n">
-        <v>0.1643520131292381</v>
+        <v>15.16435201312924</v>
       </c>
     </row>
     <row r="582">
@@ -5090,7 +5090,7 @@
         <v>10581</v>
       </c>
       <c r="B582" t="n">
-        <v>0.1275814465479634</v>
+        <v>15.12758144654796</v>
       </c>
     </row>
     <row r="583">
@@ -5098,7 +5098,7 @@
         <v>10582</v>
       </c>
       <c r="B583" t="n">
-        <v>0.1225566134954609</v>
+        <v>15.12255661349546</v>
       </c>
     </row>
     <row r="584">
@@ -5106,7 +5106,7 @@
         <v>10583</v>
       </c>
       <c r="B584" t="n">
-        <v>0.1965830046101468</v>
+        <v>15.19658300461015</v>
       </c>
     </row>
     <row r="585">
@@ -5114,7 +5114,7 @@
         <v>10584</v>
       </c>
       <c r="B585" t="n">
-        <v>0.1885159292364458</v>
+        <v>15.18851592923645</v>
       </c>
     </row>
     <row r="586">
@@ -5122,7 +5122,7 @@
         <v>10585</v>
       </c>
       <c r="B586" t="n">
-        <v>0.2092345495980601</v>
+        <v>15.20923454959806</v>
       </c>
     </row>
     <row r="587">
@@ -5130,7 +5130,7 @@
         <v>10586</v>
       </c>
       <c r="B587" t="n">
-        <v>0.1528712520168043</v>
+        <v>15.1528712520168</v>
       </c>
     </row>
     <row r="588">
@@ -5138,7 +5138,7 @@
         <v>10587</v>
       </c>
       <c r="B588" t="n">
-        <v>0.146101580267672</v>
+        <v>15.14610158026767</v>
       </c>
     </row>
     <row r="589">
@@ -5146,7 +5146,7 @@
         <v>10588</v>
       </c>
       <c r="B589" t="n">
-        <v>0.1449146502623479</v>
+        <v>15.14491465026235</v>
       </c>
     </row>
     <row r="590">
@@ -5154,7 +5154,7 @@
         <v>10589</v>
       </c>
       <c r="B590" t="n">
-        <v>0.188735997847323</v>
+        <v>15.18873599784732</v>
       </c>
     </row>
     <row r="591">
@@ -5162,7 +5162,7 @@
         <v>10590</v>
       </c>
       <c r="B591" t="n">
-        <v>0.1725943765630657</v>
+        <v>15.17259437656307</v>
       </c>
     </row>
     <row r="592">
@@ -5170,7 +5170,7 @@
         <v>10591</v>
       </c>
       <c r="B592" t="n">
-        <v>0.1939796671748475</v>
+        <v>15.19397966717485</v>
       </c>
     </row>
     <row r="593">
@@ -5178,7 +5178,7 @@
         <v>10592</v>
       </c>
       <c r="B593" t="n">
-        <v>0.1875392084322398</v>
+        <v>15.18753920843224</v>
       </c>
     </row>
     <row r="594">
@@ -5186,7 +5186,7 @@
         <v>10593</v>
       </c>
       <c r="B594" t="n">
-        <v>0.1581981883703396</v>
+        <v>15.15819818837034</v>
       </c>
     </row>
     <row r="595">
@@ -5194,7 +5194,7 @@
         <v>10594</v>
       </c>
       <c r="B595" t="n">
-        <v>0.2315314909253606</v>
+        <v>15.23153149092536</v>
       </c>
     </row>
     <row r="596">
@@ -5202,7 +5202,7 @@
         <v>10595</v>
       </c>
       <c r="B596" t="n">
-        <v>0.2037359830897724</v>
+        <v>15.20373598308977</v>
       </c>
     </row>
     <row r="597">
@@ -5210,7 +5210,7 @@
         <v>10596</v>
       </c>
       <c r="B597" t="n">
-        <v>0.1400738035050967</v>
+        <v>15.1400738035051</v>
       </c>
     </row>
     <row r="598">
@@ -5218,7 +5218,7 @@
         <v>10597</v>
       </c>
       <c r="B598" t="n">
-        <v>0.1289635866232524</v>
+        <v>15.12896358662325</v>
       </c>
     </row>
     <row r="599">
@@ -5226,7 +5226,7 @@
         <v>10598</v>
       </c>
       <c r="B599" t="n">
-        <v>0.2109319841282245</v>
+        <v>15.21093198412822</v>
       </c>
     </row>
     <row r="600">
@@ -5234,7 +5234,7 @@
         <v>10599</v>
       </c>
       <c r="B600" t="n">
-        <v>0.2247669925506372</v>
+        <v>15.22476699255064</v>
       </c>
     </row>
     <row r="601">
@@ -5242,7 +5242,7 @@
         <v>10600</v>
       </c>
       <c r="B601" t="n">
-        <v>0.1366093225734423</v>
+        <v>15.13660932257344</v>
       </c>
     </row>
     <row r="602">
@@ -5250,7 +5250,7 @@
         <v>10601</v>
       </c>
       <c r="B602" t="n">
-        <v>0.2068982082790609</v>
+        <v>15.20689820827906</v>
       </c>
     </row>
     <row r="603">
@@ -5258,7 +5258,7 @@
         <v>10602</v>
       </c>
       <c r="B603" t="n">
-        <v>0.08737703116822308</v>
+        <v>15.08737703116822</v>
       </c>
     </row>
     <row r="604">
@@ -5266,7 +5266,7 @@
         <v>10603</v>
       </c>
       <c r="B604" t="n">
-        <v>0.1098954023930188</v>
+        <v>15.10989540239302</v>
       </c>
     </row>
     <row r="605">
@@ -5274,7 +5274,7 @@
         <v>10604</v>
       </c>
       <c r="B605" t="n">
-        <v>0.1844854724683707</v>
+        <v>15.18448547246837</v>
       </c>
     </row>
     <row r="606">
@@ -5282,7 +5282,7 @@
         <v>10605</v>
       </c>
       <c r="B606" t="n">
-        <v>0.1318692144840532</v>
+        <v>15.13186921448405</v>
       </c>
     </row>
     <row r="607">
@@ -5290,7 +5290,7 @@
         <v>10606</v>
       </c>
       <c r="B607" t="n">
-        <v>0.1738945957253987</v>
+        <v>15.1738945957254</v>
       </c>
     </row>
     <row r="608">
@@ -5298,7 +5298,7 @@
         <v>10607</v>
       </c>
       <c r="B608" t="n">
-        <v>0.1757168807179374</v>
+        <v>15.17571688071794</v>
       </c>
     </row>
     <row r="609">
@@ -5306,7 +5306,7 @@
         <v>10608</v>
       </c>
       <c r="B609" t="n">
-        <v>0.1660893585359225</v>
+        <v>15.16608935853592</v>
       </c>
     </row>
     <row r="610">
@@ -5314,7 +5314,7 @@
         <v>10609</v>
       </c>
       <c r="B610" t="n">
-        <v>0.203802244292877</v>
+        <v>15.20380224429288</v>
       </c>
     </row>
     <row r="611">
@@ -5322,7 +5322,7 @@
         <v>10610</v>
       </c>
       <c r="B611" t="n">
-        <v>0.1766666033822678</v>
+        <v>15.17666660338227</v>
       </c>
     </row>
     <row r="612">
@@ -5330,7 +5330,7 @@
         <v>10611</v>
       </c>
       <c r="B612" t="n">
-        <v>0.2119119378776942</v>
+        <v>15.21191193787769</v>
       </c>
     </row>
     <row r="613">
@@ -5338,7 +5338,7 @@
         <v>10612</v>
       </c>
       <c r="B613" t="n">
-        <v>0.1734857137817046</v>
+        <v>15.17348571378171</v>
       </c>
     </row>
     <row r="614">
@@ -5346,7 +5346,7 @@
         <v>10613</v>
       </c>
       <c r="B614" t="n">
-        <v>0.1318425341059896</v>
+        <v>15.13184253410599</v>
       </c>
     </row>
     <row r="615">
@@ -5354,7 +5354,7 @@
         <v>10614</v>
       </c>
       <c r="B615" t="n">
-        <v>0.2065547740378989</v>
+        <v>15.2065547740379</v>
       </c>
     </row>
     <row r="616">
@@ -5362,7 +5362,7 @@
         <v>10615</v>
       </c>
       <c r="B616" t="n">
-        <v>0.2057100107306193</v>
+        <v>15.20571001073062</v>
       </c>
     </row>
     <row r="617">
@@ -5370,7 +5370,7 @@
         <v>10616</v>
       </c>
       <c r="B617" t="n">
-        <v>0.2001462618436374</v>
+        <v>15.20014626184364</v>
       </c>
     </row>
     <row r="618">
@@ -5378,7 +5378,7 @@
         <v>10617</v>
       </c>
       <c r="B618" t="n">
-        <v>0.1182549364615497</v>
+        <v>15.11825493646155</v>
       </c>
     </row>
     <row r="619">
@@ -5386,7 +5386,7 @@
         <v>10618</v>
       </c>
       <c r="B619" t="n">
-        <v>0.190326299733465</v>
+        <v>15.19032629973347</v>
       </c>
     </row>
     <row r="620">
@@ -5394,7 +5394,7 @@
         <v>10619</v>
       </c>
       <c r="B620" t="n">
-        <v>0.2041718342922278</v>
+        <v>15.20417183429223</v>
       </c>
     </row>
     <row r="621">
@@ -5402,7 +5402,7 @@
         <v>10620</v>
       </c>
       <c r="B621" t="n">
-        <v>0.2135869974537722</v>
+        <v>15.21358699745377</v>
       </c>
     </row>
     <row r="622">
@@ -5410,7 +5410,7 @@
         <v>10621</v>
       </c>
       <c r="B622" t="n">
-        <v>0.1438831643844126</v>
+        <v>15.14388316438441</v>
       </c>
     </row>
     <row r="623">
@@ -5418,7 +5418,7 @@
         <v>10622</v>
       </c>
       <c r="B623" t="n">
-        <v>0.154899556444311</v>
+        <v>15.15489955644431</v>
       </c>
     </row>
     <row r="624">
@@ -5426,7 +5426,7 @@
         <v>10623</v>
       </c>
       <c r="B624" t="n">
-        <v>0.1467027500153576</v>
+        <v>15.14670275001536</v>
       </c>
     </row>
     <row r="625">
@@ -5434,7 +5434,7 @@
         <v>10624</v>
       </c>
       <c r="B625" t="n">
-        <v>0.2005641350418202</v>
+        <v>15.20056413504182</v>
       </c>
     </row>
     <row r="626">
@@ -5442,7 +5442,7 @@
         <v>10625</v>
       </c>
       <c r="B626" t="n">
-        <v>0.1162741677050968</v>
+        <v>15.1162741677051</v>
       </c>
     </row>
     <row r="627">
@@ -5450,7 +5450,7 @@
         <v>10626</v>
       </c>
       <c r="B627" t="n">
-        <v>0.1738032749763746</v>
+        <v>15.17380327497638</v>
       </c>
     </row>
     <row r="628">
@@ -5458,7 +5458,7 @@
         <v>10627</v>
       </c>
       <c r="B628" t="n">
-        <v>0.1142060037658611</v>
+        <v>15.11420600376586</v>
       </c>
     </row>
     <row r="629">
@@ -5466,7 +5466,7 @@
         <v>10628</v>
       </c>
       <c r="B629" t="n">
-        <v>0.1995692137251429</v>
+        <v>15.19956921372514</v>
       </c>
     </row>
     <row r="630">
@@ -5474,7 +5474,7 @@
         <v>10629</v>
       </c>
       <c r="B630" t="n">
-        <v>0.1662490528348784</v>
+        <v>15.16624905283488</v>
       </c>
     </row>
     <row r="631">
@@ -5482,7 +5482,7 @@
         <v>10630</v>
       </c>
       <c r="B631" t="n">
-        <v>0.2271725242249628</v>
+        <v>15.22717252422496</v>
       </c>
     </row>
     <row r="632">
@@ -5490,7 +5490,7 @@
         <v>10631</v>
       </c>
       <c r="B632" t="n">
-        <v>0.09436110831373216</v>
+        <v>15.09436110831373</v>
       </c>
     </row>
     <row r="633">
@@ -5498,7 +5498,7 @@
         <v>10632</v>
       </c>
       <c r="B633" t="n">
-        <v>0.2132323525111681</v>
+        <v>15.21323235251117</v>
       </c>
     </row>
     <row r="634">
@@ -5506,7 +5506,7 @@
         <v>10633</v>
       </c>
       <c r="B634" t="n">
-        <v>0.110430024677035</v>
+        <v>15.11043002467703</v>
       </c>
     </row>
     <row r="635">
@@ -5514,7 +5514,7 @@
         <v>10634</v>
       </c>
       <c r="B635" t="n">
-        <v>0.1320959918795594</v>
+        <v>15.13209599187956</v>
       </c>
     </row>
     <row r="636">
@@ -5522,7 +5522,7 @@
         <v>10635</v>
       </c>
       <c r="B636" t="n">
-        <v>0.1666817904354859</v>
+        <v>15.16668179043549</v>
       </c>
     </row>
     <row r="637">
@@ -5530,7 +5530,7 @@
         <v>10636</v>
       </c>
       <c r="B637" t="n">
-        <v>0.1610285843260951</v>
+        <v>15.1610285843261</v>
       </c>
     </row>
     <row r="638">
@@ -5538,7 +5538,7 @@
         <v>10637</v>
       </c>
       <c r="B638" t="n">
-        <v>0.1030592912065708</v>
+        <v>15.10305929120657</v>
       </c>
     </row>
     <row r="639">
@@ -5546,7 +5546,7 @@
         <v>10638</v>
       </c>
       <c r="B639" t="n">
-        <v>0.1903569213983237</v>
+        <v>15.19035692139832</v>
       </c>
     </row>
     <row r="640">
@@ -5554,7 +5554,7 @@
         <v>10639</v>
       </c>
       <c r="B640" t="n">
-        <v>0.06314296421050063</v>
+        <v>15.0631429642105</v>
       </c>
     </row>
     <row r="641">
@@ -5562,7 +5562,7 @@
         <v>10640</v>
       </c>
       <c r="B641" t="n">
-        <v>0.13114532781778</v>
+        <v>15.13114532781778</v>
       </c>
     </row>
     <row r="642">
@@ -5570,7 +5570,7 @@
         <v>10641</v>
       </c>
       <c r="B642" t="n">
-        <v>0.1844949444594991</v>
+        <v>15.1844949444595</v>
       </c>
     </row>
     <row r="643">
@@ -5578,7 +5578,7 @@
         <v>10642</v>
       </c>
       <c r="B643" t="n">
-        <v>0.1806001054189348</v>
+        <v>15.18060010541893</v>
       </c>
     </row>
     <row r="644">
@@ -5586,7 +5586,7 @@
         <v>10643</v>
       </c>
       <c r="B644" t="n">
-        <v>0.2158034363906827</v>
+        <v>15.21580343639068</v>
       </c>
     </row>
     <row r="645">
@@ -5594,7 +5594,7 @@
         <v>10644</v>
       </c>
       <c r="B645" t="n">
-        <v>0.1561571495079756</v>
+        <v>15.15615714950798</v>
       </c>
     </row>
     <row r="646">
@@ -5602,7 +5602,7 @@
         <v>10645</v>
       </c>
       <c r="B646" t="n">
-        <v>0.1493553185947106</v>
+        <v>15.14935531859471</v>
       </c>
     </row>
     <row r="647">
@@ -5610,7 +5610,7 @@
         <v>10646</v>
       </c>
       <c r="B647" t="n">
-        <v>0.1669752454876406</v>
+        <v>15.16697524548764</v>
       </c>
     </row>
     <row r="648">
@@ -5618,7 +5618,7 @@
         <v>10647</v>
       </c>
       <c r="B648" t="n">
-        <v>0.07468074096279906</v>
+        <v>15.0746807409628</v>
       </c>
     </row>
     <row r="649">
@@ -5626,7 +5626,7 @@
         <v>10648</v>
       </c>
       <c r="B649" t="n">
-        <v>0.2101229806158457</v>
+        <v>15.21012298061585</v>
       </c>
     </row>
     <row r="650">
@@ -5634,7 +5634,7 @@
         <v>10649</v>
       </c>
       <c r="B650" t="n">
-        <v>0.1635060254853761</v>
+        <v>15.16350602548538</v>
       </c>
     </row>
     <row r="651">
@@ -5642,7 +5642,7 @@
         <v>10650</v>
       </c>
       <c r="B651" t="n">
-        <v>0.1299020354790315</v>
+        <v>15.12990203547903</v>
       </c>
     </row>
     <row r="652">
@@ -5650,7 +5650,7 @@
         <v>10651</v>
       </c>
       <c r="B652" t="n">
-        <v>0.1911883306753961</v>
+        <v>15.1911883306754</v>
       </c>
     </row>
     <row r="653">
@@ -5658,7 +5658,7 @@
         <v>10652</v>
       </c>
       <c r="B653" t="n">
-        <v>0.1190488181407985</v>
+        <v>15.1190488181408</v>
       </c>
     </row>
     <row r="654">
@@ -5666,7 +5666,7 @@
         <v>10653</v>
       </c>
       <c r="B654" t="n">
-        <v>0.1271932478865264</v>
+        <v>15.12719324788653</v>
       </c>
     </row>
     <row r="655">
@@ -5674,7 +5674,7 @@
         <v>10654</v>
       </c>
       <c r="B655" t="n">
-        <v>0.1734343556633109</v>
+        <v>15.17343435566331</v>
       </c>
     </row>
     <row r="656">
@@ -5682,7 +5682,7 @@
         <v>10655</v>
       </c>
       <c r="B656" t="n">
-        <v>0.1179965383020684</v>
+        <v>15.11799653830207</v>
       </c>
     </row>
     <row r="657">
@@ -5690,7 +5690,7 @@
         <v>10656</v>
       </c>
       <c r="B657" t="n">
-        <v>0.1863527468307198</v>
+        <v>15.18635274683072</v>
       </c>
     </row>
     <row r="658">
@@ -5698,7 +5698,7 @@
         <v>10657</v>
       </c>
       <c r="B658" t="n">
-        <v>0.1787255582192226</v>
+        <v>15.17872555821922</v>
       </c>
     </row>
     <row r="659">
@@ -5706,7 +5706,7 @@
         <v>10658</v>
       </c>
       <c r="B659" t="n">
-        <v>0.1518248750977532</v>
+        <v>15.15182487509775</v>
       </c>
     </row>
     <row r="660">
@@ -5714,7 +5714,7 @@
         <v>10659</v>
       </c>
       <c r="B660" t="n">
-        <v>0.1283265840684316</v>
+        <v>15.12832658406843</v>
       </c>
     </row>
     <row r="661">
@@ -5722,7 +5722,7 @@
         <v>10660</v>
       </c>
       <c r="B661" t="n">
-        <v>0.1113455453126091</v>
+        <v>15.11134554531261</v>
       </c>
     </row>
     <row r="662">
@@ -5730,7 +5730,7 @@
         <v>10661</v>
       </c>
       <c r="B662" t="n">
-        <v>0.1150934488851178</v>
+        <v>15.11509344888512</v>
       </c>
     </row>
     <row r="663">
@@ -5738,7 +5738,7 @@
         <v>10662</v>
       </c>
       <c r="B663" t="n">
-        <v>0.1681080876569287</v>
+        <v>15.16810808765693</v>
       </c>
     </row>
     <row r="664">
@@ -5746,7 +5746,7 @@
         <v>10663</v>
       </c>
       <c r="B664" t="n">
-        <v>0.196333092677036</v>
+        <v>15.19633309267704</v>
       </c>
     </row>
     <row r="665">
@@ -5754,7 +5754,7 @@
         <v>10664</v>
       </c>
       <c r="B665" t="n">
-        <v>0.1499539400037687</v>
+        <v>15.14995394000377</v>
       </c>
     </row>
     <row r="666">
@@ -5762,7 +5762,7 @@
         <v>10665</v>
       </c>
       <c r="B666" t="n">
-        <v>0.1335298645342885</v>
+        <v>15.13352986453429</v>
       </c>
     </row>
     <row r="667">
@@ -5770,7 +5770,7 @@
         <v>10666</v>
       </c>
       <c r="B667" t="n">
-        <v>0.09114428016314996</v>
+        <v>15.09114428016315</v>
       </c>
     </row>
     <row r="668">
@@ -5778,7 +5778,7 @@
         <v>10667</v>
       </c>
       <c r="B668" t="n">
-        <v>0.113999598806286</v>
+        <v>15.11399959880629</v>
       </c>
     </row>
     <row r="669">
@@ -5786,7 +5786,7 @@
         <v>10668</v>
       </c>
       <c r="B669" t="n">
-        <v>0.171806737424317</v>
+        <v>15.17180673742432</v>
       </c>
     </row>
     <row r="670">
@@ -5794,7 +5794,7 @@
         <v>10669</v>
       </c>
       <c r="B670" t="n">
-        <v>0.1939707326222007</v>
+        <v>15.1939707326222</v>
       </c>
     </row>
     <row r="671">
@@ -5802,7 +5802,7 @@
         <v>10670</v>
       </c>
       <c r="B671" t="n">
-        <v>0.1061943085575869</v>
+        <v>15.10619430855759</v>
       </c>
     </row>
     <row r="672">
@@ -5810,7 +5810,7 @@
         <v>10671</v>
       </c>
       <c r="B672" t="n">
-        <v>0.1655514996728437</v>
+        <v>15.16555149967284</v>
       </c>
     </row>
     <row r="673">
@@ -5818,7 +5818,7 @@
         <v>10672</v>
       </c>
       <c r="B673" t="n">
-        <v>0.122523967585558</v>
+        <v>15.12252396758556</v>
       </c>
     </row>
     <row r="674">
@@ -5826,7 +5826,7 @@
         <v>10673</v>
       </c>
       <c r="B674" t="n">
-        <v>0.1485282307908327</v>
+        <v>15.14852823079083</v>
       </c>
     </row>
     <row r="675">
@@ -5834,7 +5834,7 @@
         <v>10674</v>
       </c>
       <c r="B675" t="n">
-        <v>0.1865984051333339</v>
+        <v>15.18659840513333</v>
       </c>
     </row>
     <row r="676">
@@ -5842,7 +5842,7 @@
         <v>10675</v>
       </c>
       <c r="B676" t="n">
-        <v>0.1828689503470556</v>
+        <v>15.18286895034706</v>
       </c>
     </row>
     <row r="677">
@@ -5850,7 +5850,7 @@
         <v>10676</v>
       </c>
       <c r="B677" t="n">
-        <v>0.2049721315975552</v>
+        <v>15.20497213159756</v>
       </c>
     </row>
     <row r="678">
@@ -5858,7 +5858,7 @@
         <v>10677</v>
       </c>
       <c r="B678" t="n">
-        <v>0.1018808193712236</v>
+        <v>15.10188081937122</v>
       </c>
     </row>
     <row r="679">
@@ -5866,7 +5866,7 @@
         <v>10678</v>
       </c>
       <c r="B679" t="n">
-        <v>0.1761395997530656</v>
+        <v>15.17613959975307</v>
       </c>
     </row>
     <row r="680">
@@ -5874,7 +5874,7 @@
         <v>10679</v>
       </c>
       <c r="B680" t="n">
-        <v>0.1897670930691604</v>
+        <v>15.18976709306916</v>
       </c>
     </row>
     <row r="681">
@@ -5882,7 +5882,7 @@
         <v>10680</v>
       </c>
       <c r="B681" t="n">
-        <v>0.1343867921220175</v>
+        <v>15.13438679212202</v>
       </c>
     </row>
     <row r="682">
@@ -5890,7 +5890,7 @@
         <v>10681</v>
       </c>
       <c r="B682" t="n">
-        <v>0.1696769791738729</v>
+        <v>15.16967697917387</v>
       </c>
     </row>
     <row r="683">
@@ -5898,7 +5898,7 @@
         <v>10682</v>
       </c>
       <c r="B683" t="n">
-        <v>0.1152689593861922</v>
+        <v>15.11526895938619</v>
       </c>
     </row>
     <row r="684">
@@ -5906,7 +5906,7 @@
         <v>10683</v>
       </c>
       <c r="B684" t="n">
-        <v>0.2131549570258502</v>
+        <v>15.21315495702585</v>
       </c>
     </row>
     <row r="685">
@@ -5914,7 +5914,7 @@
         <v>10684</v>
       </c>
       <c r="B685" t="n">
-        <v>0.1113109966999982</v>
+        <v>15.1113109967</v>
       </c>
     </row>
     <row r="686">
@@ -5922,7 +5922,7 @@
         <v>10685</v>
       </c>
       <c r="B686" t="n">
-        <v>0.1692284792327222</v>
+        <v>15.16922847923272</v>
       </c>
     </row>
     <row r="687">
@@ -5930,7 +5930,7 @@
         <v>10686</v>
       </c>
       <c r="B687" t="n">
-        <v>0.1652835545694111</v>
+        <v>15.16528355456941</v>
       </c>
     </row>
     <row r="688">
@@ -5938,7 +5938,7 @@
         <v>10687</v>
       </c>
       <c r="B688" t="n">
-        <v>0.1607672632784016</v>
+        <v>15.1607672632784</v>
       </c>
     </row>
     <row r="689">
@@ -5946,7 +5946,7 @@
         <v>10688</v>
       </c>
       <c r="B689" t="n">
-        <v>0.1659327434077601</v>
+        <v>15.16593274340776</v>
       </c>
     </row>
     <row r="690">
@@ -5954,7 +5954,7 @@
         <v>10689</v>
       </c>
       <c r="B690" t="n">
-        <v>0.1994284398128687</v>
+        <v>15.19942843981287</v>
       </c>
     </row>
     <row r="691">
@@ -5962,7 +5962,7 @@
         <v>10690</v>
       </c>
       <c r="B691" t="n">
-        <v>0.197312109501341</v>
+        <v>15.19731210950134</v>
       </c>
     </row>
     <row r="692">
@@ -5970,7 +5970,7 @@
         <v>10691</v>
       </c>
       <c r="B692" t="n">
-        <v>0.1886452777375096</v>
+        <v>15.18864527773751</v>
       </c>
     </row>
     <row r="693">
@@ -5978,7 +5978,7 @@
         <v>10692</v>
       </c>
       <c r="B693" t="n">
-        <v>0.1965510965419618</v>
+        <v>15.19655109654196</v>
       </c>
     </row>
     <row r="694">
@@ -5986,7 +5986,7 @@
         <v>10693</v>
       </c>
       <c r="B694" t="n">
-        <v>0.1324052133603176</v>
+        <v>15.13240521336032</v>
       </c>
     </row>
     <row r="695">
@@ -5994,7 +5994,7 @@
         <v>10694</v>
       </c>
       <c r="B695" t="n">
-        <v>0.1773372263585314</v>
+        <v>15.17733722635853</v>
       </c>
     </row>
     <row r="696">
@@ -6002,7 +6002,7 @@
         <v>10695</v>
       </c>
       <c r="B696" t="n">
-        <v>0.2070812397341573</v>
+        <v>15.20708123973416</v>
       </c>
     </row>
     <row r="697">
@@ -6010,7 +6010,7 @@
         <v>10696</v>
       </c>
       <c r="B697" t="n">
-        <v>0.1981428313248449</v>
+        <v>15.19814283132484</v>
       </c>
     </row>
     <row r="698">
@@ -6018,7 +6018,7 @@
         <v>10697</v>
       </c>
       <c r="B698" t="n">
-        <v>0.1553835741041726</v>
+        <v>15.15538357410417</v>
       </c>
     </row>
     <row r="699">
@@ -6026,7 +6026,7 @@
         <v>10698</v>
       </c>
       <c r="B699" t="n">
-        <v>0.1885126437357792</v>
+        <v>15.18851264373578</v>
       </c>
     </row>
     <row r="700">
@@ -6034,7 +6034,7 @@
         <v>10699</v>
       </c>
       <c r="B700" t="n">
-        <v>0.2084675912941157</v>
+        <v>15.20846759129412</v>
       </c>
     </row>
     <row r="701">
@@ -6042,7 +6042,7 @@
         <v>10700</v>
       </c>
       <c r="B701" t="n">
-        <v>0.1861184593922836</v>
+        <v>15.18611845939228</v>
       </c>
     </row>
     <row r="702">
@@ -6050,7 +6050,7 @@
         <v>10701</v>
       </c>
       <c r="B702" t="n">
-        <v>0.2096478803894641</v>
+        <v>15.20964788038946</v>
       </c>
     </row>
     <row r="703">
@@ -6058,7 +6058,7 @@
         <v>10702</v>
       </c>
       <c r="B703" t="n">
-        <v>0.2017372711354035</v>
+        <v>15.2017372711354</v>
       </c>
     </row>
     <row r="704">
@@ -6066,7 +6066,7 @@
         <v>10703</v>
       </c>
       <c r="B704" t="n">
-        <v>0.1764960852954991</v>
+        <v>15.1764960852955</v>
       </c>
     </row>
     <row r="705">
@@ -6074,7 +6074,7 @@
         <v>10704</v>
       </c>
       <c r="B705" t="n">
-        <v>0.151129465107609</v>
+        <v>15.15112946510761</v>
       </c>
     </row>
     <row r="706">
@@ -6082,7 +6082,7 @@
         <v>10705</v>
       </c>
       <c r="B706" t="n">
-        <v>0.2173742188827111</v>
+        <v>15.21737421888271</v>
       </c>
     </row>
     <row r="707">
@@ -6090,7 +6090,7 @@
         <v>10706</v>
       </c>
       <c r="B707" t="n">
-        <v>0.200493686453714</v>
+        <v>15.20049368645371</v>
       </c>
     </row>
     <row r="708">
@@ -6098,7 +6098,7 @@
         <v>10707</v>
       </c>
       <c r="B708" t="n">
-        <v>0.1441903927974754</v>
+        <v>15.14419039279747</v>
       </c>
     </row>
     <row r="709">
@@ -6106,7 +6106,7 @@
         <v>10708</v>
       </c>
       <c r="B709" t="n">
-        <v>0.2188995954758733</v>
+        <v>15.21889959547587</v>
       </c>
     </row>
     <row r="710">
@@ -6114,7 +6114,7 @@
         <v>10709</v>
       </c>
       <c r="B710" t="n">
-        <v>0.09101332394903056</v>
+        <v>15.09101332394903</v>
       </c>
     </row>
     <row r="711">
@@ -6122,7 +6122,7 @@
         <v>10710</v>
       </c>
       <c r="B711" t="n">
-        <v>0.1169290665463875</v>
+        <v>15.11692906654639</v>
       </c>
     </row>
     <row r="712">
@@ -6130,7 +6130,7 @@
         <v>10711</v>
       </c>
       <c r="B712" t="n">
-        <v>0.1981126409277447</v>
+        <v>15.19811264092774</v>
       </c>
     </row>
     <row r="713">
@@ -6138,7 +6138,7 @@
         <v>10712</v>
       </c>
       <c r="B713" t="n">
-        <v>0.1062704783761618</v>
+        <v>15.10627047837616</v>
       </c>
     </row>
     <row r="714">
@@ -6146,7 +6146,7 @@
         <v>10713</v>
       </c>
       <c r="B714" t="n">
-        <v>0.1486531702885288</v>
+        <v>15.14865317028853</v>
       </c>
     </row>
     <row r="715">
@@ -6154,7 +6154,7 @@
         <v>10714</v>
       </c>
       <c r="B715" t="n">
-        <v>0.09657652470230252</v>
+        <v>15.0965765247023</v>
       </c>
     </row>
     <row r="716">
@@ -6162,7 +6162,7 @@
         <v>10715</v>
       </c>
       <c r="B716" t="n">
-        <v>0.1322159288731861</v>
+        <v>15.13221592887319</v>
       </c>
     </row>
     <row r="717">
@@ -6170,7 +6170,7 @@
         <v>10716</v>
       </c>
       <c r="B717" t="n">
-        <v>0.2051683963761587</v>
+        <v>15.20516839637616</v>
       </c>
     </row>
     <row r="718">
@@ -6178,7 +6178,7 @@
         <v>10717</v>
       </c>
       <c r="B718" t="n">
-        <v>0.2121317224874432</v>
+        <v>15.21213172248744</v>
       </c>
     </row>
     <row r="719">
@@ -6186,7 +6186,7 @@
         <v>10718</v>
       </c>
       <c r="B719" t="n">
-        <v>0.1829205389749542</v>
+        <v>15.18292053897495</v>
       </c>
     </row>
     <row r="720">
@@ -6194,7 +6194,7 @@
         <v>10719</v>
       </c>
       <c r="B720" t="n">
-        <v>0.208414026582242</v>
+        <v>15.20841402658224</v>
       </c>
     </row>
     <row r="721">
@@ -6202,7 +6202,7 @@
         <v>10720</v>
       </c>
       <c r="B721" t="n">
-        <v>0.1818971419026383</v>
+        <v>15.18189714190264</v>
       </c>
     </row>
     <row r="722">
@@ -6210,7 +6210,7 @@
         <v>10721</v>
       </c>
       <c r="B722" t="n">
-        <v>0.1535546531714796</v>
+        <v>15.15355465317148</v>
       </c>
     </row>
     <row r="723">
@@ -6218,7 +6218,7 @@
         <v>10722</v>
       </c>
       <c r="B723" t="n">
-        <v>0.1107068762848648</v>
+        <v>15.11070687628487</v>
       </c>
     </row>
     <row r="724">
@@ -6226,7 +6226,7 @@
         <v>10723</v>
       </c>
       <c r="B724" t="n">
-        <v>0.1546662122767906</v>
+        <v>15.15466621227679</v>
       </c>
     </row>
     <row r="725">
@@ -6234,7 +6234,7 @@
         <v>10724</v>
       </c>
       <c r="B725" t="n">
-        <v>0.205753289769874</v>
+        <v>15.20575328976987</v>
       </c>
     </row>
     <row r="726">
@@ -6242,7 +6242,7 @@
         <v>10725</v>
       </c>
       <c r="B726" t="n">
-        <v>0.1627480451803741</v>
+        <v>15.16274804518037</v>
       </c>
     </row>
     <row r="727">
@@ -6250,7 +6250,7 @@
         <v>10726</v>
       </c>
       <c r="B727" t="n">
-        <v>0.1154658552581936</v>
+        <v>15.11546585525819</v>
       </c>
     </row>
     <row r="728">
@@ -6258,7 +6258,7 @@
         <v>10727</v>
       </c>
       <c r="B728" t="n">
-        <v>0.14815090139352</v>
+        <v>15.14815090139352</v>
       </c>
     </row>
     <row r="729">
@@ -6266,7 +6266,7 @@
         <v>10728</v>
       </c>
       <c r="B729" t="n">
-        <v>0.1823646457073736</v>
+        <v>15.18236464570737</v>
       </c>
     </row>
     <row r="730">
@@ -6274,7 +6274,7 @@
         <v>10729</v>
       </c>
       <c r="B730" t="n">
-        <v>0.1683777247283216</v>
+        <v>15.16837772472832</v>
       </c>
     </row>
     <row r="731">
@@ -6282,7 +6282,7 @@
         <v>10730</v>
       </c>
       <c r="B731" t="n">
-        <v>0.1972623438869743</v>
+        <v>15.19726234388697</v>
       </c>
     </row>
     <row r="732">
@@ -6290,7 +6290,7 @@
         <v>10731</v>
       </c>
       <c r="B732" t="n">
-        <v>0.1035432512430264</v>
+        <v>15.10354325124303</v>
       </c>
     </row>
     <row r="733">
@@ -6298,7 +6298,7 @@
         <v>10732</v>
       </c>
       <c r="B733" t="n">
-        <v>0.1620684939856604</v>
+        <v>15.16206849398566</v>
       </c>
     </row>
     <row r="734">
@@ -6306,7 +6306,7 @@
         <v>10733</v>
       </c>
       <c r="B734" t="n">
-        <v>0.2007201809717735</v>
+        <v>15.20072018097177</v>
       </c>
     </row>
     <row r="735">
@@ -6314,7 +6314,7 @@
         <v>10734</v>
       </c>
       <c r="B735" t="n">
-        <v>0.2056628751878427</v>
+        <v>15.20566287518784</v>
       </c>
     </row>
     <row r="736">
@@ -6322,7 +6322,7 @@
         <v>10735</v>
       </c>
       <c r="B736" t="n">
-        <v>0.2096201747973726</v>
+        <v>15.20962017479737</v>
       </c>
     </row>
     <row r="737">
@@ -6330,7 +6330,7 @@
         <v>10736</v>
       </c>
       <c r="B737" t="n">
-        <v>0.1816010755920036</v>
+        <v>15.181601075592</v>
       </c>
     </row>
     <row r="738">
@@ -6338,7 +6338,7 @@
         <v>10737</v>
       </c>
       <c r="B738" t="n">
-        <v>0.2216288400411296</v>
+        <v>15.22162884004113</v>
       </c>
     </row>
     <row r="739">
@@ -6346,7 +6346,7 @@
         <v>10738</v>
       </c>
       <c r="B739" t="n">
-        <v>0.176802395824008</v>
+        <v>15.17680239582401</v>
       </c>
     </row>
     <row r="740">
@@ -6354,7 +6354,7 @@
         <v>10739</v>
       </c>
       <c r="B740" t="n">
-        <v>0.1995117618877496</v>
+        <v>15.19951176188775</v>
       </c>
     </row>
     <row r="741">
@@ -6362,7 +6362,7 @@
         <v>10740</v>
       </c>
       <c r="B741" t="n">
-        <v>0.1178332838677686</v>
+        <v>15.11783328386777</v>
       </c>
     </row>
     <row r="742">
@@ -6370,7 +6370,7 @@
         <v>10741</v>
       </c>
       <c r="B742" t="n">
-        <v>0.1247624325332872</v>
+        <v>15.12476243253329</v>
       </c>
     </row>
     <row r="743">
@@ -6378,7 +6378,7 @@
         <v>10742</v>
       </c>
       <c r="B743" t="n">
-        <v>0.2147632602943774</v>
+        <v>15.21476326029438</v>
       </c>
     </row>
     <row r="744">
@@ -6386,7 +6386,7 @@
         <v>10743</v>
       </c>
       <c r="B744" t="n">
-        <v>0.1437946316795616</v>
+        <v>15.14379463167956</v>
       </c>
     </row>
     <row r="745">
@@ -6394,7 +6394,7 @@
         <v>10744</v>
       </c>
       <c r="B745" t="n">
-        <v>0.183364625166114</v>
+        <v>15.18336462516611</v>
       </c>
     </row>
     <row r="746">
@@ -6402,7 +6402,7 @@
         <v>10745</v>
       </c>
       <c r="B746" t="n">
-        <v>0.1052567975280266</v>
+        <v>15.10525679752803</v>
       </c>
     </row>
     <row r="747">
@@ -6410,7 +6410,7 @@
         <v>10746</v>
       </c>
       <c r="B747" t="n">
-        <v>0.1885008413182946</v>
+        <v>15.18850084131829</v>
       </c>
     </row>
     <row r="748">
@@ -6418,7 +6418,7 @@
         <v>10747</v>
       </c>
       <c r="B748" t="n">
-        <v>0.1971703180508444</v>
+        <v>15.19717031805084</v>
       </c>
     </row>
     <row r="749">
@@ -6426,7 +6426,7 @@
         <v>10748</v>
       </c>
       <c r="B749" t="n">
-        <v>0.167027914077705</v>
+        <v>15.16702791407771</v>
       </c>
     </row>
     <row r="750">
@@ -6434,7 +6434,7 @@
         <v>10749</v>
       </c>
       <c r="B750" t="n">
-        <v>0.2217853834504105</v>
+        <v>15.22178538345041</v>
       </c>
     </row>
     <row r="751">
@@ -6442,7 +6442,7 @@
         <v>10750</v>
       </c>
       <c r="B751" t="n">
-        <v>0.08693265077616946</v>
+        <v>15.08693265077617</v>
       </c>
     </row>
     <row r="752">
@@ -6450,7 +6450,7 @@
         <v>10751</v>
       </c>
       <c r="B752" t="n">
-        <v>0.1777681672832359</v>
+        <v>15.17776816728324</v>
       </c>
     </row>
     <row r="753">
@@ -6458,7 +6458,7 @@
         <v>10752</v>
       </c>
       <c r="B753" t="n">
-        <v>0.1163262513348017</v>
+        <v>15.1163262513348</v>
       </c>
     </row>
     <row r="754">
@@ -6466,7 +6466,7 @@
         <v>10753</v>
       </c>
       <c r="B754" t="n">
-        <v>0.2107553529602923</v>
+        <v>15.21075535296029</v>
       </c>
     </row>
     <row r="755">
@@ -6474,7 +6474,7 @@
         <v>10754</v>
       </c>
       <c r="B755" t="n">
-        <v>0.1757643191630336</v>
+        <v>15.17576431916303</v>
       </c>
     </row>
     <row r="756">
@@ -6482,7 +6482,7 @@
         <v>10755</v>
       </c>
       <c r="B756" t="n">
-        <v>0.1169287283014477</v>
+        <v>15.11692872830145</v>
       </c>
     </row>
     <row r="757">
@@ -6490,7 +6490,7 @@
         <v>10756</v>
       </c>
       <c r="B757" t="n">
-        <v>0.2029266021656975</v>
+        <v>15.2029266021657</v>
       </c>
     </row>
     <row r="758">
@@ -6498,7 +6498,7 @@
         <v>10757</v>
       </c>
       <c r="B758" t="n">
-        <v>0.1592049170003844</v>
+        <v>15.15920491700038</v>
       </c>
     </row>
     <row r="759">
@@ -6506,7 +6506,7 @@
         <v>10758</v>
       </c>
       <c r="B759" t="n">
-        <v>0.2155554012830598</v>
+        <v>15.21555540128306</v>
       </c>
     </row>
     <row r="760">
@@ -6514,7 +6514,7 @@
         <v>10759</v>
       </c>
       <c r="B760" t="n">
-        <v>0.09931297235480116</v>
+        <v>15.0993129723548</v>
       </c>
     </row>
     <row r="761">
@@ -6522,7 +6522,7 @@
         <v>10760</v>
       </c>
       <c r="B761" t="n">
-        <v>0.09204399230798499</v>
+        <v>15.09204399230799</v>
       </c>
     </row>
     <row r="762">
@@ -6530,7 +6530,7 @@
         <v>10761</v>
       </c>
       <c r="B762" t="n">
-        <v>0.1460486238914863</v>
+        <v>15.14604862389149</v>
       </c>
     </row>
     <row r="763">
@@ -6538,7 +6538,7 @@
         <v>10762</v>
       </c>
       <c r="B763" t="n">
-        <v>0.2080460822159772</v>
+        <v>15.20804608221598</v>
       </c>
     </row>
     <row r="764">
@@ -6546,7 +6546,7 @@
         <v>10763</v>
       </c>
       <c r="B764" t="n">
-        <v>0.1916525743634458</v>
+        <v>15.19165257436345</v>
       </c>
     </row>
     <row r="765">
@@ -6554,7 +6554,7 @@
         <v>10764</v>
       </c>
       <c r="B765" t="n">
-        <v>0.1359278772591055</v>
+        <v>15.13592787725911</v>
       </c>
     </row>
     <row r="766">
@@ -6562,7 +6562,7 @@
         <v>10765</v>
       </c>
       <c r="B766" t="n">
-        <v>0.1355789264481794</v>
+        <v>15.13557892644818</v>
       </c>
     </row>
     <row r="767">
@@ -6570,7 +6570,7 @@
         <v>10766</v>
       </c>
       <c r="B767" t="n">
-        <v>0.1894700219549675</v>
+        <v>15.18947002195497</v>
       </c>
     </row>
     <row r="768">
@@ -6578,7 +6578,7 @@
         <v>10767</v>
       </c>
       <c r="B768" t="n">
-        <v>0.2242941945436947</v>
+        <v>15.2242941945437</v>
       </c>
     </row>
     <row r="769">
@@ -6586,7 +6586,7 @@
         <v>10768</v>
       </c>
       <c r="B769" t="n">
-        <v>0.1829070722917974</v>
+        <v>15.1829070722918</v>
       </c>
     </row>
     <row r="770">
@@ -6594,7 +6594,7 @@
         <v>10769</v>
       </c>
       <c r="B770" t="n">
-        <v>0.0555904932971517</v>
+        <v>15.05559049329715</v>
       </c>
     </row>
     <row r="771">
@@ -6602,7 +6602,7 @@
         <v>10770</v>
       </c>
       <c r="B771" t="n">
-        <v>0.1483614509794364</v>
+        <v>15.14836145097944</v>
       </c>
     </row>
     <row r="772">
@@ -6610,7 +6610,7 @@
         <v>10771</v>
       </c>
       <c r="B772" t="n">
-        <v>0.09002699393527568</v>
+        <v>15.09002699393528</v>
       </c>
     </row>
     <row r="773">
@@ -6618,7 +6618,7 @@
         <v>10772</v>
       </c>
       <c r="B773" t="n">
-        <v>0.1315842801474469</v>
+        <v>15.13158428014745</v>
       </c>
     </row>
     <row r="774">
@@ -6626,7 +6626,7 @@
         <v>10773</v>
       </c>
       <c r="B774" t="n">
-        <v>0.1222945356148886</v>
+        <v>15.12229453561489</v>
       </c>
     </row>
     <row r="775">
@@ -6634,7 +6634,7 @@
         <v>10774</v>
       </c>
       <c r="B775" t="n">
-        <v>0.1442227160757162</v>
+        <v>15.14422271607572</v>
       </c>
     </row>
     <row r="776">
@@ -6642,7 +6642,7 @@
         <v>10775</v>
       </c>
       <c r="B776" t="n">
-        <v>0.1999530819509761</v>
+        <v>15.19995308195098</v>
       </c>
     </row>
     <row r="777">
@@ -6650,7 +6650,7 @@
         <v>10776</v>
       </c>
       <c r="B777" t="n">
-        <v>0.1712405183941896</v>
+        <v>15.17124051839419</v>
       </c>
     </row>
     <row r="778">
@@ -6658,7 +6658,7 @@
         <v>10777</v>
       </c>
       <c r="B778" t="n">
-        <v>0.1503081922177754</v>
+        <v>15.15030819221777</v>
       </c>
     </row>
     <row r="779">
@@ -6666,7 +6666,7 @@
         <v>10778</v>
       </c>
       <c r="B779" t="n">
-        <v>0.1933351748043653</v>
+        <v>15.19333517480437</v>
       </c>
     </row>
     <row r="780">
@@ -6674,7 +6674,7 @@
         <v>10779</v>
       </c>
       <c r="B780" t="n">
-        <v>0.2097168951129706</v>
+        <v>15.20971689511297</v>
       </c>
     </row>
     <row r="781">
@@ -6682,7 +6682,7 @@
         <v>10780</v>
       </c>
       <c r="B781" t="n">
-        <v>0.1574565635479975</v>
+        <v>15.157456563548</v>
       </c>
     </row>
     <row r="782">
@@ -6690,7 +6690,7 @@
         <v>10781</v>
       </c>
       <c r="B782" t="n">
-        <v>0.1645241086467527</v>
+        <v>15.16452410864675</v>
       </c>
     </row>
     <row r="783">
@@ -6698,7 +6698,7 @@
         <v>10782</v>
       </c>
       <c r="B783" t="n">
-        <v>0.2022256960005396</v>
+        <v>15.20222569600054</v>
       </c>
     </row>
     <row r="784">
@@ -6706,7 +6706,7 @@
         <v>10783</v>
       </c>
       <c r="B784" t="n">
-        <v>0.1819699384906105</v>
+        <v>15.18196993849061</v>
       </c>
     </row>
     <row r="785">
@@ -6714,7 +6714,7 @@
         <v>10784</v>
       </c>
       <c r="B785" t="n">
-        <v>0.1696322074388791</v>
+        <v>15.16963220743888</v>
       </c>
     </row>
     <row r="786">
@@ -6722,7 +6722,7 @@
         <v>10785</v>
       </c>
       <c r="B786" t="n">
-        <v>0.1546303896899687</v>
+        <v>15.15463038968997</v>
       </c>
     </row>
     <row r="787">
@@ -6730,7 +6730,7 @@
         <v>10786</v>
       </c>
       <c r="B787" t="n">
-        <v>0.1975682096248302</v>
+        <v>15.19756820962483</v>
       </c>
     </row>
     <row r="788">
@@ -6738,7 +6738,7 @@
         <v>10787</v>
       </c>
       <c r="B788" t="n">
-        <v>0.1553184478843938</v>
+        <v>15.15531844788439</v>
       </c>
     </row>
     <row r="789">
@@ -6746,7 +6746,7 @@
         <v>10788</v>
       </c>
       <c r="B789" t="n">
-        <v>0.184422104975505</v>
+        <v>15.18442210497551</v>
       </c>
     </row>
     <row r="790">
@@ -6754,7 +6754,7 @@
         <v>10789</v>
       </c>
       <c r="B790" t="n">
-        <v>0.2073302918593844</v>
+        <v>15.20733029185938</v>
       </c>
     </row>
     <row r="791">
@@ -6762,7 +6762,7 @@
         <v>10790</v>
       </c>
       <c r="B791" t="n">
-        <v>0.1191056230086854</v>
+        <v>15.11910562300869</v>
       </c>
     </row>
     <row r="792">
@@ -6770,7 +6770,7 @@
         <v>10791</v>
       </c>
       <c r="B792" t="n">
-        <v>0.1675980140933314</v>
+        <v>15.16759801409333</v>
       </c>
     </row>
     <row r="793">
@@ -6778,7 +6778,7 @@
         <v>10792</v>
       </c>
       <c r="B793" t="n">
-        <v>0.2272328296515801</v>
+        <v>15.22723282965158</v>
       </c>
     </row>
     <row r="794">
@@ -6786,7 +6786,7 @@
         <v>10793</v>
       </c>
       <c r="B794" t="n">
-        <v>0.1779381095455004</v>
+        <v>15.1779381095455</v>
       </c>
     </row>
     <row r="795">
@@ -6794,7 +6794,7 @@
         <v>10794</v>
       </c>
       <c r="B795" t="n">
-        <v>0.1643767302168953</v>
+        <v>15.1643767302169</v>
       </c>
     </row>
     <row r="796">
@@ -6802,7 +6802,7 @@
         <v>10795</v>
       </c>
       <c r="B796" t="n">
-        <v>0.1923406535738609</v>
+        <v>15.19234065357386</v>
       </c>
     </row>
     <row r="797">
@@ -6810,7 +6810,7 @@
         <v>10796</v>
       </c>
       <c r="B797" t="n">
-        <v>0.1381877183027284</v>
+        <v>15.13818771830273</v>
       </c>
     </row>
     <row r="798">
@@ -6818,7 +6818,7 @@
         <v>10797</v>
       </c>
       <c r="B798" t="n">
-        <v>0.2090990005559528</v>
+        <v>15.20909900055595</v>
       </c>
     </row>
     <row r="799">
@@ -6826,7 +6826,7 @@
         <v>10798</v>
       </c>
       <c r="B799" t="n">
-        <v>0.2174536355881914</v>
+        <v>15.21745363558819</v>
       </c>
     </row>
     <row r="800">
@@ -6834,7 +6834,7 @@
         <v>10799</v>
       </c>
       <c r="B800" t="n">
-        <v>0.1600137483369117</v>
+        <v>15.16001374833691</v>
       </c>
     </row>
     <row r="801">
@@ -6842,7 +6842,7 @@
         <v>10800</v>
       </c>
       <c r="B801" t="n">
-        <v>0.1505886920042895</v>
+        <v>15.15058869200429</v>
       </c>
     </row>
     <row r="802">
@@ -6850,7 +6850,7 @@
         <v>10801</v>
       </c>
       <c r="B802" t="n">
-        <v>0.1471806089716289</v>
+        <v>15.14718060897163</v>
       </c>
     </row>
     <row r="803">
@@ -6858,7 +6858,7 @@
         <v>10802</v>
       </c>
       <c r="B803" t="n">
-        <v>0.09419932356726093</v>
+        <v>15.09419932356726</v>
       </c>
     </row>
     <row r="804">
@@ -6866,7 +6866,7 @@
         <v>10803</v>
       </c>
       <c r="B804" t="n">
-        <v>0.1491983162549913</v>
+        <v>15.14919831625499</v>
       </c>
     </row>
     <row r="805">
@@ -6874,7 +6874,7 @@
         <v>10804</v>
       </c>
       <c r="B805" t="n">
-        <v>0.135574206025482</v>
+        <v>15.13557420602548</v>
       </c>
     </row>
     <row r="806">
@@ -6882,7 +6882,7 @@
         <v>10805</v>
       </c>
       <c r="B806" t="n">
-        <v>0.2154362694269815</v>
+        <v>15.21543626942698</v>
       </c>
     </row>
     <row r="807">
@@ -6890,7 +6890,7 @@
         <v>10806</v>
       </c>
       <c r="B807" t="n">
-        <v>0.1675664192596011</v>
+        <v>15.1675664192596</v>
       </c>
     </row>
     <row r="808">
@@ -6898,7 +6898,7 @@
         <v>10807</v>
       </c>
       <c r="B808" t="n">
-        <v>0.1569275605987943</v>
+        <v>15.15692756059879</v>
       </c>
     </row>
     <row r="809">
@@ -6906,7 +6906,7 @@
         <v>10808</v>
       </c>
       <c r="B809" t="n">
-        <v>0.1601265199235544</v>
+        <v>15.16012651992355</v>
       </c>
     </row>
     <row r="810">
@@ -6914,7 +6914,7 @@
         <v>10809</v>
       </c>
       <c r="B810" t="n">
-        <v>0.1958182755921028</v>
+        <v>15.1958182755921</v>
       </c>
     </row>
     <row r="811">
@@ -6922,7 +6922,7 @@
         <v>10810</v>
       </c>
       <c r="B811" t="n">
-        <v>0.2035212625675193</v>
+        <v>15.20352126256752</v>
       </c>
     </row>
     <row r="812">
@@ -6930,7 +6930,7 @@
         <v>10811</v>
       </c>
       <c r="B812" t="n">
-        <v>0.09077366617666781</v>
+        <v>15.09077366617667</v>
       </c>
     </row>
     <row r="813">
@@ -6938,7 +6938,7 @@
         <v>10812</v>
       </c>
       <c r="B813" t="n">
-        <v>0.1952859092701811</v>
+        <v>15.19528590927018</v>
       </c>
     </row>
     <row r="814">
@@ -6946,7 +6946,7 @@
         <v>10813</v>
       </c>
       <c r="B814" t="n">
-        <v>0.1828825969997909</v>
+        <v>15.18288259699979</v>
       </c>
     </row>
     <row r="815">
@@ -6954,7 +6954,7 @@
         <v>10814</v>
       </c>
       <c r="B815" t="n">
-        <v>0.1997419065972311</v>
+        <v>15.19974190659723</v>
       </c>
     </row>
     <row r="816">
@@ -6962,7 +6962,7 @@
         <v>10815</v>
       </c>
       <c r="B816" t="n">
-        <v>0.1468946659730224</v>
+        <v>15.14689466597302</v>
       </c>
     </row>
     <row r="817">
@@ -6970,7 +6970,7 @@
         <v>10816</v>
       </c>
       <c r="B817" t="n">
-        <v>0.2044671158040186</v>
+        <v>15.20446711580402</v>
       </c>
     </row>
     <row r="818">
@@ -6978,7 +6978,7 @@
         <v>10817</v>
       </c>
       <c r="B818" t="n">
-        <v>0.1548447890992511</v>
+        <v>15.15484478909925</v>
       </c>
     </row>
     <row r="819">
@@ -6986,7 +6986,7 @@
         <v>10818</v>
       </c>
       <c r="B819" t="n">
-        <v>0.09493593365746672</v>
+        <v>15.09493593365747</v>
       </c>
     </row>
     <row r="820">
@@ -6994,7 +6994,7 @@
         <v>10819</v>
       </c>
       <c r="B820" t="n">
-        <v>0.190528650615674</v>
+        <v>15.19052865061567</v>
       </c>
     </row>
     <row r="821">
@@ -7002,7 +7002,7 @@
         <v>10820</v>
       </c>
       <c r="B821" t="n">
-        <v>0.1691408877279507</v>
+        <v>15.16914088772795</v>
       </c>
     </row>
     <row r="822">
@@ -7010,7 +7010,7 @@
         <v>10821</v>
       </c>
       <c r="B822" t="n">
-        <v>0.1395475142791144</v>
+        <v>15.13954751427911</v>
       </c>
     </row>
     <row r="823">
@@ -7018,7 +7018,7 @@
         <v>10822</v>
       </c>
       <c r="B823" t="n">
-        <v>0.1727567663245052</v>
+        <v>15.17275676632451</v>
       </c>
     </row>
     <row r="824">
@@ -7026,7 +7026,7 @@
         <v>10823</v>
       </c>
       <c r="B824" t="n">
-        <v>0.1246946557682116</v>
+        <v>15.12469465576821</v>
       </c>
     </row>
     <row r="825">
@@ -7034,7 +7034,7 @@
         <v>10824</v>
       </c>
       <c r="B825" t="n">
-        <v>0.1267265236379992</v>
+        <v>15.126726523638</v>
       </c>
     </row>
     <row r="826">
@@ -7042,7 +7042,7 @@
         <v>10825</v>
       </c>
       <c r="B826" t="n">
-        <v>0.1966234345612279</v>
+        <v>15.19662343456123</v>
       </c>
     </row>
     <row r="827">
@@ -7050,7 +7050,7 @@
         <v>10826</v>
       </c>
       <c r="B827" t="n">
-        <v>0.1316212864181532</v>
+        <v>15.13162128641815</v>
       </c>
     </row>
     <row r="828">
@@ -7058,7 +7058,7 @@
         <v>10827</v>
       </c>
       <c r="B828" t="n">
-        <v>0.1404329123610666</v>
+        <v>15.14043291236107</v>
       </c>
     </row>
     <row r="829">
@@ -7066,7 +7066,7 @@
         <v>10828</v>
       </c>
       <c r="B829" t="n">
-        <v>0.1798368283170663</v>
+        <v>15.17983682831707</v>
       </c>
     </row>
     <row r="830">
@@ -7074,7 +7074,7 @@
         <v>10829</v>
       </c>
       <c r="B830" t="n">
-        <v>0.1640705633788808</v>
+        <v>15.16407056337888</v>
       </c>
     </row>
     <row r="831">
@@ -7082,7 +7082,7 @@
         <v>10830</v>
       </c>
       <c r="B831" t="n">
-        <v>0.1474586658964699</v>
+        <v>15.14745866589647</v>
       </c>
     </row>
     <row r="832">
@@ -7090,7 +7090,7 @@
         <v>10831</v>
       </c>
       <c r="B832" t="n">
-        <v>0.1641011843362661</v>
+        <v>15.16410118433627</v>
       </c>
     </row>
     <row r="833">
@@ -7098,7 +7098,7 @@
         <v>10832</v>
       </c>
       <c r="B833" t="n">
-        <v>0.1654951557746561</v>
+        <v>15.16549515577466</v>
       </c>
     </row>
     <row r="834">
@@ -7106,7 +7106,7 @@
         <v>10833</v>
       </c>
       <c r="B834" t="n">
-        <v>0.1458781345486925</v>
+        <v>15.14587813454869</v>
       </c>
     </row>
     <row r="835">
@@ -7114,7 +7114,7 @@
         <v>10834</v>
       </c>
       <c r="B835" t="n">
-        <v>0.2333840705028587</v>
+        <v>15.23338407050286</v>
       </c>
     </row>
     <row r="836">
@@ -7122,7 +7122,7 @@
         <v>10835</v>
       </c>
       <c r="B836" t="n">
-        <v>0.1208364046631757</v>
+        <v>15.12083640466318</v>
       </c>
     </row>
     <row r="837">
@@ -7130,7 +7130,7 @@
         <v>10836</v>
       </c>
       <c r="B837" t="n">
-        <v>0.2047630054358216</v>
+        <v>15.20476300543582</v>
       </c>
     </row>
     <row r="838">
@@ -7138,7 +7138,7 @@
         <v>10837</v>
       </c>
       <c r="B838" t="n">
-        <v>0.2301391493775808</v>
+        <v>15.23013914937758</v>
       </c>
     </row>
     <row r="839">
@@ -7146,7 +7146,7 @@
         <v>10838</v>
       </c>
       <c r="B839" t="n">
-        <v>0.08164145639081996</v>
+        <v>15.08164145639082</v>
       </c>
     </row>
     <row r="840">
@@ -7154,7 +7154,7 @@
         <v>10839</v>
       </c>
       <c r="B840" t="n">
-        <v>0.1847951153344413</v>
+        <v>15.18479511533444</v>
       </c>
     </row>
     <row r="841">
@@ -7162,7 +7162,7 @@
         <v>10840</v>
       </c>
       <c r="B841" t="n">
-        <v>0.1007732985061046</v>
+        <v>15.10077329850611</v>
       </c>
     </row>
     <row r="842">
@@ -7170,7 +7170,7 @@
         <v>10841</v>
       </c>
       <c r="B842" t="n">
-        <v>0.2257461635557787</v>
+        <v>15.22574616355578</v>
       </c>
     </row>
     <row r="843">
@@ -7178,7 +7178,7 @@
         <v>10842</v>
       </c>
       <c r="B843" t="n">
-        <v>0.2015597175335143</v>
+        <v>15.20155971753351</v>
       </c>
     </row>
     <row r="844">
@@ -7186,7 +7186,7 @@
         <v>10843</v>
       </c>
       <c r="B844" t="n">
-        <v>0.1935249025772935</v>
+        <v>15.19352490257729</v>
       </c>
     </row>
     <row r="845">
@@ -7194,7 +7194,7 @@
         <v>10844</v>
       </c>
       <c r="B845" t="n">
-        <v>0.2295076296262601</v>
+        <v>15.22950762962626</v>
       </c>
     </row>
     <row r="846">
@@ -7202,7 +7202,7 @@
         <v>10845</v>
       </c>
       <c r="B846" t="n">
-        <v>0.1689693988094444</v>
+        <v>15.16896939880944</v>
       </c>
     </row>
     <row r="847">
@@ -7210,7 +7210,7 @@
         <v>10846</v>
       </c>
       <c r="B847" t="n">
-        <v>0.09352312200033444</v>
+        <v>15.09352312200033</v>
       </c>
     </row>
     <row r="848">
@@ -7218,7 +7218,7 @@
         <v>10847</v>
       </c>
       <c r="B848" t="n">
-        <v>0.2051404287110894</v>
+        <v>15.20514042871109</v>
       </c>
     </row>
     <row r="849">
@@ -7226,7 +7226,7 @@
         <v>10848</v>
       </c>
       <c r="B849" t="n">
-        <v>0.08486331754355499</v>
+        <v>15.08486331754355</v>
       </c>
     </row>
     <row r="850">
@@ -7234,7 +7234,7 @@
         <v>10849</v>
       </c>
       <c r="B850" t="n">
-        <v>0.2036085568281649</v>
+        <v>15.20360855682816</v>
       </c>
     </row>
     <row r="851">
@@ -7242,7 +7242,7 @@
         <v>10850</v>
       </c>
       <c r="B851" t="n">
-        <v>0.1718999282966019</v>
+        <v>15.1718999282966</v>
       </c>
     </row>
     <row r="852">
@@ -7250,7 +7250,7 @@
         <v>10851</v>
       </c>
       <c r="B852" t="n">
-        <v>0.1379118295727768</v>
+        <v>15.13791182957278</v>
       </c>
     </row>
     <row r="853">
@@ -7258,7 +7258,7 @@
         <v>10852</v>
       </c>
       <c r="B853" t="n">
-        <v>0.1490879308126677</v>
+        <v>15.14908793081267</v>
       </c>
     </row>
     <row r="854">
@@ -7266,7 +7266,7 @@
         <v>10853</v>
       </c>
       <c r="B854" t="n">
-        <v>0.08264009437201224</v>
+        <v>15.08264009437201</v>
       </c>
     </row>
     <row r="855">
@@ -7274,7 +7274,7 @@
         <v>10854</v>
       </c>
       <c r="B855" t="n">
-        <v>0.1658493912675928</v>
+        <v>15.16584939126759</v>
       </c>
     </row>
     <row r="856">
@@ -7282,7 +7282,7 @@
         <v>10855</v>
       </c>
       <c r="B856" t="n">
-        <v>0.1946510836880966</v>
+        <v>15.1946510836881</v>
       </c>
     </row>
     <row r="857">
@@ -7290,7 +7290,7 @@
         <v>10856</v>
       </c>
       <c r="B857" t="n">
-        <v>0.1299398579994498</v>
+        <v>15.12993985799945</v>
       </c>
     </row>
     <row r="858">
@@ -7298,7 +7298,7 @@
         <v>10857</v>
       </c>
       <c r="B858" t="n">
-        <v>0.1439118465239947</v>
+        <v>15.143911846524</v>
       </c>
     </row>
     <row r="859">
@@ -7306,7 +7306,7 @@
         <v>10858</v>
       </c>
       <c r="B859" t="n">
-        <v>0.2105571611093977</v>
+        <v>15.2105571611094</v>
       </c>
     </row>
     <row r="860">
@@ -7314,7 +7314,7 @@
         <v>10859</v>
       </c>
       <c r="B860" t="n">
-        <v>0.1062760163963908</v>
+        <v>15.10627601639639</v>
       </c>
     </row>
     <row r="861">
@@ -7322,7 +7322,7 @@
         <v>10860</v>
       </c>
       <c r="B861" t="n">
-        <v>0.2166602118113353</v>
+        <v>15.21666021181134</v>
       </c>
     </row>
     <row r="862">
@@ -7330,7 +7330,7 @@
         <v>10861</v>
       </c>
       <c r="B862" t="n">
-        <v>0.2005909045362234</v>
+        <v>15.20059090453622</v>
       </c>
     </row>
     <row r="863">
@@ -7338,7 +7338,7 @@
         <v>10862</v>
       </c>
       <c r="B863" t="n">
-        <v>0.1425555232113639</v>
+        <v>15.14255552321136</v>
       </c>
     </row>
     <row r="864">
@@ -7346,7 +7346,7 @@
         <v>10863</v>
       </c>
       <c r="B864" t="n">
-        <v>0.1529459986068449</v>
+        <v>15.15294599860684</v>
       </c>
     </row>
     <row r="865">
@@ -7354,7 +7354,7 @@
         <v>10864</v>
       </c>
       <c r="B865" t="n">
-        <v>0.1145307320772194</v>
+        <v>15.11453073207722</v>
       </c>
     </row>
     <row r="866">
@@ -7362,7 +7362,7 @@
         <v>10865</v>
       </c>
       <c r="B866" t="n">
-        <v>0.1875954689721681</v>
+        <v>15.18759546897217</v>
       </c>
     </row>
     <row r="867">
@@ -7370,7 +7370,7 @@
         <v>10866</v>
       </c>
       <c r="B867" t="n">
-        <v>0.2146641930004299</v>
+        <v>15.21466419300043</v>
       </c>
     </row>
     <row r="868">
@@ -7378,7 +7378,7 @@
         <v>10867</v>
       </c>
       <c r="B868" t="n">
-        <v>0.1682198895994686</v>
+        <v>15.16821988959947</v>
       </c>
     </row>
     <row r="869">
@@ -7386,7 +7386,7 @@
         <v>10868</v>
       </c>
       <c r="B869" t="n">
-        <v>0.2153152209557425</v>
+        <v>15.21531522095574</v>
       </c>
     </row>
     <row r="870">
@@ -7394,7 +7394,7 @@
         <v>10869</v>
       </c>
       <c r="B870" t="n">
-        <v>0.2199725767220026</v>
+        <v>15.219972576722</v>
       </c>
     </row>
     <row r="871">
@@ -7402,7 +7402,7 @@
         <v>10870</v>
       </c>
       <c r="B871" t="n">
-        <v>0.1501004789313232</v>
+        <v>15.15010047893132</v>
       </c>
     </row>
     <row r="872">
@@ -7410,7 +7410,7 @@
         <v>10871</v>
       </c>
       <c r="B872" t="n">
-        <v>0.1057590073882071</v>
+        <v>15.10575900738821</v>
       </c>
     </row>
     <row r="873">
@@ -7418,7 +7418,7 @@
         <v>10872</v>
       </c>
       <c r="B873" t="n">
-        <v>0.09671487701569145</v>
+        <v>15.09671487701569</v>
       </c>
     </row>
     <row r="874">
@@ -7426,7 +7426,7 @@
         <v>10873</v>
       </c>
       <c r="B874" t="n">
-        <v>0.1815844297831727</v>
+        <v>15.18158442978317</v>
       </c>
     </row>
     <row r="875">
@@ -7434,7 +7434,7 @@
         <v>10874</v>
       </c>
       <c r="B875" t="n">
-        <v>0.1544700755555505</v>
+        <v>15.15447007555555</v>
       </c>
     </row>
     <row r="876">
@@ -7442,7 +7442,7 @@
         <v>10875</v>
       </c>
       <c r="B876" t="n">
-        <v>0.1366430807681142</v>
+        <v>15.13664308076811</v>
       </c>
     </row>
     <row r="877">
@@ -7450,7 +7450,7 @@
         <v>10876</v>
       </c>
       <c r="B877" t="n">
-        <v>0.2263790129313674</v>
+        <v>15.22637901293137</v>
       </c>
     </row>
     <row r="878">
@@ -7458,7 +7458,7 @@
         <v>10877</v>
       </c>
       <c r="B878" t="n">
-        <v>0.1668012599904284</v>
+        <v>15.16680125999043</v>
       </c>
     </row>
     <row r="879">
@@ -7466,7 +7466,7 @@
         <v>10878</v>
       </c>
       <c r="B879" t="n">
-        <v>0.1773730801718586</v>
+        <v>15.17737308017186</v>
       </c>
     </row>
     <row r="880">
@@ -7474,7 +7474,7 @@
         <v>10879</v>
       </c>
       <c r="B880" t="n">
-        <v>0.1463239180462382</v>
+        <v>15.14632391804624</v>
       </c>
     </row>
     <row r="881">
@@ -7482,7 +7482,7 @@
         <v>10880</v>
       </c>
       <c r="B881" t="n">
-        <v>0.1846390441809595</v>
+        <v>15.18463904418096</v>
       </c>
     </row>
     <row r="882">
@@ -7490,7 +7490,7 @@
         <v>10881</v>
       </c>
       <c r="B882" t="n">
-        <v>0.168810646326085</v>
+        <v>15.16881064632608</v>
       </c>
     </row>
     <row r="883">
@@ -7498,7 +7498,7 @@
         <v>10882</v>
       </c>
       <c r="B883" t="n">
-        <v>0.214789526921373</v>
+        <v>15.21478952692137</v>
       </c>
     </row>
     <row r="884">
@@ -7506,7 +7506,7 @@
         <v>10883</v>
       </c>
       <c r="B884" t="n">
-        <v>0.1803894469199737</v>
+        <v>15.18038944691997</v>
       </c>
     </row>
     <row r="885">
@@ -7514,7 +7514,7 @@
         <v>10884</v>
       </c>
       <c r="B885" t="n">
-        <v>0.1109786171626646</v>
+        <v>15.11097861716267</v>
       </c>
     </row>
     <row r="886">
@@ -7522,7 +7522,7 @@
         <v>10885</v>
       </c>
       <c r="B886" t="n">
-        <v>0.1862790879584888</v>
+        <v>15.18627908795849</v>
       </c>
     </row>
     <row r="887">
@@ -7530,7 +7530,7 @@
         <v>10886</v>
       </c>
       <c r="B887" t="n">
-        <v>0.1515296220178982</v>
+        <v>15.1515296220179</v>
       </c>
     </row>
     <row r="888">
@@ -7538,7 +7538,7 @@
         <v>10887</v>
       </c>
       <c r="B888" t="n">
-        <v>0.2056737119389465</v>
+        <v>15.20567371193895</v>
       </c>
     </row>
     <row r="889">
@@ -7546,7 +7546,7 @@
         <v>10888</v>
       </c>
       <c r="B889" t="n">
-        <v>0.1705689357049801</v>
+        <v>15.17056893570498</v>
       </c>
     </row>
     <row r="890">
@@ -7554,7 +7554,7 @@
         <v>10889</v>
       </c>
       <c r="B890" t="n">
-        <v>0.1172635067241446</v>
+        <v>15.11726350672414</v>
       </c>
     </row>
     <row r="891">
@@ -7562,7 +7562,7 @@
         <v>10890</v>
       </c>
       <c r="B891" t="n">
-        <v>0.08988964736788815</v>
+        <v>15.08988964736789</v>
       </c>
     </row>
     <row r="892">
@@ -7570,7 +7570,7 @@
         <v>10891</v>
       </c>
       <c r="B892" t="n">
-        <v>0.1999868585877362</v>
+        <v>15.19998685858774</v>
       </c>
     </row>
     <row r="893">
@@ -7578,7 +7578,7 @@
         <v>10892</v>
       </c>
       <c r="B893" t="n">
-        <v>0.1408054291395755</v>
+        <v>15.14080542913958</v>
       </c>
     </row>
     <row r="894">
@@ -7586,7 +7586,7 @@
         <v>10893</v>
       </c>
       <c r="B894" t="n">
-        <v>0.1997510262875258</v>
+        <v>15.19975102628753</v>
       </c>
     </row>
     <row r="895">
@@ -7594,7 +7594,7 @@
         <v>10894</v>
       </c>
       <c r="B895" t="n">
-        <v>0.1965816236438767</v>
+        <v>15.19658162364388</v>
       </c>
     </row>
     <row r="896">
@@ -7602,7 +7602,7 @@
         <v>10895</v>
       </c>
       <c r="B896" t="n">
-        <v>0.1253587251589535</v>
+        <v>15.12535872515895</v>
       </c>
     </row>
     <row r="897">
@@ -7610,7 +7610,7 @@
         <v>10896</v>
       </c>
       <c r="B897" t="n">
-        <v>0.1868025789917338</v>
+        <v>15.18680257899173</v>
       </c>
     </row>
     <row r="898">
@@ -7618,7 +7618,7 @@
         <v>10897</v>
       </c>
       <c r="B898" t="n">
-        <v>0.2002533130935155</v>
+        <v>15.20025331309352</v>
       </c>
     </row>
     <row r="899">
@@ -7626,7 +7626,7 @@
         <v>10898</v>
       </c>
       <c r="B899" t="n">
-        <v>0.1657147964313083</v>
+        <v>15.16571479643131</v>
       </c>
     </row>
     <row r="900">
@@ -7634,7 +7634,7 @@
         <v>10899</v>
       </c>
       <c r="B900" t="n">
-        <v>0.1279018550452137</v>
+        <v>15.12790185504521</v>
       </c>
     </row>
     <row r="901">
@@ -7642,7 +7642,7 @@
         <v>10900</v>
       </c>
       <c r="B901" t="n">
-        <v>0.2158489089565431</v>
+        <v>15.21584890895654</v>
       </c>
     </row>
     <row r="902">
@@ -7650,7 +7650,7 @@
         <v>10901</v>
       </c>
       <c r="B902" t="n">
-        <v>0.1199090864545941</v>
+        <v>15.11990908645459</v>
       </c>
     </row>
     <row r="903">
@@ -7658,7 +7658,7 @@
         <v>10902</v>
       </c>
       <c r="B903" t="n">
-        <v>0.1871418437466542</v>
+        <v>15.18714184374665</v>
       </c>
     </row>
     <row r="904">
@@ -7666,7 +7666,7 @@
         <v>10903</v>
       </c>
       <c r="B904" t="n">
-        <v>0.1502114573263393</v>
+        <v>15.15021145732634</v>
       </c>
     </row>
     <row r="905">
@@ -7674,7 +7674,7 @@
         <v>10904</v>
       </c>
       <c r="B905" t="n">
-        <v>0.1135927177039152</v>
+        <v>15.11359271770391</v>
       </c>
     </row>
     <row r="906">
@@ -7682,7 +7682,7 @@
         <v>10905</v>
       </c>
       <c r="B906" t="n">
-        <v>0.1208644149827795</v>
+        <v>15.12086441498278</v>
       </c>
     </row>
     <row r="907">
@@ -7690,7 +7690,7 @@
         <v>10906</v>
       </c>
       <c r="B907" t="n">
-        <v>0.1106745433683881</v>
+        <v>15.11067454336839</v>
       </c>
     </row>
     <row r="908">
@@ -7698,7 +7698,7 @@
         <v>10907</v>
       </c>
       <c r="B908" t="n">
-        <v>0.1434835433474157</v>
+        <v>15.14348354334741</v>
       </c>
     </row>
     <row r="909">
@@ -7706,7 +7706,7 @@
         <v>10908</v>
       </c>
       <c r="B909" t="n">
-        <v>0.1463319910152464</v>
+        <v>15.14633199101525</v>
       </c>
     </row>
     <row r="910">
@@ -7714,7 +7714,7 @@
         <v>10909</v>
       </c>
       <c r="B910" t="n">
-        <v>0.1832463673173657</v>
+        <v>15.18324636731737</v>
       </c>
     </row>
     <row r="911">
@@ -7722,7 +7722,7 @@
         <v>10910</v>
       </c>
       <c r="B911" t="n">
-        <v>0.1977402483835003</v>
+        <v>15.1977402483835</v>
       </c>
     </row>
     <row r="912">
@@ -7730,7 +7730,7 @@
         <v>10911</v>
       </c>
       <c r="B912" t="n">
-        <v>0.1361909979674433</v>
+        <v>15.13619099796744</v>
       </c>
     </row>
     <row r="913">
@@ -7738,7 +7738,7 @@
         <v>10912</v>
       </c>
       <c r="B913" t="n">
-        <v>0.2173188809041741</v>
+        <v>15.21731888090417</v>
       </c>
     </row>
     <row r="914">
@@ -7746,7 +7746,7 @@
         <v>10913</v>
       </c>
       <c r="B914" t="n">
-        <v>0.1767971032252154</v>
+        <v>15.17679710322522</v>
       </c>
     </row>
     <row r="915">
@@ -7754,7 +7754,7 @@
         <v>10914</v>
       </c>
       <c r="B915" t="n">
-        <v>0.1477949147806654</v>
+        <v>15.14779491478066</v>
       </c>
     </row>
     <row r="916">
@@ -7762,7 +7762,7 @@
         <v>10915</v>
       </c>
       <c r="B916" t="n">
-        <v>0.1317549618471608</v>
+        <v>15.13175496184716</v>
       </c>
     </row>
     <row r="917">
@@ -7770,7 +7770,7 @@
         <v>10916</v>
       </c>
       <c r="B917" t="n">
-        <v>0.2012837066881331</v>
+        <v>15.20128370668813</v>
       </c>
     </row>
     <row r="918">
@@ -7778,7 +7778,7 @@
         <v>10917</v>
       </c>
       <c r="B918" t="n">
-        <v>0.1264357387220602</v>
+        <v>15.12643573872206</v>
       </c>
     </row>
     <row r="919">
@@ -7786,7 +7786,7 @@
         <v>10918</v>
       </c>
       <c r="B919" t="n">
-        <v>0.1221473738569172</v>
+        <v>15.12214737385692</v>
       </c>
     </row>
     <row r="920">
@@ -7794,7 +7794,7 @@
         <v>10919</v>
       </c>
       <c r="B920" t="n">
-        <v>0.1566728085004246</v>
+        <v>15.15667280850042</v>
       </c>
     </row>
     <row r="921">
@@ -7802,7 +7802,7 @@
         <v>10920</v>
       </c>
       <c r="B921" t="n">
-        <v>0.1447030789577597</v>
+        <v>15.14470307895776</v>
       </c>
     </row>
     <row r="922">
@@ -7810,7 +7810,7 @@
         <v>10921</v>
       </c>
       <c r="B922" t="n">
-        <v>0.1128482248573973</v>
+        <v>15.1128482248574</v>
       </c>
     </row>
     <row r="923">
@@ -7818,7 +7818,7 @@
         <v>10922</v>
       </c>
       <c r="B923" t="n">
-        <v>0.1987246768095794</v>
+        <v>15.19872467680958</v>
       </c>
     </row>
     <row r="924">
@@ -7826,7 +7826,7 @@
         <v>10923</v>
       </c>
       <c r="B924" t="n">
-        <v>0.2008581357806767</v>
+        <v>15.20085813578068</v>
       </c>
     </row>
     <row r="925">
@@ -7834,7 +7834,7 @@
         <v>10924</v>
       </c>
       <c r="B925" t="n">
-        <v>0.1218380455023032</v>
+        <v>15.1218380455023</v>
       </c>
     </row>
     <row r="926">
@@ -7842,7 +7842,7 @@
         <v>10925</v>
       </c>
       <c r="B926" t="n">
-        <v>0.1448214181504112</v>
+        <v>15.14482141815041</v>
       </c>
     </row>
     <row r="927">
@@ -7850,7 +7850,7 @@
         <v>10926</v>
       </c>
       <c r="B927" t="n">
-        <v>0.1968989871830437</v>
+        <v>15.19689898718304</v>
       </c>
     </row>
     <row r="928">
@@ -7858,7 +7858,7 @@
         <v>10927</v>
       </c>
       <c r="B928" t="n">
-        <v>0.1358348663271971</v>
+        <v>15.1358348663272</v>
       </c>
     </row>
     <row r="929">
@@ -7866,7 +7866,7 @@
         <v>10928</v>
       </c>
       <c r="B929" t="n">
-        <v>0.1794293239661869</v>
+        <v>15.17942932396619</v>
       </c>
     </row>
     <row r="930">
@@ -7874,7 +7874,7 @@
         <v>10929</v>
       </c>
       <c r="B930" t="n">
-        <v>0.1553734287830502</v>
+        <v>15.15537342878305</v>
       </c>
     </row>
     <row r="931">
@@ -7882,7 +7882,7 @@
         <v>10930</v>
       </c>
       <c r="B931" t="n">
-        <v>0.1971511034253715</v>
+        <v>15.19715110342537</v>
       </c>
     </row>
     <row r="932">
@@ -7890,7 +7890,7 @@
         <v>10931</v>
       </c>
       <c r="B932" t="n">
-        <v>0.2001390671293487</v>
+        <v>15.20013906712935</v>
       </c>
     </row>
     <row r="933">
@@ -7898,7 +7898,7 @@
         <v>10932</v>
       </c>
       <c r="B933" t="n">
-        <v>0.1746374114925123</v>
+        <v>15.17463741149251</v>
       </c>
     </row>
     <row r="934">
@@ -7906,7 +7906,7 @@
         <v>10933</v>
       </c>
       <c r="B934" t="n">
-        <v>0.1751328327584679</v>
+        <v>15.17513283275847</v>
       </c>
     </row>
     <row r="935">
@@ -7914,7 +7914,7 @@
         <v>10934</v>
       </c>
       <c r="B935" t="n">
-        <v>0.2154534838263806</v>
+        <v>15.21545348382638</v>
       </c>
     </row>
     <row r="936">
@@ -7922,7 +7922,7 @@
         <v>10935</v>
       </c>
       <c r="B936" t="n">
-        <v>0.1429938860319577</v>
+        <v>15.14299388603196</v>
       </c>
     </row>
     <row r="937">
@@ -7930,7 +7930,7 @@
         <v>10936</v>
       </c>
       <c r="B937" t="n">
-        <v>0.1221755745096013</v>
+        <v>15.1221755745096</v>
       </c>
     </row>
     <row r="938">
@@ -7938,7 +7938,7 @@
         <v>10937</v>
       </c>
       <c r="B938" t="n">
-        <v>0.1953714342230427</v>
+        <v>15.19537143422304</v>
       </c>
     </row>
     <row r="939">
@@ -7946,7 +7946,7 @@
         <v>10938</v>
       </c>
       <c r="B939" t="n">
-        <v>0.2011579109509456</v>
+        <v>15.20115791095095</v>
       </c>
     </row>
     <row r="940">
@@ -7954,7 +7954,7 @@
         <v>10939</v>
       </c>
       <c r="B940" t="n">
-        <v>0.1149820932962775</v>
+        <v>15.11498209329628</v>
       </c>
     </row>
     <row r="941">
@@ -7962,7 +7962,7 @@
         <v>10940</v>
       </c>
       <c r="B941" t="n">
-        <v>0.2231612035641725</v>
+        <v>15.22316120356417</v>
       </c>
     </row>
     <row r="942">
@@ -7970,7 +7970,7 @@
         <v>10941</v>
       </c>
       <c r="B942" t="n">
-        <v>0.1147342355162176</v>
+        <v>15.11473423551622</v>
       </c>
     </row>
     <row r="943">
@@ -7978,7 +7978,7 @@
         <v>10942</v>
       </c>
       <c r="B943" t="n">
-        <v>0.1877248871076788</v>
+        <v>15.18772488710768</v>
       </c>
     </row>
     <row r="944">
@@ -7986,7 +7986,7 @@
         <v>10943</v>
       </c>
       <c r="B944" t="n">
-        <v>0.1877523687283013</v>
+        <v>15.1877523687283</v>
       </c>
     </row>
     <row r="945">
@@ -7994,7 +7994,7 @@
         <v>10944</v>
       </c>
       <c r="B945" t="n">
-        <v>0.1777156113090053</v>
+        <v>15.177715611309</v>
       </c>
     </row>
     <row r="946">
@@ -8002,7 +8002,7 @@
         <v>10945</v>
       </c>
       <c r="B946" t="n">
-        <v>0.1706840794056728</v>
+        <v>15.17068407940567</v>
       </c>
     </row>
     <row r="947">
@@ -8010,7 +8010,7 @@
         <v>10946</v>
       </c>
       <c r="B947" t="n">
-        <v>0.1187921514605312</v>
+        <v>15.11879215146053</v>
       </c>
     </row>
     <row r="948">
@@ -8018,7 +8018,7 @@
         <v>10947</v>
       </c>
       <c r="B948" t="n">
-        <v>0.13243525724228</v>
+        <v>15.13243525724228</v>
       </c>
     </row>
     <row r="949">
@@ -8026,7 +8026,7 @@
         <v>10948</v>
       </c>
       <c r="B949" t="n">
-        <v>0.1651667331656429</v>
+        <v>15.16516673316564</v>
       </c>
     </row>
     <row r="950">
@@ -8034,7 +8034,7 @@
         <v>10949</v>
       </c>
       <c r="B950" t="n">
-        <v>0.2260645545939763</v>
+        <v>15.22606455459398</v>
       </c>
     </row>
     <row r="951">
@@ -8042,7 +8042,7 @@
         <v>10950</v>
       </c>
       <c r="B951" t="n">
-        <v>0.1866829538751239</v>
+        <v>15.18668295387512</v>
       </c>
     </row>
     <row r="952">
@@ -8050,7 +8050,7 @@
         <v>10951</v>
       </c>
       <c r="B952" t="n">
-        <v>0.1440948657596287</v>
+        <v>15.14409486575963</v>
       </c>
     </row>
     <row r="953">
@@ -8058,7 +8058,7 @@
         <v>10952</v>
       </c>
       <c r="B953" t="n">
-        <v>0.1977213781605893</v>
+        <v>15.19772137816059</v>
       </c>
     </row>
     <row r="954">
@@ -8066,7 +8066,7 @@
         <v>10953</v>
       </c>
       <c r="B954" t="n">
-        <v>0.2078851893311451</v>
+        <v>15.20788518933115</v>
       </c>
     </row>
     <row r="955">
@@ -8074,7 +8074,7 @@
         <v>10954</v>
       </c>
       <c r="B955" t="n">
-        <v>0.2006731548859398</v>
+        <v>15.20067315488594</v>
       </c>
     </row>
     <row r="956">
@@ -8082,7 +8082,7 @@
         <v>10955</v>
       </c>
       <c r="B956" t="n">
-        <v>0.1008957568222328</v>
+        <v>15.10089575682223</v>
       </c>
     </row>
     <row r="957">
@@ -8090,7 +8090,7 @@
         <v>10956</v>
       </c>
       <c r="B957" t="n">
-        <v>0.1881666079194129</v>
+        <v>15.18816660791941</v>
       </c>
     </row>
     <row r="958">
@@ -8098,7 +8098,7 @@
         <v>10957</v>
       </c>
       <c r="B958" t="n">
-        <v>0.1524097327446274</v>
+        <v>15.15240973274463</v>
       </c>
     </row>
     <row r="959">
@@ -8106,7 +8106,7 @@
         <v>10958</v>
       </c>
       <c r="B959" t="n">
-        <v>0.2054733967293674</v>
+        <v>15.20547339672937</v>
       </c>
     </row>
     <row r="960">
@@ -8114,7 +8114,7 @@
         <v>10959</v>
       </c>
       <c r="B960" t="n">
-        <v>0.1796062449720477</v>
+        <v>15.17960624497205</v>
       </c>
     </row>
     <row r="961">
@@ -8122,7 +8122,7 @@
         <v>10960</v>
       </c>
       <c r="B961" t="n">
-        <v>0.2256250299342907</v>
+        <v>15.22562502993429</v>
       </c>
     </row>
     <row r="962">
@@ -8130,7 +8130,7 @@
         <v>10961</v>
       </c>
       <c r="B962" t="n">
-        <v>0.1866296946871792</v>
+        <v>15.18662969468718</v>
       </c>
     </row>
     <row r="963">
@@ -8138,7 +8138,7 @@
         <v>10962</v>
       </c>
       <c r="B963" t="n">
-        <v>0.1440464793007466</v>
+        <v>15.14404647930075</v>
       </c>
     </row>
     <row r="964">
@@ -8146,7 +8146,7 @@
         <v>10963</v>
       </c>
       <c r="B964" t="n">
-        <v>0.1295421964619883</v>
+        <v>15.12954219646199</v>
       </c>
     </row>
     <row r="965">
@@ -8154,7 +8154,7 @@
         <v>10964</v>
       </c>
       <c r="B965" t="n">
-        <v>0.2221907955460425</v>
+        <v>15.22219079554604</v>
       </c>
     </row>
     <row r="966">
@@ -8162,7 +8162,7 @@
         <v>10965</v>
       </c>
       <c r="B966" t="n">
-        <v>0.1277933873357105</v>
+        <v>15.12779338733571</v>
       </c>
     </row>
     <row r="967">
@@ -8170,7 +8170,7 @@
         <v>10966</v>
       </c>
       <c r="B967" t="n">
-        <v>0.145187646491688</v>
+        <v>15.14518764649169</v>
       </c>
     </row>
     <row r="968">
@@ -8178,7 +8178,7 @@
         <v>10967</v>
       </c>
       <c r="B968" t="n">
-        <v>0.1423438492483367</v>
+        <v>15.14234384924834</v>
       </c>
     </row>
     <row r="969">
@@ -8186,7 +8186,7 @@
         <v>10968</v>
       </c>
       <c r="B969" t="n">
-        <v>0.2003093930068671</v>
+        <v>15.20030939300687</v>
       </c>
     </row>
     <row r="970">
@@ -8194,7 +8194,7 @@
         <v>10969</v>
       </c>
       <c r="B970" t="n">
-        <v>0.1393130016777573</v>
+        <v>15.13931300167776</v>
       </c>
     </row>
     <row r="971">
@@ -8202,7 +8202,7 @@
         <v>10970</v>
       </c>
       <c r="B971" t="n">
-        <v>0.1988281559393526</v>
+        <v>15.19882815593935</v>
       </c>
     </row>
     <row r="972">
@@ -8210,7 +8210,7 @@
         <v>10971</v>
       </c>
       <c r="B972" t="n">
-        <v>0.1559412593711681</v>
+        <v>15.15594125937117</v>
       </c>
     </row>
     <row r="973">
@@ -8218,7 +8218,7 @@
         <v>10972</v>
       </c>
       <c r="B973" t="n">
-        <v>0.1382452118911145</v>
+        <v>15.13824521189111</v>
       </c>
     </row>
     <row r="974">
@@ -8226,7 +8226,7 @@
         <v>10973</v>
       </c>
       <c r="B974" t="n">
-        <v>0.1198896999553575</v>
+        <v>15.11988969995536</v>
       </c>
     </row>
     <row r="975">
@@ -8234,7 +8234,7 @@
         <v>10974</v>
       </c>
       <c r="B975" t="n">
-        <v>0.2290236320079191</v>
+        <v>15.22902363200792</v>
       </c>
     </row>
     <row r="976">
@@ -8242,7 +8242,7 @@
         <v>10975</v>
       </c>
       <c r="B976" t="n">
-        <v>0.1801497192441922</v>
+        <v>15.18014971924419</v>
       </c>
     </row>
     <row r="977">
@@ -8250,7 +8250,7 @@
         <v>10976</v>
       </c>
       <c r="B977" t="n">
-        <v>0.2031953714548815</v>
+        <v>15.20319537145488</v>
       </c>
     </row>
     <row r="978">
@@ -8258,7 +8258,7 @@
         <v>10977</v>
       </c>
       <c r="B978" t="n">
-        <v>0.09807019970640289</v>
+        <v>15.0980701997064</v>
       </c>
     </row>
     <row r="979">
@@ -8266,7 +8266,7 @@
         <v>10978</v>
       </c>
       <c r="B979" t="n">
-        <v>0.2131354310752703</v>
+        <v>15.21313543107527</v>
       </c>
     </row>
     <row r="980">
@@ -8274,7 +8274,7 @@
         <v>10979</v>
       </c>
       <c r="B980" t="n">
-        <v>0.1963023153590833</v>
+        <v>15.19630231535908</v>
       </c>
     </row>
     <row r="981">
@@ -8282,7 +8282,7 @@
         <v>10980</v>
       </c>
       <c r="B981" t="n">
-        <v>0.1971948165253534</v>
+        <v>15.19719481652535</v>
       </c>
     </row>
     <row r="982">
@@ -8290,7 +8290,7 @@
         <v>10981</v>
       </c>
       <c r="B982" t="n">
-        <v>0.2230839015455005</v>
+        <v>15.2230839015455</v>
       </c>
     </row>
     <row r="983">
@@ -8298,7 +8298,7 @@
         <v>10982</v>
       </c>
       <c r="B983" t="n">
-        <v>0.1799759498585554</v>
+        <v>15.17997594985856</v>
       </c>
     </row>
     <row r="984">
@@ -8306,7 +8306,7 @@
         <v>10983</v>
       </c>
       <c r="B984" t="n">
-        <v>0.1738016013823616</v>
+        <v>15.17380160138236</v>
       </c>
     </row>
     <row r="985">
@@ -8314,7 +8314,7 @@
         <v>10984</v>
       </c>
       <c r="B985" t="n">
-        <v>0.101291947741103</v>
+        <v>15.1012919477411</v>
       </c>
     </row>
     <row r="986">
@@ -8322,7 +8322,7 @@
         <v>10985</v>
       </c>
       <c r="B986" t="n">
-        <v>0.125996340505654</v>
+        <v>15.12599634050565</v>
       </c>
     </row>
     <row r="987">
@@ -8330,7 +8330,7 @@
         <v>10986</v>
       </c>
       <c r="B987" t="n">
-        <v>0.2029378851877644</v>
+        <v>15.20293788518777</v>
       </c>
     </row>
     <row r="988">
@@ -8338,7 +8338,7 @@
         <v>10987</v>
       </c>
       <c r="B988" t="n">
-        <v>0.1003675989296996</v>
+        <v>15.1003675989297</v>
       </c>
     </row>
     <row r="989">
@@ -8346,7 +8346,7 @@
         <v>10988</v>
       </c>
       <c r="B989" t="n">
-        <v>0.1302156560653891</v>
+        <v>15.13021565606539</v>
       </c>
     </row>
     <row r="990">
@@ -8354,7 +8354,7 @@
         <v>10989</v>
       </c>
       <c r="B990" t="n">
-        <v>0.2062429850292896</v>
+        <v>15.20624298502929</v>
       </c>
     </row>
     <row r="991">
@@ -8362,7 +8362,7 @@
         <v>10990</v>
       </c>
       <c r="B991" t="n">
-        <v>0.08837695117460408</v>
+        <v>15.0883769511746</v>
       </c>
     </row>
     <row r="992">
@@ -8370,7 +8370,7 @@
         <v>10991</v>
       </c>
       <c r="B992" t="n">
-        <v>0.1249211508779874</v>
+        <v>15.12492115087799</v>
       </c>
     </row>
     <row r="993">
@@ -8378,7 +8378,7 @@
         <v>10992</v>
       </c>
       <c r="B993" t="n">
-        <v>0.1633866593509717</v>
+        <v>15.16338665935097</v>
       </c>
     </row>
     <row r="994">
@@ -8386,7 +8386,7 @@
         <v>10993</v>
       </c>
       <c r="B994" t="n">
-        <v>0.2178819683510241</v>
+        <v>15.21788196835102</v>
       </c>
     </row>
     <row r="995">
@@ -8394,7 +8394,7 @@
         <v>10994</v>
       </c>
       <c r="B995" t="n">
-        <v>0.2102435341519325</v>
+        <v>15.21024353415193</v>
       </c>
     </row>
     <row r="996">
@@ -8402,7 +8402,7 @@
         <v>10995</v>
       </c>
       <c r="B996" t="n">
-        <v>0.185447152554594</v>
+        <v>15.18544715255459</v>
       </c>
     </row>
     <row r="997">
@@ -8410,7 +8410,7 @@
         <v>10996</v>
       </c>
       <c r="B997" t="n">
-        <v>0.1881859712247274</v>
+        <v>15.18818597122473</v>
       </c>
     </row>
     <row r="998">
@@ -8418,7 +8418,7 @@
         <v>10997</v>
       </c>
       <c r="B998" t="n">
-        <v>0.126143021928093</v>
+        <v>15.12614302192809</v>
       </c>
     </row>
     <row r="999">
@@ -8426,7 +8426,7 @@
         <v>10998</v>
       </c>
       <c r="B999" t="n">
-        <v>0.1371924451308017</v>
+        <v>15.1371924451308</v>
       </c>
     </row>
     <row r="1000">
@@ -8434,7 +8434,7 @@
         <v>10999</v>
       </c>
       <c r="B1000" t="n">
-        <v>0.1500473627056124</v>
+        <v>15.15004736270561</v>
       </c>
     </row>
     <row r="1001">
@@ -8442,7 +8442,7 @@
         <v>11000</v>
       </c>
       <c r="B1001" t="n">
-        <v>0.13097541000665</v>
+        <v>15.13097541000665</v>
       </c>
     </row>
     <row r="1002">
@@ -8450,7 +8450,7 @@
         <v>11001</v>
       </c>
       <c r="B1002" t="n">
-        <v>0.2145693791425832</v>
+        <v>15.21456937914258</v>
       </c>
     </row>
     <row r="1003">
@@ -8458,7 +8458,7 @@
         <v>11002</v>
       </c>
       <c r="B1003" t="n">
-        <v>0.1511846150397156</v>
+        <v>15.15118461503972</v>
       </c>
     </row>
     <row r="1004">
@@ -8466,7 +8466,7 @@
         <v>11003</v>
       </c>
       <c r="B1004" t="n">
-        <v>0.2507783083174708</v>
+        <v>15.25077830831747</v>
       </c>
     </row>
     <row r="1005">
@@ -8474,7 +8474,7 @@
         <v>11004</v>
       </c>
       <c r="B1005" t="n">
-        <v>0.1893664510114586</v>
+        <v>15.18936645101146</v>
       </c>
     </row>
     <row r="1006">
@@ -8482,7 +8482,7 @@
         <v>11005</v>
       </c>
       <c r="B1006" t="n">
-        <v>0.2012313055704915</v>
+        <v>15.20123130557049</v>
       </c>
     </row>
     <row r="1007">
@@ -8490,7 +8490,7 @@
         <v>11006</v>
       </c>
       <c r="B1007" t="n">
-        <v>0.1959680063711007</v>
+        <v>15.1959680063711</v>
       </c>
     </row>
     <row r="1008">
@@ -8498,7 +8498,7 @@
         <v>11007</v>
       </c>
       <c r="B1008" t="n">
-        <v>0.1176194349630665</v>
+        <v>15.11761943496307</v>
       </c>
     </row>
     <row r="1009">
@@ -8506,7 +8506,7 @@
         <v>11008</v>
       </c>
       <c r="B1009" t="n">
-        <v>0.171348655137176</v>
+        <v>15.17134865513718</v>
       </c>
     </row>
     <row r="1010">
@@ -8514,7 +8514,7 @@
         <v>11009</v>
       </c>
       <c r="B1010" t="n">
-        <v>0.1933929692875313</v>
+        <v>15.19339296928753</v>
       </c>
     </row>
     <row r="1011">
@@ -8522,7 +8522,7 @@
         <v>11010</v>
       </c>
       <c r="B1011" t="n">
-        <v>0.1347126268035757</v>
+        <v>15.13471262680358</v>
       </c>
     </row>
     <row r="1012">
@@ -8530,7 +8530,7 @@
         <v>11011</v>
       </c>
       <c r="B1012" t="n">
-        <v>0.1529560625781056</v>
+        <v>15.15295606257811</v>
       </c>
     </row>
     <row r="1013">
@@ -8538,7 +8538,7 @@
         <v>11012</v>
       </c>
       <c r="B1013" t="n">
-        <v>0.2276367585171349</v>
+        <v>15.22763675851714</v>
       </c>
     </row>
     <row r="1014">
@@ -8546,7 +8546,7 @@
         <v>11013</v>
       </c>
       <c r="B1014" t="n">
-        <v>0.1071701335484019</v>
+        <v>15.1071701335484</v>
       </c>
     </row>
     <row r="1015">
@@ -8554,7 +8554,7 @@
         <v>11014</v>
       </c>
       <c r="B1015" t="n">
-        <v>0.205555848887496</v>
+        <v>15.2055558488875</v>
       </c>
     </row>
     <row r="1016">
@@ -8562,7 +8562,7 @@
         <v>11015</v>
       </c>
       <c r="B1016" t="n">
-        <v>0.2207014685219554</v>
+        <v>15.22070146852196</v>
       </c>
     </row>
     <row r="1017">
@@ -8570,7 +8570,7 @@
         <v>11016</v>
       </c>
       <c r="B1017" t="n">
-        <v>0.1931125569062564</v>
+        <v>15.19311255690626</v>
       </c>
     </row>
     <row r="1018">
@@ -8578,7 +8578,7 @@
         <v>11017</v>
       </c>
       <c r="B1018" t="n">
-        <v>0.2038167388152075</v>
+        <v>15.20381673881521</v>
       </c>
     </row>
     <row r="1019">
@@ -8586,7 +8586,7 @@
         <v>11018</v>
       </c>
       <c r="B1019" t="n">
-        <v>0.1145402898434959</v>
+        <v>15.1145402898435</v>
       </c>
     </row>
     <row r="1020">
@@ -8594,7 +8594,7 @@
         <v>11019</v>
       </c>
       <c r="B1020" t="n">
-        <v>0.1917171955197509</v>
+        <v>15.19171719551975</v>
       </c>
     </row>
     <row r="1021">
@@ -8602,7 +8602,7 @@
         <v>11020</v>
       </c>
       <c r="B1021" t="n">
-        <v>0.1419558441116148</v>
+        <v>15.14195584411162</v>
       </c>
     </row>
     <row r="1022">
@@ -8610,7 +8610,7 @@
         <v>11021</v>
       </c>
       <c r="B1022" t="n">
-        <v>0.100684449576734</v>
+        <v>15.10068444957673</v>
       </c>
     </row>
     <row r="1023">
@@ -8618,7 +8618,7 @@
         <v>11022</v>
       </c>
       <c r="B1023" t="n">
-        <v>0.174251706672527</v>
+        <v>15.17425170667253</v>
       </c>
     </row>
     <row r="1024">
@@ -8626,7 +8626,7 @@
         <v>11023</v>
       </c>
       <c r="B1024" t="n">
-        <v>0.16045813606255</v>
+        <v>15.16045813606255</v>
       </c>
     </row>
     <row r="1025">
@@ -8634,7 +8634,7 @@
         <v>11024</v>
       </c>
       <c r="B1025" t="n">
-        <v>0.1435549498111617</v>
+        <v>15.14355494981116</v>
       </c>
     </row>
     <row r="1026">
@@ -8642,7 +8642,7 @@
         <v>11025</v>
       </c>
       <c r="B1026" t="n">
-        <v>0.1134164018949519</v>
+        <v>15.11341640189495</v>
       </c>
     </row>
     <row r="1027">
@@ -8650,7 +8650,7 @@
         <v>11026</v>
       </c>
       <c r="B1027" t="n">
-        <v>0.1567211012421993</v>
+        <v>15.1567211012422</v>
       </c>
     </row>
     <row r="1028">
@@ -8658,7 +8658,7 @@
         <v>11027</v>
       </c>
       <c r="B1028" t="n">
-        <v>0.225592999273019</v>
+        <v>15.22559299927302</v>
       </c>
     </row>
     <row r="1029">
@@ -8666,7 +8666,7 @@
         <v>11028</v>
       </c>
       <c r="B1029" t="n">
-        <v>0.2115401287374089</v>
+        <v>15.21154012873741</v>
       </c>
     </row>
     <row r="1030">
@@ -8674,7 +8674,7 @@
         <v>11029</v>
       </c>
       <c r="B1030" t="n">
-        <v>0.2046194860526915</v>
+        <v>15.20461948605269</v>
       </c>
     </row>
     <row r="1031">
@@ -8682,7 +8682,7 @@
         <v>11030</v>
       </c>
       <c r="B1031" t="n">
-        <v>0.231848697711509</v>
+        <v>15.23184869771151</v>
       </c>
     </row>
     <row r="1032">
@@ -8690,7 +8690,7 @@
         <v>11031</v>
       </c>
       <c r="B1032" t="n">
-        <v>0.07717865685609315</v>
+        <v>15.07717865685609</v>
       </c>
     </row>
     <row r="1033">
@@ -8698,7 +8698,7 @@
         <v>11032</v>
       </c>
       <c r="B1033" t="n">
-        <v>0.1647389938808506</v>
+        <v>15.16473899388085</v>
       </c>
     </row>
     <row r="1034">
@@ -8706,7 +8706,7 @@
         <v>11033</v>
       </c>
       <c r="B1034" t="n">
-        <v>0.1520041198585327</v>
+        <v>15.15200411985853</v>
       </c>
     </row>
     <row r="1035">
@@ -8714,7 +8714,7 @@
         <v>11034</v>
       </c>
       <c r="B1035" t="n">
-        <v>0.1940141182147158</v>
+        <v>15.19401411821472</v>
       </c>
     </row>
     <row r="1036">
@@ -8722,7 +8722,7 @@
         <v>11035</v>
       </c>
       <c r="B1036" t="n">
-        <v>0.2223213774640201</v>
+        <v>15.22232137746402</v>
       </c>
     </row>
     <row r="1037">
@@ -8730,7 +8730,7 @@
         <v>11036</v>
       </c>
       <c r="B1037" t="n">
-        <v>0.1888190266132112</v>
+        <v>15.18881902661321</v>
       </c>
     </row>
     <row r="1038">
@@ -8738,7 +8738,7 @@
         <v>11037</v>
       </c>
       <c r="B1038" t="n">
-        <v>0.2252263662796943</v>
+        <v>15.22522636627969</v>
       </c>
     </row>
     <row r="1039">
@@ -8746,7 +8746,7 @@
         <v>11038</v>
       </c>
       <c r="B1039" t="n">
-        <v>0.2206306562797215</v>
+        <v>15.22063065627972</v>
       </c>
     </row>
     <row r="1040">
@@ -8754,7 +8754,7 @@
         <v>11039</v>
       </c>
       <c r="B1040" t="n">
-        <v>0.1540493891179952</v>
+        <v>15.154049389118</v>
       </c>
     </row>
     <row r="1041">
@@ -8762,7 +8762,7 @@
         <v>11040</v>
       </c>
       <c r="B1041" t="n">
-        <v>0.1391184164219989</v>
+        <v>15.139118416422</v>
       </c>
     </row>
     <row r="1042">
@@ -8770,7 +8770,7 @@
         <v>11041</v>
       </c>
       <c r="B1042" t="n">
-        <v>0.1905483886008124</v>
+        <v>15.19054838860081</v>
       </c>
     </row>
     <row r="1043">
@@ -8778,7 +8778,7 @@
         <v>11042</v>
       </c>
       <c r="B1043" t="n">
-        <v>0.159056626269637</v>
+        <v>15.15905662626964</v>
       </c>
     </row>
     <row r="1044">
@@ -8786,7 +8786,7 @@
         <v>11043</v>
       </c>
       <c r="B1044" t="n">
-        <v>0.1222101540204272</v>
+        <v>15.12221015402043</v>
       </c>
     </row>
     <row r="1045">
@@ -8794,7 +8794,7 @@
         <v>11044</v>
       </c>
       <c r="B1045" t="n">
-        <v>0.1830247355338339</v>
+        <v>15.18302473553383</v>
       </c>
     </row>
     <row r="1046">
@@ -8802,7 +8802,7 @@
         <v>11045</v>
       </c>
       <c r="B1046" t="n">
-        <v>0.1813825576385498</v>
+        <v>15.18138255763855</v>
       </c>
     </row>
     <row r="1047">
@@ -8810,7 +8810,7 @@
         <v>11046</v>
       </c>
       <c r="B1047" t="n">
-        <v>0.1746694021920029</v>
+        <v>15.174669402192</v>
       </c>
     </row>
     <row r="1048">
@@ -8818,7 +8818,7 @@
         <v>11047</v>
       </c>
       <c r="B1048" t="n">
-        <v>0.2173868076983089</v>
+        <v>15.21738680769831</v>
       </c>
     </row>
     <row r="1049">
@@ -8826,7 +8826,7 @@
         <v>11048</v>
       </c>
       <c r="B1049" t="n">
-        <v>0.1055601760871426</v>
+        <v>15.10556017608714</v>
       </c>
     </row>
     <row r="1050">
@@ -8834,7 +8834,7 @@
         <v>11049</v>
       </c>
       <c r="B1050" t="n">
-        <v>0.09828605224055227</v>
+        <v>15.09828605224055</v>
       </c>
     </row>
     <row r="1051">
@@ -8842,7 +8842,7 @@
         <v>11050</v>
       </c>
       <c r="B1051" t="n">
-        <v>0.1380956025262454</v>
+        <v>15.13809560252625</v>
       </c>
     </row>
     <row r="1052">
@@ -8850,7 +8850,7 @@
         <v>11051</v>
       </c>
       <c r="B1052" t="n">
-        <v>0.1577699086228227</v>
+        <v>15.15776990862282</v>
       </c>
     </row>
     <row r="1053">
@@ -8858,7 +8858,7 @@
         <v>11052</v>
       </c>
       <c r="B1053" t="n">
-        <v>0.1540864696812808</v>
+        <v>15.15408646968128</v>
       </c>
     </row>
     <row r="1054">
@@ -8866,7 +8866,7 @@
         <v>11053</v>
       </c>
       <c r="B1054" t="n">
-        <v>0.197086018041832</v>
+        <v>15.19708601804183</v>
       </c>
     </row>
     <row r="1055">
@@ -8874,7 +8874,7 @@
         <v>11054</v>
       </c>
       <c r="B1055" t="n">
-        <v>0.1803298243219228</v>
+        <v>15.18032982432192</v>
       </c>
     </row>
     <row r="1056">
@@ -8882,7 +8882,7 @@
         <v>11055</v>
       </c>
       <c r="B1056" t="n">
-        <v>0.2106700899777983</v>
+        <v>15.2106700899778</v>
       </c>
     </row>
     <row r="1057">
@@ -8890,7 +8890,7 @@
         <v>11056</v>
       </c>
       <c r="B1057" t="n">
-        <v>0.1651440634625193</v>
+        <v>15.16514406346252</v>
       </c>
     </row>
     <row r="1058">
@@ -8898,7 +8898,7 @@
         <v>11057</v>
       </c>
       <c r="B1058" t="n">
-        <v>0.1439419647486288</v>
+        <v>15.14394196474863</v>
       </c>
     </row>
     <row r="1059">
@@ -8906,7 +8906,7 @@
         <v>11058</v>
       </c>
       <c r="B1059" t="n">
-        <v>0.1737271161219725</v>
+        <v>15.17372711612197</v>
       </c>
     </row>
   </sheetData>
